--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Gross fixed capital formation quarters.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Gross fixed capital formation quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5562" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5500" uniqueCount="72">
   <si>
     <t>National accounts - Gross fixed capital formation (nominal/
 price-adjusted): Germany, quarters, original and adjusted
@@ -148,13 +148,13 @@
     <t>unit app.</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t xml:space="preserve">      GFCF in machinery and equipment</t>
   </si>
   <si>
     <t xml:space="preserve">            Machinery</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t xml:space="preserve">            Transport equipment</t>
@@ -229,7 +229,7 @@
     <t>resources.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:51:01</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:20:09</t>
   </si>
 </sst>
 </file>
@@ -3860,21 +3860,21 @@
         <v>198.475</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>174.923</v>
+        <v>175.129</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>198.432</v>
+        <v>198.711</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>200.851</v>
-      </c>
-      <c r="DV8" t="s" s="10">
-        <v>44</v>
+        <v>199.657</v>
+      </c>
+      <c r="DV8" t="n" s="10">
+        <v>210.399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="13">
         <v>43</v>
@@ -4240,21 +4240,21 @@
         <v>64.959</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>52.305</v>
+        <v>52.327</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>57.471</v>
+        <v>57.551</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>53.701</v>
-      </c>
-      <c r="DV9" t="s" s="10">
-        <v>44</v>
+        <v>53.647</v>
+      </c>
+      <c r="DV9" t="n" s="10">
+        <v>64.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="13">
         <v>43</v>
@@ -4620,16 +4620,16 @@
         <v>44.867</v>
       </c>
       <c r="DS10" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT10" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU10" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV10" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
@@ -5000,16 +5000,16 @@
         <v>20.092</v>
       </c>
       <c r="DS11" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT11" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU11" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV11" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -5380,16 +5380,16 @@
         <v>94.289</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>89.681</v>
+        <v>89.812</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>107.071</v>
+        <v>107.183</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>112.731</v>
-      </c>
-      <c r="DV12" t="s" s="10">
-        <v>44</v>
+        <v>111.5</v>
+      </c>
+      <c r="DV12" t="n" s="10">
+        <v>105.765</v>
       </c>
     </row>
     <row r="13">
@@ -5760,16 +5760,16 @@
         <v>58.328</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>55.926</v>
+        <v>56.012</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>66.387</v>
+        <v>66.427</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>70.548</v>
-      </c>
-      <c r="DV13" t="s" s="10">
-        <v>44</v>
+        <v>69.395</v>
+      </c>
+      <c r="DV13" t="n" s="10">
+        <v>65.81</v>
       </c>
     </row>
     <row r="14">
@@ -6140,16 +6140,16 @@
         <v>35.961</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>33.755</v>
+        <v>33.8</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>40.684</v>
+        <v>40.756</v>
       </c>
       <c r="DU14" t="n" s="10">
-        <v>42.183</v>
-      </c>
-      <c r="DV14" t="s" s="10">
-        <v>44</v>
+        <v>42.105</v>
+      </c>
+      <c r="DV14" t="n" s="10">
+        <v>39.955</v>
       </c>
     </row>
     <row r="15">
@@ -6520,16 +6520,16 @@
         <v>22.639</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>23.267</v>
+        <v>23.294</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>25.54</v>
+        <v>25.575</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>26.307</v>
-      </c>
-      <c r="DV15" t="s" s="10">
-        <v>44</v>
+        <v>26.304</v>
+      </c>
+      <c r="DV15" t="n" s="10">
+        <v>25.046</v>
       </c>
     </row>
     <row r="16">
@@ -6900,16 +6900,16 @@
         <v>13.322</v>
       </c>
       <c r="DS16" t="n" s="10">
-        <v>10.488</v>
+        <v>10.506</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>15.144</v>
+        <v>15.181</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>15.876</v>
-      </c>
-      <c r="DV16" t="s" s="10">
-        <v>44</v>
+        <v>15.801</v>
+      </c>
+      <c r="DV16" t="n" s="10">
+        <v>14.909</v>
       </c>
     </row>
     <row r="17">
@@ -7280,16 +7280,16 @@
         <v>39.227</v>
       </c>
       <c r="DS17" t="n" s="10">
-        <v>32.937</v>
+        <v>32.99</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>33.89</v>
+        <v>33.977</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>34.419</v>
-      </c>
-      <c r="DV17" t="s" s="10">
-        <v>44</v>
+        <v>34.51</v>
+      </c>
+      <c r="DV17" t="n" s="10">
+        <v>39.994</v>
       </c>
     </row>
     <row r="18" ht="33.75" customHeight="true">
@@ -7665,21 +7665,21 @@
         <v>118.36</v>
       </c>
       <c r="DS19" t="n" s="10">
-        <v>102.61</v>
+        <v>102.72</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>114.13</v>
+        <v>114.29</v>
       </c>
       <c r="DU19" t="n" s="10">
-        <v>112.15</v>
-      </c>
-      <c r="DV19" t="s" s="10">
-        <v>44</v>
+        <v>111.48</v>
+      </c>
+      <c r="DV19" t="n" s="10">
+        <v>116.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="13">
         <v>43</v>
@@ -8045,21 +8045,21 @@
         <v>120.4</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>95.94</v>
+        <v>95.96</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>104.74</v>
+        <v>104.87</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>97.45</v>
-      </c>
-      <c r="DV20" t="s" s="10">
-        <v>44</v>
+        <v>97.36</v>
+      </c>
+      <c r="DV20" t="n" s="10">
+        <v>117.27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s" s="13">
         <v>43</v>
@@ -8425,16 +8425,16 @@
         <v>116.32</v>
       </c>
       <c r="DS21" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT21" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU21" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV21" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -8805,16 +8805,16 @@
         <v>130.75</v>
       </c>
       <c r="DS22" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT22" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU22" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV22" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -9185,16 +9185,16 @@
         <v>111.05</v>
       </c>
       <c r="DS23" t="n" s="10">
-        <v>102.78</v>
+        <v>102.93</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>118.79</v>
+        <v>118.91</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>118.9</v>
-      </c>
-      <c r="DV23" t="s" s="10">
-        <v>44</v>
+        <v>117.52</v>
+      </c>
+      <c r="DV23" t="n" s="10">
+        <v>109.26</v>
       </c>
     </row>
     <row r="24">
@@ -9565,16 +9565,16 @@
         <v>114.41</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>106.66</v>
+        <v>106.83</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>122.42</v>
+        <v>122.49</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>123.55</v>
-      </c>
-      <c r="DV24" t="s" s="10">
-        <v>44</v>
+        <v>121.46</v>
+      </c>
+      <c r="DV24" t="n" s="10">
+        <v>112.93</v>
       </c>
     </row>
     <row r="25">
@@ -9945,16 +9945,16 @@
         <v>105.97</v>
       </c>
       <c r="DS25" t="n" s="10">
-        <v>96.93</v>
+        <v>97.06</v>
       </c>
       <c r="DT25" t="n" s="10">
-        <v>113.3</v>
+        <v>113.51</v>
       </c>
       <c r="DU25" t="n" s="10">
-        <v>111.89</v>
-      </c>
-      <c r="DV25" t="s" s="10">
-        <v>44</v>
+        <v>111.59</v>
+      </c>
+      <c r="DV25" t="n" s="10">
+        <v>103.73</v>
       </c>
     </row>
     <row r="26">
@@ -10325,16 +10325,16 @@
         <v>100.68</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>100.59</v>
+        <v>100.71</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>106.58</v>
+        <v>106.73</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>104.04</v>
-      </c>
-      <c r="DV26" t="s" s="10">
-        <v>44</v>
+        <v>103.97</v>
+      </c>
+      <c r="DV26" t="n" s="10">
+        <v>96.92</v>
       </c>
     </row>
     <row r="27">
@@ -10705,16 +10705,16 @@
         <v>116.37</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>89.8</v>
+        <v>89.96</v>
       </c>
       <c r="DT27" t="n" s="10">
-        <v>126.55</v>
+        <v>126.86</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>127.35</v>
-      </c>
-      <c r="DV27" t="s" s="10">
-        <v>44</v>
+        <v>126.59</v>
+      </c>
+      <c r="DV27" t="n" s="10">
+        <v>117.15</v>
       </c>
     </row>
     <row r="28">
@@ -11085,16 +11085,16 @@
         <v>135.36</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>114.01</v>
+        <v>114.19</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>117.29</v>
+        <v>117.57</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>119.07</v>
-      </c>
-      <c r="DV28" t="s" s="10">
-        <v>44</v>
+        <v>119.37</v>
+      </c>
+      <c r="DV28" t="n" s="10">
+        <v>136.41</v>
       </c>
     </row>
     <row r="29" ht="33.75" customHeight="true">
@@ -11470,21 +11470,21 @@
         <v>179.267</v>
       </c>
       <c r="DS30" t="n" s="10">
-        <v>155.412</v>
+        <v>155.579</v>
       </c>
       <c r="DT30" t="n" s="10">
-        <v>172.86</v>
+        <v>173.102</v>
       </c>
       <c r="DU30" t="n" s="10">
-        <v>169.861</v>
-      </c>
-      <c r="DV30" t="s" s="10">
-        <v>44</v>
+        <v>168.846</v>
+      </c>
+      <c r="DV30" t="n" s="10">
+        <v>176.601</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s" s="13">
         <v>43</v>
@@ -11850,21 +11850,21 @@
         <v>62.29</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>49.635</v>
+        <v>49.646</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>54.188</v>
+        <v>54.255</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>50.416</v>
-      </c>
-      <c r="DV31" t="s" s="10">
-        <v>44</v>
+        <v>50.37</v>
+      </c>
+      <c r="DV31" t="n" s="10">
+        <v>60.671</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s" s="13">
         <v>43</v>
@@ -12230,16 +12230,16 @@
         <v>43.262</v>
       </c>
       <c r="DS32" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT32" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU32" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV32" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -12610,16 +12610,16 @@
         <v>19.016</v>
       </c>
       <c r="DS33" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT33" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU33" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV33" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -12990,16 +12990,16 @@
         <v>80.856</v>
       </c>
       <c r="DS34" t="n" s="10">
-        <v>74.835</v>
+        <v>74.944</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>86.492</v>
+        <v>86.579</v>
       </c>
       <c r="DU34" t="n" s="10">
-        <v>86.572</v>
-      </c>
-      <c r="DV34" t="s" s="10">
-        <v>44</v>
+        <v>85.567</v>
+      </c>
+      <c r="DV34" t="n" s="10">
+        <v>79.553</v>
       </c>
     </row>
     <row r="35">
@@ -13370,16 +13370,16 @@
         <v>50.159</v>
       </c>
       <c r="DS35" t="n" s="10">
-        <v>46.761</v>
+        <v>46.836</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>53.67</v>
+        <v>53.701</v>
       </c>
       <c r="DU35" t="n" s="10">
-        <v>54.166</v>
-      </c>
-      <c r="DV35" t="s" s="10">
-        <v>44</v>
+        <v>53.25</v>
+      </c>
+      <c r="DV35" t="n" s="10">
+        <v>49.51</v>
       </c>
     </row>
     <row r="36">
@@ -13750,16 +13750,16 @@
         <v>30.699</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>28.08</v>
+        <v>28.118</v>
       </c>
       <c r="DT36" t="n" s="10">
-        <v>32.822</v>
+        <v>32.883</v>
       </c>
       <c r="DU36" t="n" s="10">
-        <v>32.414</v>
-      </c>
-      <c r="DV36" t="s" s="10">
-        <v>44</v>
+        <v>32.327</v>
+      </c>
+      <c r="DV36" t="n" s="10">
+        <v>30.05</v>
       </c>
     </row>
     <row r="37">
@@ -14130,16 +14130,16 @@
         <v>19.448</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>19.431</v>
+        <v>19.454</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>20.588</v>
+        <v>20.617</v>
       </c>
       <c r="DU37" t="n" s="10">
-        <v>20.097</v>
-      </c>
-      <c r="DV37" t="s" s="10">
-        <v>44</v>
+        <v>20.084</v>
+      </c>
+      <c r="DV37" t="n" s="10">
+        <v>18.722</v>
       </c>
     </row>
     <row r="38">
@@ -14510,16 +14510,16 @@
         <v>11.233</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>8.668</v>
+        <v>8.684</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>12.216</v>
+        <v>12.245</v>
       </c>
       <c r="DU38" t="n" s="10">
-        <v>12.293</v>
-      </c>
-      <c r="DV38" t="s" s="10">
-        <v>44</v>
+        <v>12.219</v>
+      </c>
+      <c r="DV38" t="n" s="10">
+        <v>11.308</v>
       </c>
     </row>
     <row r="39">
@@ -14890,16 +14890,16 @@
         <v>36.429</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>30.683</v>
+        <v>30.731</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>31.566</v>
+        <v>31.641</v>
       </c>
       <c r="DU39" t="n" s="10">
-        <v>32.045</v>
-      </c>
-      <c r="DV39" t="s" s="10">
-        <v>44</v>
+        <v>32.125</v>
+      </c>
+      <c r="DV39" t="n" s="10">
+        <v>36.711</v>
       </c>
     </row>
     <row r="40" ht="33.75" customHeight="true">
@@ -15275,21 +15275,21 @@
         <v>195.81</v>
       </c>
       <c r="DS41" t="n" s="10">
-        <v>172.125</v>
+        <v>172.314</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>191.46</v>
+        <v>191.722</v>
       </c>
       <c r="DU41" t="n" s="10">
-        <v>188.135</v>
-      </c>
-      <c r="DV41" t="s" s="10">
-        <v>44</v>
+        <v>186.999</v>
+      </c>
+      <c r="DV41" t="n" s="10">
+        <v>195.589</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s" s="13">
         <v>43</v>
@@ -15655,21 +15655,21 @@
         <v>64.153</v>
       </c>
       <c r="DS42" t="n" s="10">
-        <v>51.787</v>
+        <v>51.796</v>
       </c>
       <c r="DT42" t="n" s="10">
-        <v>56.534</v>
+        <v>56.608</v>
       </c>
       <c r="DU42" t="n" s="10">
-        <v>52.6</v>
-      </c>
-      <c r="DV42" t="s" s="10">
-        <v>44</v>
+        <v>52.552</v>
+      </c>
+      <c r="DV42" t="n" s="10">
+        <v>63.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s" s="13">
         <v>43</v>
@@ -16035,16 +16035,16 @@
         <v>44.277</v>
       </c>
       <c r="DS43" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT43" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU43" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV43" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44">
@@ -16415,16 +16415,16 @@
         <v>19.876</v>
       </c>
       <c r="DS44" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT44" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU44" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV44" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -16795,16 +16795,16 @@
         <v>92.969</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>87.639</v>
+        <v>87.766</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>101.287</v>
+        <v>101.393</v>
       </c>
       <c r="DU45" t="n" s="10">
-        <v>101.383</v>
-      </c>
-      <c r="DV45" t="s" s="10">
-        <v>44</v>
+        <v>100.209</v>
+      </c>
+      <c r="DV45" t="n" s="10">
+        <v>93.166</v>
       </c>
     </row>
     <row r="46">
@@ -17175,16 +17175,16 @@
         <v>57.529</v>
       </c>
       <c r="DS46" t="n" s="10">
-        <v>54.604</v>
+        <v>54.687</v>
       </c>
       <c r="DT46" t="n" s="10">
-        <v>62.671</v>
+        <v>62.708</v>
       </c>
       <c r="DU46" t="n" s="10">
-        <v>63.248</v>
-      </c>
-      <c r="DV46" t="s" s="10">
-        <v>44</v>
+        <v>62.179</v>
+      </c>
+      <c r="DV46" t="n" s="10">
+        <v>57.812</v>
       </c>
     </row>
     <row r="47">
@@ -17555,16 +17555,16 @@
         <v>35.44</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>33.035</v>
+        <v>33.079</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>38.616</v>
+        <v>38.685</v>
       </c>
       <c r="DU47" t="n" s="10">
-        <v>38.135</v>
-      </c>
-      <c r="DV47" t="s" s="10">
-        <v>44</v>
+        <v>38.03</v>
+      </c>
+      <c r="DV47" t="n" s="10">
+        <v>35.354</v>
       </c>
     </row>
     <row r="48">
@@ -17935,16 +17935,16 @@
         <v>22.219</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>22.701</v>
+        <v>22.727</v>
       </c>
       <c r="DT48" t="n" s="10">
-        <v>24.053</v>
+        <v>24.087</v>
       </c>
       <c r="DU48" t="n" s="10">
-        <v>23.48</v>
-      </c>
-      <c r="DV48" t="s" s="10">
-        <v>44</v>
+        <v>23.463</v>
+      </c>
+      <c r="DV48" t="n" s="10">
+        <v>21.873</v>
       </c>
     </row>
     <row r="49">
@@ -18315,16 +18315,16 @@
         <v>13.221</v>
       </c>
       <c r="DS49" t="n" s="10">
-        <v>10.334</v>
+        <v>10.352</v>
       </c>
       <c r="DT49" t="n" s="10">
-        <v>14.563</v>
+        <v>14.598</v>
       </c>
       <c r="DU49" t="n" s="10">
-        <v>14.655</v>
-      </c>
-      <c r="DV49" t="s" s="10">
-        <v>44</v>
+        <v>14.567</v>
+      </c>
+      <c r="DV49" t="n" s="10">
+        <v>13.481</v>
       </c>
     </row>
     <row r="50">
@@ -18695,16 +18695,16 @@
         <v>38.688</v>
       </c>
       <c r="DS50" t="n" s="10">
-        <v>32.699</v>
+        <v>32.752</v>
       </c>
       <c r="DT50" t="n" s="10">
-        <v>33.639</v>
+        <v>33.721</v>
       </c>
       <c r="DU50" t="n" s="10">
-        <v>34.152</v>
-      </c>
-      <c r="DV50" t="s" s="10">
-        <v>44</v>
+        <v>34.238</v>
+      </c>
+      <c r="DV50" t="n" s="10">
+        <v>39.123</v>
       </c>
     </row>
     <row r="51" ht="33.75" customHeight="true">
@@ -19085,21 +19085,21 @@
         <v>187.561</v>
       </c>
       <c r="DS53" t="n" s="10">
-        <v>188.898</v>
+        <v>189.181</v>
       </c>
       <c r="DT53" t="n" s="10">
-        <v>195.02</v>
+        <v>195.382</v>
       </c>
       <c r="DU53" t="n" s="10">
-        <v>196.552</v>
-      </c>
-      <c r="DV53" t="s" s="10">
-        <v>44</v>
+        <v>195.439</v>
+      </c>
+      <c r="DV53" t="n" s="10">
+        <v>199.32</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s" s="13">
         <v>43</v>
@@ -19465,21 +19465,21 @@
         <v>56.857</v>
       </c>
       <c r="DS54" t="n" s="10">
-        <v>56.935</v>
+        <v>56.907</v>
       </c>
       <c r="DT54" t="n" s="10">
-        <v>57.419</v>
+        <v>57.447</v>
       </c>
       <c r="DU54" t="n" s="10">
-        <v>55.682</v>
-      </c>
-      <c r="DV54" t="s" s="10">
-        <v>44</v>
+        <v>55.576</v>
+      </c>
+      <c r="DV54" t="n" s="10">
+        <v>56.412</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s" s="13">
         <v>43</v>
@@ -19845,16 +19845,16 @@
         <v>37.736</v>
       </c>
       <c r="DS55" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT55" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU55" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV55" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -20225,16 +20225,16 @@
         <v>19.121</v>
       </c>
       <c r="DS56" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT56" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU56" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV56" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -20605,16 +20605,16 @@
         <v>95.23</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>97.372</v>
+        <v>97.628</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>102.571</v>
+        <v>102.814</v>
       </c>
       <c r="DU57" t="n" s="10">
-        <v>105.399</v>
-      </c>
-      <c r="DV57" t="s" s="10">
-        <v>44</v>
+        <v>104.296</v>
+      </c>
+      <c r="DV57" t="n" s="10">
+        <v>106.771</v>
       </c>
     </row>
     <row r="58">
@@ -20985,16 +20985,16 @@
         <v>58.959</v>
       </c>
       <c r="DS58" t="n" s="10">
-        <v>60.604</v>
+        <v>60.768</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>63.682</v>
+        <v>63.806</v>
       </c>
       <c r="DU58" t="n" s="10">
-        <v>65.98</v>
-      </c>
-      <c r="DV58" t="s" s="10">
-        <v>44</v>
+        <v>64.915</v>
+      </c>
+      <c r="DV58" t="n" s="10">
+        <v>66.454</v>
       </c>
     </row>
     <row r="59">
@@ -21365,16 +21365,16 @@
         <v>36.271</v>
       </c>
       <c r="DS59" t="n" s="10">
-        <v>36.768</v>
+        <v>36.86</v>
       </c>
       <c r="DT59" t="n" s="10">
-        <v>38.889</v>
+        <v>39.008</v>
       </c>
       <c r="DU59" t="n" s="10">
-        <v>39.419</v>
-      </c>
-      <c r="DV59" t="s" s="10">
-        <v>44</v>
+        <v>39.381</v>
+      </c>
+      <c r="DV59" t="n" s="10">
+        <v>40.317</v>
       </c>
     </row>
     <row r="60">
@@ -21754,7 +21754,7 @@
         <v>57</v>
       </c>
       <c r="DV60" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61">
@@ -22134,7 +22134,7 @@
         <v>57</v>
       </c>
       <c r="DV61" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62">
@@ -22505,16 +22505,16 @@
         <v>35.474</v>
       </c>
       <c r="DS62" t="n" s="10">
-        <v>34.591</v>
+        <v>34.646</v>
       </c>
       <c r="DT62" t="n" s="10">
-        <v>35.03</v>
+        <v>35.121</v>
       </c>
       <c r="DU62" t="n" s="10">
-        <v>35.471</v>
-      </c>
-      <c r="DV62" t="s" s="10">
-        <v>44</v>
+        <v>35.567</v>
+      </c>
+      <c r="DV62" t="n" s="10">
+        <v>36.137</v>
       </c>
     </row>
     <row r="63" ht="33.75" customHeight="true">
@@ -22890,21 +22890,21 @@
         <v>111.63</v>
       </c>
       <c r="DS64" t="n" s="10">
-        <v>111.0</v>
+        <v>111.07</v>
       </c>
       <c r="DT64" t="n" s="10">
-        <v>112.35</v>
+        <v>112.46</v>
       </c>
       <c r="DU64" t="n" s="10">
-        <v>109.93</v>
-      </c>
-      <c r="DV64" t="s" s="10">
-        <v>44</v>
+        <v>109.21</v>
+      </c>
+      <c r="DV64" t="n" s="10">
+        <v>109.8</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B65" t="s" s="13">
         <v>43</v>
@@ -23270,21 +23270,21 @@
         <v>104.84</v>
       </c>
       <c r="DS65" t="n" s="10">
-        <v>104.55</v>
+        <v>104.44</v>
       </c>
       <c r="DT65" t="n" s="10">
         <v>105.02</v>
       </c>
       <c r="DU65" t="n" s="10">
-        <v>101.12</v>
-      </c>
-      <c r="DV65" t="s" s="10">
-        <v>44</v>
+        <v>100.9</v>
+      </c>
+      <c r="DV65" t="n" s="10">
+        <v>101.79</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B66" t="s" s="13">
         <v>43</v>
@@ -23650,16 +23650,16 @@
         <v>97.11</v>
       </c>
       <c r="DS66" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT66" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU66" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV66" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
@@ -24030,16 +24030,16 @@
         <v>124.32</v>
       </c>
       <c r="DS67" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT67" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU67" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV67" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
@@ -24410,16 +24410,16 @@
         <v>111.81</v>
       </c>
       <c r="DS68" t="n" s="10">
-        <v>111.9</v>
+        <v>112.05</v>
       </c>
       <c r="DT68" t="n" s="10">
-        <v>113.86</v>
+        <v>113.98</v>
       </c>
       <c r="DU68" t="n" s="10">
-        <v>111.2</v>
-      </c>
-      <c r="DV68" t="s" s="10">
-        <v>44</v>
+        <v>109.82</v>
+      </c>
+      <c r="DV68" t="n" s="10">
+        <v>109.86</v>
       </c>
     </row>
     <row r="69">
@@ -24790,16 +24790,16 @@
         <v>115.3</v>
       </c>
       <c r="DS69" t="n" s="10">
-        <v>115.91</v>
+        <v>116.08</v>
       </c>
       <c r="DT69" t="n" s="10">
-        <v>117.5</v>
+        <v>117.57</v>
       </c>
       <c r="DU69" t="n" s="10">
-        <v>115.57</v>
-      </c>
-      <c r="DV69" t="s" s="10">
-        <v>44</v>
+        <v>113.49</v>
+      </c>
+      <c r="DV69" t="n" s="10">
+        <v>113.58</v>
       </c>
     </row>
     <row r="70">
@@ -25170,16 +25170,16 @@
         <v>106.55</v>
       </c>
       <c r="DS70" t="n" s="10">
-        <v>105.86</v>
+        <v>105.98</v>
       </c>
       <c r="DT70" t="n" s="10">
-        <v>108.37</v>
+        <v>108.57</v>
       </c>
       <c r="DU70" t="n" s="10">
-        <v>104.62</v>
-      </c>
-      <c r="DV70" t="s" s="10">
-        <v>44</v>
+        <v>104.29</v>
+      </c>
+      <c r="DV70" t="n" s="10">
+        <v>104.25</v>
       </c>
     </row>
     <row r="71">
@@ -25559,7 +25559,7 @@
         <v>57</v>
       </c>
       <c r="DV71" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72">
@@ -25939,7 +25939,7 @@
         <v>57</v>
       </c>
       <c r="DV72" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73">
@@ -26310,16 +26310,16 @@
         <v>123.14</v>
       </c>
       <c r="DS73" t="n" s="10">
-        <v>119.77</v>
+        <v>119.95</v>
       </c>
       <c r="DT73" t="n" s="10">
-        <v>120.94</v>
+        <v>121.23</v>
       </c>
       <c r="DU73" t="n" s="10">
-        <v>122.06</v>
-      </c>
-      <c r="DV73" t="s" s="10">
-        <v>44</v>
+        <v>122.37</v>
+      </c>
+      <c r="DV73" t="n" s="10">
+        <v>123.99</v>
       </c>
     </row>
     <row r="74" ht="33.75" customHeight="true">
@@ -26695,21 +26695,21 @@
         <v>169.07</v>
       </c>
       <c r="DS75" t="n" s="10">
-        <v>168.116</v>
+        <v>168.222</v>
       </c>
       <c r="DT75" t="n" s="10">
-        <v>170.16</v>
+        <v>170.327</v>
       </c>
       <c r="DU75" t="n" s="10">
-        <v>166.495</v>
-      </c>
-      <c r="DV75" t="s" s="10">
-        <v>44</v>
+        <v>165.405</v>
+      </c>
+      <c r="DV75" t="n" s="10">
+        <v>166.298</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s" s="13">
         <v>43</v>
@@ -27075,21 +27075,21 @@
         <v>54.24</v>
       </c>
       <c r="DS76" t="n" s="10">
-        <v>54.09</v>
+        <v>54.033</v>
       </c>
       <c r="DT76" t="n" s="10">
         <v>54.333</v>
       </c>
       <c r="DU76" t="n" s="10">
-        <v>52.315</v>
-      </c>
-      <c r="DV76" t="s" s="10">
-        <v>44</v>
+        <v>52.201</v>
+      </c>
+      <c r="DV76" t="n" s="10">
+        <v>52.662</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s" s="13">
         <v>43</v>
@@ -27455,16 +27455,16 @@
         <v>36.117</v>
       </c>
       <c r="DS77" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT77" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU77" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV77" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
@@ -27835,16 +27835,16 @@
         <v>18.081</v>
       </c>
       <c r="DS78" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT78" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU78" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV78" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
@@ -28215,16 +28215,16 @@
         <v>81.408</v>
       </c>
       <c r="DS79" t="n" s="10">
-        <v>81.473</v>
+        <v>81.586</v>
       </c>
       <c r="DT79" t="n" s="10">
-        <v>82.9</v>
+        <v>82.992</v>
       </c>
       <c r="DU79" t="n" s="10">
-        <v>80.964</v>
-      </c>
-      <c r="DV79" t="s" s="10">
-        <v>44</v>
+        <v>79.963</v>
+      </c>
+      <c r="DV79" t="n" s="10">
+        <v>79.992</v>
       </c>
     </row>
     <row r="80">
@@ -28595,16 +28595,16 @@
         <v>50.548</v>
       </c>
       <c r="DS80" t="n" s="10">
-        <v>50.815</v>
+        <v>50.892</v>
       </c>
       <c r="DT80" t="n" s="10">
-        <v>51.512</v>
+        <v>51.545</v>
       </c>
       <c r="DU80" t="n" s="10">
-        <v>50.666</v>
-      </c>
-      <c r="DV80" t="s" s="10">
-        <v>44</v>
+        <v>49.757</v>
+      </c>
+      <c r="DV80" t="n" s="10">
+        <v>49.796</v>
       </c>
     </row>
     <row r="81">
@@ -28975,16 +28975,16 @@
         <v>30.866</v>
       </c>
       <c r="DS81" t="n" s="10">
-        <v>30.666</v>
+        <v>30.703</v>
       </c>
       <c r="DT81" t="n" s="10">
-        <v>31.393</v>
+        <v>31.454</v>
       </c>
       <c r="DU81" t="n" s="10">
-        <v>30.306</v>
-      </c>
-      <c r="DV81" t="s" s="10">
-        <v>44</v>
+        <v>30.214</v>
+      </c>
+      <c r="DV81" t="n" s="10">
+        <v>30.202</v>
       </c>
     </row>
     <row r="82">
@@ -29364,7 +29364,7 @@
         <v>57</v>
       </c>
       <c r="DV82" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83">
@@ -29744,7 +29744,7 @@
         <v>57</v>
       </c>
       <c r="DV83" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
@@ -30115,16 +30115,16 @@
         <v>33.139</v>
       </c>
       <c r="DS84" t="n" s="10">
-        <v>32.232</v>
+        <v>32.282</v>
       </c>
       <c r="DT84" t="n" s="10">
-        <v>32.547</v>
+        <v>32.626</v>
       </c>
       <c r="DU84" t="n" s="10">
-        <v>32.849</v>
-      </c>
-      <c r="DV84" t="s" s="10">
-        <v>44</v>
+        <v>32.933</v>
+      </c>
+      <c r="DV84" t="n" s="10">
+        <v>33.369</v>
       </c>
     </row>
     <row r="85" ht="33.75" customHeight="true">
@@ -30509,12 +30509,12 @@
         <v>57</v>
       </c>
       <c r="DV86" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s" s="13">
         <v>43</v>
@@ -30889,12 +30889,12 @@
         <v>57</v>
       </c>
       <c r="DV87" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s" s="13">
         <v>43</v>
@@ -31269,7 +31269,7 @@
         <v>57</v>
       </c>
       <c r="DV88" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89">
@@ -31649,7 +31649,7 @@
         <v>57</v>
       </c>
       <c r="DV89" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90">
@@ -32029,7 +32029,7 @@
         <v>57</v>
       </c>
       <c r="DV90" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91">
@@ -32409,7 +32409,7 @@
         <v>57</v>
       </c>
       <c r="DV91" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92">
@@ -32789,7 +32789,7 @@
         <v>57</v>
       </c>
       <c r="DV92" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93">
@@ -33169,7 +33169,7 @@
         <v>57</v>
       </c>
       <c r="DV93" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94">
@@ -33549,7 +33549,7 @@
         <v>57</v>
       </c>
       <c r="DV94" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95">
@@ -33929,7 +33929,7 @@
         <v>57</v>
       </c>
       <c r="DV95" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" ht="33.75" customHeight="true">
@@ -33950,1136 +33950,1136 @@
         <v>43</v>
       </c>
       <c r="C98" t="n" s="10">
-        <v>95.488</v>
+        <v>95.39</v>
       </c>
       <c r="D98" t="n" s="10">
-        <v>97.818</v>
+        <v>97.828</v>
       </c>
       <c r="E98" t="n" s="10">
-        <v>100.352</v>
+        <v>100.344</v>
       </c>
       <c r="F98" t="n" s="10">
-        <v>103.363</v>
+        <v>103.291</v>
       </c>
       <c r="G98" t="n" s="10">
-        <v>106.602</v>
+        <v>106.625</v>
       </c>
       <c r="H98" t="n" s="10">
-        <v>107.533</v>
+        <v>107.491</v>
       </c>
       <c r="I98" t="n" s="10">
-        <v>106.858</v>
+        <v>106.859</v>
       </c>
       <c r="J98" t="n" s="10">
-        <v>107.493</v>
+        <v>107.516</v>
       </c>
       <c r="K98" t="n" s="10">
-        <v>104.866</v>
+        <v>104.84</v>
       </c>
       <c r="L98" t="n" s="10">
-        <v>104.715</v>
+        <v>104.741</v>
       </c>
       <c r="M98" t="n" s="10">
-        <v>105.886</v>
+        <v>105.904</v>
       </c>
       <c r="N98" t="n" s="10">
-        <v>104.134</v>
+        <v>104.207</v>
       </c>
       <c r="O98" t="n" s="10">
-        <v>108.319</v>
+        <v>108.339</v>
       </c>
       <c r="P98" t="n" s="10">
-        <v>109.425</v>
+        <v>109.454</v>
       </c>
       <c r="Q98" t="n" s="10">
-        <v>110.055</v>
+        <v>110.079</v>
       </c>
       <c r="R98" t="n" s="10">
-        <v>112.571</v>
+        <v>112.549</v>
       </c>
       <c r="S98" t="n" s="10">
-        <v>112.416</v>
+        <v>112.456</v>
       </c>
       <c r="T98" t="n" s="10">
-        <v>111.51</v>
+        <v>111.49</v>
       </c>
       <c r="U98" t="n" s="10">
-        <v>111.35</v>
+        <v>111.304</v>
       </c>
       <c r="V98" t="n" s="10">
-        <v>110.361</v>
+        <v>110.34</v>
       </c>
       <c r="W98" t="n" s="10">
-        <v>108.426</v>
+        <v>108.443</v>
       </c>
       <c r="X98" t="n" s="10">
-        <v>111.544</v>
+        <v>111.499</v>
       </c>
       <c r="Y98" t="n" s="10">
-        <v>111.825</v>
+        <v>111.819</v>
       </c>
       <c r="Z98" t="n" s="10">
-        <v>111.65</v>
+        <v>111.62</v>
       </c>
       <c r="AA98" t="n" s="10">
-        <v>111.136</v>
+        <v>111.031</v>
       </c>
       <c r="AB98" t="n" s="10">
-        <v>111.121</v>
+        <v>111.169</v>
       </c>
       <c r="AC98" t="n" s="10">
-        <v>111.44</v>
+        <v>111.429</v>
       </c>
       <c r="AD98" t="n" s="10">
-        <v>113.014</v>
+        <v>112.969</v>
       </c>
       <c r="AE98" t="n" s="10">
-        <v>115.103</v>
+        <v>115.118</v>
       </c>
       <c r="AF98" t="n" s="10">
-        <v>114.025</v>
+        <v>113.975</v>
       </c>
       <c r="AG98" t="n" s="10">
-        <v>114.892</v>
+        <v>114.906</v>
       </c>
       <c r="AH98" t="n" s="10">
-        <v>115.081</v>
+        <v>115.12</v>
       </c>
       <c r="AI98" t="n" s="10">
-        <v>116.107</v>
+        <v>116.091</v>
       </c>
       <c r="AJ98" t="n" s="10">
-        <v>117.541</v>
+        <v>117.587</v>
       </c>
       <c r="AK98" t="n" s="10">
-        <v>118.893</v>
+        <v>118.932</v>
       </c>
       <c r="AL98" t="n" s="10">
-        <v>119.189</v>
+        <v>119.283</v>
       </c>
       <c r="AM98" t="n" s="10">
-        <v>120.526</v>
+        <v>120.598</v>
       </c>
       <c r="AN98" t="n" s="10">
-        <v>121.795</v>
+        <v>121.786</v>
       </c>
       <c r="AO98" t="n" s="10">
-        <v>122.346</v>
+        <v>122.323</v>
       </c>
       <c r="AP98" t="n" s="10">
-        <v>122.955</v>
+        <v>122.898</v>
       </c>
       <c r="AQ98" t="n" s="10">
-        <v>121.599</v>
+        <v>121.607</v>
       </c>
       <c r="AR98" t="n" s="10">
-        <v>119.704</v>
+        <v>119.673</v>
       </c>
       <c r="AS98" t="n" s="10">
-        <v>117.548</v>
+        <v>117.503</v>
       </c>
       <c r="AT98" t="n" s="10">
-        <v>115.638</v>
+        <v>115.601</v>
       </c>
       <c r="AU98" t="n" s="10">
-        <v>113.234</v>
+        <v>113.155</v>
       </c>
       <c r="AV98" t="n" s="10">
-        <v>111.609</v>
+        <v>111.618</v>
       </c>
       <c r="AW98" t="n" s="10">
-        <v>110.094</v>
+        <v>110.088</v>
       </c>
       <c r="AX98" t="n" s="10">
-        <v>108.778</v>
+        <v>108.755</v>
       </c>
       <c r="AY98" t="n" s="10">
-        <v>108.852</v>
+        <v>108.833</v>
       </c>
       <c r="AZ98" t="n" s="10">
-        <v>108.069</v>
+        <v>108.023</v>
       </c>
       <c r="BA98" t="n" s="10">
-        <v>108.046</v>
+        <v>108.04</v>
       </c>
       <c r="BB98" t="n" s="10">
-        <v>108.095</v>
+        <v>108.051</v>
       </c>
       <c r="BC98" t="n" s="10">
-        <v>107.394</v>
+        <v>107.503</v>
       </c>
       <c r="BD98" t="n" s="10">
-        <v>107.606</v>
+        <v>107.608</v>
       </c>
       <c r="BE98" t="n" s="10">
-        <v>107.379</v>
+        <v>107.296</v>
       </c>
       <c r="BF98" t="n" s="10">
-        <v>106.12</v>
+        <v>106.02</v>
       </c>
       <c r="BG98" t="n" s="10">
-        <v>106.541</v>
+        <v>107.133</v>
       </c>
       <c r="BH98" t="n" s="10">
-        <v>107.274</v>
+        <v>107.171</v>
       </c>
       <c r="BI98" t="n" s="10">
-        <v>109.326</v>
+        <v>109.057</v>
       </c>
       <c r="BJ98" t="n" s="10">
-        <v>111.952</v>
+        <v>111.541</v>
       </c>
       <c r="BK98" t="n" s="10">
-        <v>111.02</v>
+        <v>112.26</v>
       </c>
       <c r="BL98" t="n" s="10">
-        <v>118.329</v>
+        <v>117.86</v>
       </c>
       <c r="BM98" t="n" s="10">
-        <v>120.363</v>
+        <v>120.026</v>
       </c>
       <c r="BN98" t="n" s="10">
-        <v>123.236</v>
+        <v>122.997</v>
       </c>
       <c r="BO98" t="n" s="10">
-        <v>124.821</v>
+        <v>125.471</v>
       </c>
       <c r="BP98" t="n" s="10">
-        <v>124.653</v>
+        <v>124.382</v>
       </c>
       <c r="BQ98" t="n" s="10">
-        <v>125.485</v>
+        <v>125.339</v>
       </c>
       <c r="BR98" t="n" s="10">
-        <v>127.637</v>
+        <v>127.613</v>
       </c>
       <c r="BS98" t="n" s="10">
-        <v>129.575</v>
+        <v>129.556</v>
       </c>
       <c r="BT98" t="n" s="10">
-        <v>129.9</v>
+        <v>129.991</v>
       </c>
       <c r="BU98" t="n" s="10">
-        <v>128.853</v>
+        <v>128.869</v>
       </c>
       <c r="BV98" t="n" s="10">
-        <v>128.372</v>
+        <v>128.343</v>
       </c>
       <c r="BW98" t="n" s="10">
-        <v>118.084</v>
+        <v>118.063</v>
       </c>
       <c r="BX98" t="n" s="10">
-        <v>117.463</v>
+        <v>117.414</v>
       </c>
       <c r="BY98" t="n" s="10">
-        <v>117.461</v>
+        <v>117.49</v>
       </c>
       <c r="BZ98" t="n" s="10">
-        <v>118.932</v>
+        <v>118.984</v>
       </c>
       <c r="CA98" t="n" s="10">
-        <v>118.11</v>
+        <v>118.074</v>
       </c>
       <c r="CB98" t="n" s="10">
-        <v>125.534</v>
+        <v>125.582</v>
       </c>
       <c r="CC98" t="n" s="10">
-        <v>127.246</v>
+        <v>127.286</v>
       </c>
       <c r="CD98" t="n" s="10">
-        <v>128.418</v>
+        <v>128.512</v>
       </c>
       <c r="CE98" t="n" s="10">
-        <v>133.337</v>
+        <v>133.357</v>
       </c>
       <c r="CF98" t="n" s="10">
-        <v>135.502</v>
+        <v>135.549</v>
       </c>
       <c r="CG98" t="n" s="10">
-        <v>137.719</v>
+        <v>137.755</v>
       </c>
       <c r="CH98" t="n" s="10">
-        <v>139.566</v>
+        <v>139.567</v>
       </c>
       <c r="CI98" t="n" s="10">
-        <v>139.859</v>
+        <v>139.935</v>
       </c>
       <c r="CJ98" t="n" s="10">
-        <v>139.361</v>
+        <v>139.331</v>
       </c>
       <c r="CK98" t="n" s="10">
-        <v>139.409</v>
+        <v>139.363</v>
       </c>
       <c r="CL98" t="n" s="10">
-        <v>138.994</v>
+        <v>138.955</v>
       </c>
       <c r="CM98" t="n" s="10">
-        <v>136.109</v>
+        <v>136.025</v>
       </c>
       <c r="CN98" t="n" s="10">
-        <v>139.97</v>
+        <v>139.983</v>
       </c>
       <c r="CO98" t="n" s="10">
-        <v>141.61</v>
+        <v>141.603</v>
       </c>
       <c r="CP98" t="n" s="10">
-        <v>143.734</v>
+        <v>143.705</v>
       </c>
       <c r="CQ98" t="n" s="10">
-        <v>147.396</v>
+        <v>147.384</v>
       </c>
       <c r="CR98" t="n" s="10">
-        <v>146.21</v>
+        <v>146.172</v>
       </c>
       <c r="CS98" t="n" s="10">
-        <v>147.23</v>
+        <v>147.214</v>
       </c>
       <c r="CT98" t="n" s="10">
-        <v>147.652</v>
+        <v>147.608</v>
       </c>
       <c r="CU98" t="n" s="10">
-        <v>148.114</v>
+        <v>148.119</v>
       </c>
       <c r="CV98" t="n" s="10">
-        <v>149.963</v>
+        <v>149.912</v>
       </c>
       <c r="CW98" t="n" s="10">
-        <v>152.048</v>
+        <v>152.053</v>
       </c>
       <c r="CX98" t="n" s="10">
-        <v>155.348</v>
+        <v>155.41</v>
       </c>
       <c r="CY98" t="n" s="10">
-        <v>157.153</v>
+        <v>157.104</v>
       </c>
       <c r="CZ98" t="n" s="10">
-        <v>158.147</v>
+        <v>158.252</v>
       </c>
       <c r="DA98" t="n" s="10">
-        <v>159.44</v>
+        <v>159.466</v>
       </c>
       <c r="DB98" t="n" s="10">
-        <v>160.253</v>
+        <v>160.292</v>
       </c>
       <c r="DC98" t="n" s="10">
-        <v>162.948</v>
+        <v>163.031</v>
       </c>
       <c r="DD98" t="n" s="10">
-        <v>165.876</v>
+        <v>165.804</v>
       </c>
       <c r="DE98" t="n" s="10">
-        <v>168.155</v>
+        <v>168.116</v>
       </c>
       <c r="DF98" t="n" s="10">
-        <v>171.144</v>
+        <v>171.096</v>
       </c>
       <c r="DG98" t="n" s="10">
-        <v>172.989</v>
+        <v>172.928</v>
       </c>
       <c r="DH98" t="n" s="10">
-        <v>176.395</v>
+        <v>176.384</v>
       </c>
       <c r="DI98" t="n" s="10">
-        <v>178.994</v>
+        <v>178.93</v>
       </c>
       <c r="DJ98" t="n" s="10">
-        <v>182.225</v>
+        <v>182.29</v>
       </c>
       <c r="DK98" t="n" s="10">
-        <v>183.811</v>
+        <v>183.773</v>
       </c>
       <c r="DL98" t="n" s="10">
-        <v>185.879</v>
+        <v>185.728</v>
       </c>
       <c r="DM98" t="n" s="10">
-        <v>187.854</v>
+        <v>187.736</v>
       </c>
       <c r="DN98" t="n" s="10">
-        <v>186.396</v>
+        <v>186.481</v>
       </c>
       <c r="DO98" t="n" s="10">
-        <v>186.105</v>
+        <v>186.704</v>
       </c>
       <c r="DP98" t="n" s="10">
-        <v>175.727</v>
+        <v>175.362</v>
       </c>
       <c r="DQ98" t="n" s="10">
-        <v>184.33</v>
+        <v>183.845</v>
       </c>
       <c r="DR98" t="n" s="10">
-        <v>188.525</v>
+        <v>188.584</v>
       </c>
       <c r="DS98" t="n" s="10">
-        <v>187.384</v>
+        <v>188.64</v>
       </c>
       <c r="DT98" t="n" s="10">
-        <v>196.038</v>
+        <v>195.894</v>
       </c>
       <c r="DU98" t="n" s="10">
-        <v>199.895</v>
-      </c>
-      <c r="DV98" t="s" s="10">
-        <v>44</v>
+        <v>197.606</v>
+      </c>
+      <c r="DV98" t="n" s="10">
+        <v>199.507</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B99" t="s" s="13">
         <v>43</v>
       </c>
       <c r="C99" t="n" s="10">
-        <v>38.543</v>
+        <v>38.562</v>
       </c>
       <c r="D99" t="n" s="10">
-        <v>39.703</v>
+        <v>39.7</v>
       </c>
       <c r="E99" t="n" s="10">
-        <v>39.892</v>
+        <v>39.894</v>
       </c>
       <c r="F99" t="n" s="10">
-        <v>40.359</v>
+        <v>40.373</v>
       </c>
       <c r="G99" t="n" s="10">
-        <v>40.24</v>
+        <v>40.235</v>
       </c>
       <c r="H99" t="n" s="10">
-        <v>39.642</v>
+        <v>39.65</v>
       </c>
       <c r="I99" t="n" s="10">
-        <v>38.074</v>
+        <v>38.073</v>
       </c>
       <c r="J99" t="n" s="10">
-        <v>36.82</v>
+        <v>36.815</v>
       </c>
       <c r="K99" t="n" s="10">
-        <v>34.79</v>
+        <v>34.795</v>
       </c>
       <c r="L99" t="n" s="10">
-        <v>33.494</v>
+        <v>33.489</v>
       </c>
       <c r="M99" t="n" s="10">
-        <v>33.198</v>
+        <v>33.194</v>
       </c>
       <c r="N99" t="n" s="10">
-        <v>31.99</v>
+        <v>31.976</v>
       </c>
       <c r="O99" t="n" s="10">
-        <v>32.614</v>
+        <v>32.611</v>
       </c>
       <c r="P99" t="n" s="10">
-        <v>32.672</v>
+        <v>32.667</v>
       </c>
       <c r="Q99" t="n" s="10">
-        <v>32.799</v>
+        <v>32.794</v>
       </c>
       <c r="R99" t="n" s="10">
-        <v>33.505</v>
+        <v>33.51</v>
       </c>
       <c r="S99" t="n" s="10">
-        <v>33.312</v>
+        <v>33.303</v>
       </c>
       <c r="T99" t="n" s="10">
-        <v>33.127</v>
+        <v>33.131</v>
       </c>
       <c r="U99" t="n" s="10">
-        <v>33.507</v>
+        <v>33.516</v>
       </c>
       <c r="V99" t="n" s="10">
-        <v>33.613</v>
+        <v>33.617</v>
       </c>
       <c r="W99" t="n" s="10">
-        <v>33.654</v>
+        <v>33.651</v>
       </c>
       <c r="X99" t="n" s="10">
-        <v>34.271</v>
+        <v>34.28</v>
       </c>
       <c r="Y99" t="n" s="10">
-        <v>34.331</v>
+        <v>34.333</v>
       </c>
       <c r="Z99" t="n" s="10">
-        <v>34.411</v>
+        <v>34.417</v>
       </c>
       <c r="AA99" t="n" s="10">
-        <v>34.721</v>
+        <v>34.742</v>
       </c>
       <c r="AB99" t="n" s="10">
-        <v>34.965</v>
+        <v>34.955</v>
       </c>
       <c r="AC99" t="n" s="10">
-        <v>35.465</v>
+        <v>35.466</v>
       </c>
       <c r="AD99" t="n" s="10">
-        <v>36.373</v>
+        <v>36.382</v>
       </c>
       <c r="AE99" t="n" s="10">
-        <v>37.525</v>
+        <v>37.522</v>
       </c>
       <c r="AF99" t="n" s="10">
-        <v>38.284</v>
+        <v>38.294</v>
       </c>
       <c r="AG99" t="n" s="10">
-        <v>39.017</v>
+        <v>39.014</v>
       </c>
       <c r="AH99" t="n" s="10">
-        <v>39.694</v>
+        <v>39.687</v>
       </c>
       <c r="AI99" t="n" s="10">
-        <v>40.034</v>
+        <v>40.036</v>
       </c>
       <c r="AJ99" t="n" s="10">
-        <v>40.324</v>
+        <v>40.315</v>
       </c>
       <c r="AK99" t="n" s="10">
-        <v>40.92</v>
+        <v>40.912</v>
       </c>
       <c r="AL99" t="n" s="10">
-        <v>41.346</v>
+        <v>41.327</v>
       </c>
       <c r="AM99" t="n" s="10">
-        <v>42.996</v>
+        <v>42.982</v>
       </c>
       <c r="AN99" t="n" s="10">
-        <v>44.924</v>
+        <v>44.926</v>
       </c>
       <c r="AO99" t="n" s="10">
-        <v>46.198</v>
+        <v>46.203</v>
       </c>
       <c r="AP99" t="n" s="10">
-        <v>47.025</v>
+        <v>47.036</v>
       </c>
       <c r="AQ99" t="n" s="10">
-        <v>46.026</v>
+        <v>46.024</v>
       </c>
       <c r="AR99" t="n" s="10">
-        <v>44.107</v>
+        <v>44.113</v>
       </c>
       <c r="AS99" t="n" s="10">
-        <v>42.632</v>
+        <v>42.641</v>
       </c>
       <c r="AT99" t="n" s="10">
-        <v>41.234</v>
+        <v>41.241</v>
       </c>
       <c r="AU99" t="n" s="10">
-        <v>39.964</v>
+        <v>39.98</v>
       </c>
       <c r="AV99" t="n" s="10">
-        <v>39.992</v>
+        <v>39.991</v>
       </c>
       <c r="AW99" t="n" s="10">
-        <v>39.023</v>
+        <v>39.024</v>
       </c>
       <c r="AX99" t="n" s="10">
-        <v>38.628</v>
+        <v>38.633</v>
       </c>
       <c r="AY99" t="n" s="10">
-        <v>39.053</v>
+        <v>39.056</v>
       </c>
       <c r="AZ99" t="n" s="10">
-        <v>37.828</v>
+        <v>37.837</v>
       </c>
       <c r="BA99" t="n" s="10">
-        <v>37.982</v>
+        <v>37.983</v>
       </c>
       <c r="BB99" t="n" s="10">
-        <v>38.0</v>
+        <v>38.009</v>
       </c>
       <c r="BC99" t="n" s="10">
-        <v>37.772</v>
+        <v>37.761</v>
       </c>
       <c r="BD99" t="n" s="10">
         <v>39.033</v>
       </c>
       <c r="BE99" t="n" s="10">
-        <v>39.518</v>
+        <v>39.513</v>
       </c>
       <c r="BF99" t="n" s="10">
-        <v>38.982</v>
+        <v>38.96</v>
       </c>
       <c r="BG99" t="n" s="10">
-        <v>40.03</v>
+        <v>40.04</v>
       </c>
       <c r="BH99" t="n" s="10">
-        <v>40.109</v>
+        <v>40.088</v>
       </c>
       <c r="BI99" t="n" s="10">
-        <v>41.667</v>
+        <v>41.658</v>
       </c>
       <c r="BJ99" t="n" s="10">
-        <v>43.617</v>
+        <v>43.615</v>
       </c>
       <c r="BK99" t="n" s="10">
-        <v>44.236</v>
+        <v>44.221</v>
       </c>
       <c r="BL99" t="n" s="10">
-        <v>46.258</v>
+        <v>46.268</v>
       </c>
       <c r="BM99" t="n" s="10">
-        <v>46.385</v>
+        <v>46.39</v>
       </c>
       <c r="BN99" t="n" s="10">
-        <v>47.451</v>
+        <v>47.456</v>
       </c>
       <c r="BO99" t="n" s="10">
-        <v>48.84</v>
+        <v>48.838</v>
       </c>
       <c r="BP99" t="n" s="10">
-        <v>48.874</v>
+        <v>48.885</v>
       </c>
       <c r="BQ99" t="n" s="10">
-        <v>49.389</v>
+        <v>49.397</v>
       </c>
       <c r="BR99" t="n" s="10">
-        <v>51.038</v>
+        <v>51.046</v>
       </c>
       <c r="BS99" t="n" s="10">
-        <v>50.673</v>
+        <v>50.679</v>
       </c>
       <c r="BT99" t="n" s="10">
-        <v>51.32</v>
+        <v>51.303</v>
       </c>
       <c r="BU99" t="n" s="10">
-        <v>50.262</v>
+        <v>50.261</v>
       </c>
       <c r="BV99" t="n" s="10">
-        <v>49.841</v>
+        <v>49.855</v>
       </c>
       <c r="BW99" t="n" s="10">
-        <v>41.87</v>
+        <v>41.858</v>
       </c>
       <c r="BX99" t="n" s="10">
-        <v>40.215</v>
+        <v>40.23</v>
       </c>
       <c r="BY99" t="n" s="10">
-        <v>39.461</v>
+        <v>39.46</v>
       </c>
       <c r="BZ99" t="n" s="10">
-        <v>39.282</v>
+        <v>39.278</v>
       </c>
       <c r="CA99" t="n" s="10">
-        <v>42.159</v>
+        <v>42.152</v>
       </c>
       <c r="CB99" t="n" s="10">
-        <v>44.326</v>
+        <v>44.321</v>
       </c>
       <c r="CC99" t="n" s="10">
-        <v>45.214</v>
+        <v>45.208</v>
       </c>
       <c r="CD99" t="n" s="10">
-        <v>46.711</v>
+        <v>46.694</v>
       </c>
       <c r="CE99" t="n" s="10">
-        <v>47.027</v>
+        <v>47.019</v>
       </c>
       <c r="CF99" t="n" s="10">
-        <v>47.421</v>
+        <v>47.413</v>
       </c>
       <c r="CG99" t="n" s="10">
-        <v>48.835</v>
+        <v>48.829</v>
       </c>
       <c r="CH99" t="n" s="10">
         <v>48.48</v>
       </c>
       <c r="CI99" t="n" s="10">
-        <v>48.791</v>
+        <v>48.776</v>
       </c>
       <c r="CJ99" t="n" s="10">
-        <v>47.846</v>
+        <v>47.851</v>
       </c>
       <c r="CK99" t="n" s="10">
-        <v>47.14</v>
+        <v>47.149</v>
       </c>
       <c r="CL99" t="n" s="10">
-        <v>46.663</v>
+        <v>46.671</v>
       </c>
       <c r="CM99" t="n" s="10">
-        <v>45.53</v>
+        <v>45.546</v>
       </c>
       <c r="CN99" t="n" s="10">
-        <v>46.566</v>
+        <v>46.563</v>
       </c>
       <c r="CO99" t="n" s="10">
-        <v>46.566</v>
+        <v>46.567</v>
       </c>
       <c r="CP99" t="n" s="10">
-        <v>48.067</v>
+        <v>48.073</v>
       </c>
       <c r="CQ99" t="n" s="10">
-        <v>48.957</v>
+        <v>48.959</v>
       </c>
       <c r="CR99" t="n" s="10">
-        <v>49.072</v>
+        <v>49.08</v>
       </c>
       <c r="CS99" t="n" s="10">
-        <v>49.571</v>
+        <v>49.574</v>
       </c>
       <c r="CT99" t="n" s="10">
-        <v>49.152</v>
+        <v>49.161</v>
       </c>
       <c r="CU99" t="n" s="10">
-        <v>50.152</v>
+        <v>50.151</v>
       </c>
       <c r="CV99" t="n" s="10">
-        <v>50.906</v>
+        <v>50.916</v>
       </c>
       <c r="CW99" t="n" s="10">
-        <v>51.987</v>
+        <v>51.986</v>
       </c>
       <c r="CX99" t="n" s="10">
-        <v>53.582</v>
+        <v>53.569</v>
       </c>
       <c r="CY99" t="n" s="10">
-        <v>53.229</v>
+        <v>53.238</v>
       </c>
       <c r="CZ99" t="n" s="10">
-        <v>53.347</v>
+        <v>53.326</v>
       </c>
       <c r="DA99" t="n" s="10">
-        <v>53.642</v>
+        <v>53.637</v>
       </c>
       <c r="DB99" t="n" s="10">
-        <v>53.443</v>
+        <v>53.437</v>
       </c>
       <c r="DC99" t="n" s="10">
-        <v>54.754</v>
+        <v>54.736</v>
       </c>
       <c r="DD99" t="n" s="10">
-        <v>55.813</v>
+        <v>55.825</v>
       </c>
       <c r="DE99" t="n" s="10">
-        <v>56.731</v>
+        <v>56.737</v>
       </c>
       <c r="DF99" t="n" s="10">
-        <v>57.676</v>
+        <v>57.703</v>
       </c>
       <c r="DG99" t="n" s="10">
-        <v>58.209</v>
+        <v>58.22</v>
       </c>
       <c r="DH99" t="n" s="10">
-        <v>58.747</v>
+        <v>58.718</v>
       </c>
       <c r="DI99" t="n" s="10">
-        <v>58.954</v>
+        <v>58.914</v>
       </c>
       <c r="DJ99" t="n" s="10">
-        <v>59.801</v>
+        <v>59.96</v>
       </c>
       <c r="DK99" t="n" s="10">
-        <v>60.917</v>
+        <v>60.888</v>
       </c>
       <c r="DL99" t="n" s="10">
-        <v>60.94</v>
+        <v>60.837</v>
       </c>
       <c r="DM99" t="n" s="10">
-        <v>60.646</v>
+        <v>60.562</v>
       </c>
       <c r="DN99" t="n" s="10">
-        <v>58.831</v>
+        <v>59.139</v>
       </c>
       <c r="DO99" t="n" s="10">
-        <v>56.416</v>
+        <v>56.314</v>
       </c>
       <c r="DP99" t="n" s="10">
-        <v>47.303</v>
+        <v>47.145</v>
       </c>
       <c r="DQ99" t="n" s="10">
-        <v>55.975</v>
+        <v>55.993</v>
       </c>
       <c r="DR99" t="n" s="10">
-        <v>56.695</v>
+        <v>56.902</v>
       </c>
       <c r="DS99" t="n" s="10">
-        <v>57.755</v>
+        <v>57.662</v>
       </c>
       <c r="DT99" t="n" s="10">
-        <v>57.489</v>
+        <v>57.411</v>
       </c>
       <c r="DU99" t="n" s="10">
-        <v>56.281</v>
-      </c>
-      <c r="DV99" t="s" s="10">
-        <v>44</v>
+        <v>56.207</v>
+      </c>
+      <c r="DV99" t="n" s="10">
+        <v>56.128</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B100" t="s" s="13">
         <v>43</v>
       </c>
       <c r="C100" t="n" s="10">
-        <v>29.964</v>
+        <v>29.948</v>
       </c>
       <c r="D100" t="n" s="10">
-        <v>30.175</v>
+        <v>30.177</v>
       </c>
       <c r="E100" t="n" s="10">
-        <v>30.543</v>
+        <v>30.542</v>
       </c>
       <c r="F100" t="n" s="10">
-        <v>31.335</v>
+        <v>31.323</v>
       </c>
       <c r="G100" t="n" s="10">
-        <v>30.933</v>
+        <v>30.937</v>
       </c>
       <c r="H100" t="n" s="10">
-        <v>30.786</v>
+        <v>30.779</v>
       </c>
       <c r="I100" t="n" s="10">
         <v>29.999</v>
       </c>
       <c r="J100" t="n" s="10">
-        <v>29.256</v>
+        <v>29.26</v>
       </c>
       <c r="K100" t="n" s="10">
-        <v>28.019</v>
+        <v>28.014</v>
       </c>
       <c r="L100" t="n" s="10">
-        <v>27.395</v>
+        <v>27.399</v>
       </c>
       <c r="M100" t="n" s="10">
-        <v>26.782</v>
+        <v>26.784</v>
       </c>
       <c r="N100" t="n" s="10">
-        <v>25.622</v>
+        <v>25.634</v>
       </c>
       <c r="O100" t="n" s="10">
-        <v>26.158</v>
+        <v>26.162</v>
       </c>
       <c r="P100" t="n" s="10">
-        <v>25.908</v>
+        <v>25.914</v>
       </c>
       <c r="Q100" t="n" s="10">
-        <v>25.916</v>
+        <v>25.92</v>
       </c>
       <c r="R100" t="n" s="10">
-        <v>26.438</v>
+        <v>26.436</v>
       </c>
       <c r="S100" t="n" s="10">
-        <v>26.229</v>
+        <v>26.235</v>
       </c>
       <c r="T100" t="n" s="10">
-        <v>25.856</v>
+        <v>25.853</v>
       </c>
       <c r="U100" t="n" s="10">
-        <v>26.241</v>
+        <v>26.233</v>
       </c>
       <c r="V100" t="n" s="10">
-        <v>26.247</v>
+        <v>26.244</v>
       </c>
       <c r="W100" t="n" s="10">
-        <v>25.954</v>
+        <v>25.957</v>
       </c>
       <c r="X100" t="n" s="10">
-        <v>26.812</v>
+        <v>26.805</v>
       </c>
       <c r="Y100" t="n" s="10">
-        <v>26.746</v>
+        <v>26.745</v>
       </c>
       <c r="Z100" t="n" s="10">
-        <v>26.808</v>
+        <v>26.803</v>
       </c>
       <c r="AA100" t="n" s="10">
-        <v>26.842</v>
+        <v>26.825</v>
       </c>
       <c r="AB100" t="n" s="10">
-        <v>26.366</v>
+        <v>26.373</v>
       </c>
       <c r="AC100" t="n" s="10">
-        <v>26.899</v>
+        <v>26.896</v>
       </c>
       <c r="AD100" t="n" s="10">
-        <v>27.588</v>
+        <v>27.581</v>
       </c>
       <c r="AE100" t="n" s="10">
-        <v>28.753</v>
+        <v>28.755</v>
       </c>
       <c r="AF100" t="n" s="10">
-        <v>29.446</v>
+        <v>29.438</v>
       </c>
       <c r="AG100" t="n" s="10">
-        <v>29.521</v>
+        <v>29.523</v>
       </c>
       <c r="AH100" t="n" s="10">
-        <v>29.555</v>
+        <v>29.562</v>
       </c>
       <c r="AI100" t="n" s="10">
-        <v>30.062</v>
+        <v>30.059</v>
       </c>
       <c r="AJ100" t="n" s="10">
-        <v>30.458</v>
+        <v>30.466</v>
       </c>
       <c r="AK100" t="n" s="10">
-        <v>31.163</v>
+        <v>31.169</v>
       </c>
       <c r="AL100" t="n" s="10">
-        <v>31.724</v>
+        <v>31.739</v>
       </c>
       <c r="AM100" t="n" s="10">
-        <v>32.432</v>
+        <v>32.445</v>
       </c>
       <c r="AN100" t="n" s="10">
-        <v>33.6</v>
+        <v>33.599</v>
       </c>
       <c r="AO100" t="n" s="10">
-        <v>34.667</v>
+        <v>34.663</v>
       </c>
       <c r="AP100" t="n" s="10">
-        <v>35.554</v>
+        <v>35.544</v>
       </c>
       <c r="AQ100" t="n" s="10">
-        <v>34.882</v>
+        <v>34.883</v>
       </c>
       <c r="AR100" t="n" s="10">
-        <v>34.478</v>
+        <v>34.473</v>
       </c>
       <c r="AS100" t="n" s="10">
-        <v>33.205</v>
+        <v>33.198</v>
       </c>
       <c r="AT100" t="n" s="10">
-        <v>32.072</v>
+        <v>32.066</v>
       </c>
       <c r="AU100" t="n" s="10">
-        <v>31.438</v>
+        <v>31.425</v>
       </c>
       <c r="AV100" t="n" s="10">
-        <v>30.338</v>
+        <v>30.34</v>
       </c>
       <c r="AW100" t="n" s="10">
-        <v>29.953</v>
+        <v>29.952</v>
       </c>
       <c r="AX100" t="n" s="10">
-        <v>29.326</v>
+        <v>29.322</v>
       </c>
       <c r="AY100" t="n" s="10">
-        <v>28.895</v>
+        <v>28.892</v>
       </c>
       <c r="AZ100" t="n" s="10">
-        <v>28.676</v>
+        <v>28.668</v>
       </c>
       <c r="BA100" t="n" s="10">
         <v>27.956</v>
       </c>
       <c r="BB100" t="n" s="10">
-        <v>28.393</v>
+        <v>28.387</v>
       </c>
       <c r="BC100" t="n" s="10">
-        <v>28.355</v>
+        <v>28.364</v>
       </c>
       <c r="BD100" t="n" s="10">
-        <v>27.683</v>
+        <v>27.684</v>
       </c>
       <c r="BE100" t="n" s="10">
-        <v>28.384</v>
+        <v>28.389</v>
       </c>
       <c r="BF100" t="n" s="10">
-        <v>27.491</v>
+        <v>27.509</v>
       </c>
       <c r="BG100" t="n" s="10">
-        <v>28.072</v>
+        <v>28.065</v>
       </c>
       <c r="BH100" t="n" s="10">
-        <v>29.3</v>
+        <v>29.318</v>
       </c>
       <c r="BI100" t="n" s="10">
-        <v>30.257</v>
+        <v>30.263</v>
       </c>
       <c r="BJ100" t="n" s="10">
-        <v>30.907</v>
+        <v>30.91</v>
       </c>
       <c r="BK100" t="n" s="10">
-        <v>31.902</v>
+        <v>31.915</v>
       </c>
       <c r="BL100" t="n" s="10">
-        <v>32.437</v>
+        <v>32.429</v>
       </c>
       <c r="BM100" t="n" s="10">
-        <v>32.432</v>
+        <v>32.428</v>
       </c>
       <c r="BN100" t="n" s="10">
-        <v>33.84</v>
+        <v>33.835</v>
       </c>
       <c r="BO100" t="n" s="10">
-        <v>34.225</v>
+        <v>34.226</v>
       </c>
       <c r="BP100" t="n" s="10">
-        <v>35.028</v>
+        <v>35.017</v>
       </c>
       <c r="BQ100" t="n" s="10">
-        <v>36.187</v>
+        <v>36.181</v>
       </c>
       <c r="BR100" t="n" s="10">
-        <v>37.476</v>
+        <v>37.475</v>
       </c>
       <c r="BS100" t="n" s="10">
-        <v>36.923</v>
+        <v>36.906</v>
       </c>
       <c r="BT100" t="n" s="10">
-        <v>37.658</v>
+        <v>37.675</v>
       </c>
       <c r="BU100" t="n" s="10">
-        <v>36.669</v>
+        <v>36.673</v>
       </c>
       <c r="BV100" t="n" s="10">
         <v>37.548</v>
       </c>
       <c r="BW100" t="n" s="10">
-        <v>32.039</v>
+        <v>32.029</v>
       </c>
       <c r="BX100" t="n" s="10">
-        <v>30.412</v>
+        <v>30.406</v>
       </c>
       <c r="BY100" t="n" s="10">
-        <v>28.87</v>
+        <v>28.876</v>
       </c>
       <c r="BZ100" t="n" s="10">
-        <v>28.7</v>
+        <v>28.709</v>
       </c>
       <c r="CA100" t="n" s="10">
-        <v>29.447</v>
+        <v>29.44</v>
       </c>
       <c r="CB100" t="n" s="10">
-        <v>31.011</v>
+        <v>31.019</v>
       </c>
       <c r="CC100" t="n" s="10">
-        <v>32.465</v>
+        <v>32.471</v>
       </c>
       <c r="CD100" t="n" s="10">
-        <v>32.76</v>
+        <v>32.775</v>
       </c>
       <c r="CE100" t="n" s="10">
-        <v>33.333</v>
+        <v>33.339</v>
       </c>
       <c r="CF100" t="n" s="10">
-        <v>34.238</v>
+        <v>34.244</v>
       </c>
       <c r="CG100" t="n" s="10">
-        <v>34.862</v>
+        <v>34.868</v>
       </c>
       <c r="CH100" t="n" s="10">
         <v>34.902</v>
       </c>
       <c r="CI100" t="n" s="10">
-        <v>35.369</v>
+        <v>35.382</v>
       </c>
       <c r="CJ100" t="n" s="10">
-        <v>34.353</v>
+        <v>34.347</v>
       </c>
       <c r="CK100" t="n" s="10">
-        <v>34.103</v>
+        <v>34.095</v>
       </c>
       <c r="CL100" t="n" s="10">
-        <v>34.153</v>
+        <v>34.146</v>
       </c>
       <c r="CM100" t="n" s="10">
-        <v>32.91</v>
+        <v>32.896</v>
       </c>
       <c r="CN100" t="n" s="10">
-        <v>33.799</v>
+        <v>33.8</v>
       </c>
       <c r="CO100" t="n" s="10">
-        <v>33.37</v>
+        <v>33.368</v>
       </c>
       <c r="CP100" t="n" s="10">
-        <v>33.864</v>
+        <v>33.859</v>
       </c>
       <c r="CQ100" t="n" s="10">
-        <v>34.882</v>
+        <v>34.88</v>
       </c>
       <c r="CR100" t="n" s="10">
-        <v>34.746</v>
+        <v>34.74</v>
       </c>
       <c r="CS100" t="n" s="10">
-        <v>35.929</v>
+        <v>35.927</v>
       </c>
       <c r="CT100" t="n" s="10">
-        <v>35.963</v>
+        <v>35.955</v>
       </c>
       <c r="CU100" t="n" s="10">
-        <v>36.207</v>
+        <v>36.208</v>
       </c>
       <c r="CV100" t="n" s="10">
-        <v>37.118</v>
+        <v>37.11</v>
       </c>
       <c r="CW100" t="n" s="10">
-        <v>37.168</v>
+        <v>37.169</v>
       </c>
       <c r="CX100" t="n" s="10">
-        <v>38.067</v>
+        <v>38.077</v>
       </c>
       <c r="CY100" t="n" s="10">
-        <v>38.352</v>
+        <v>38.343</v>
       </c>
       <c r="CZ100" t="n" s="10">
-        <v>38.166</v>
+        <v>38.183</v>
       </c>
       <c r="DA100" t="n" s="10">
-        <v>38.35</v>
+        <v>38.355</v>
       </c>
       <c r="DB100" t="n" s="10">
-        <v>37.918</v>
+        <v>37.923</v>
       </c>
       <c r="DC100" t="n" s="10">
-        <v>38.569</v>
+        <v>38.583</v>
       </c>
       <c r="DD100" t="n" s="10">
-        <v>39.392</v>
+        <v>39.382</v>
       </c>
       <c r="DE100" t="n" s="10">
-        <v>39.829</v>
+        <v>39.824</v>
       </c>
       <c r="DF100" t="n" s="10">
-        <v>40.576</v>
+        <v>40.554</v>
       </c>
       <c r="DG100" t="n" s="10">
-        <v>41.167</v>
+        <v>41.159</v>
       </c>
       <c r="DH100" t="n" s="10">
-        <v>40.863</v>
+        <v>40.887</v>
       </c>
       <c r="DI100" t="n" s="10">
-        <v>42.173</v>
+        <v>42.214</v>
       </c>
       <c r="DJ100" t="n" s="10">
-        <v>42.868</v>
+        <v>42.723</v>
       </c>
       <c r="DK100" t="n" s="10">
-        <v>41.528</v>
+        <v>41.577</v>
       </c>
       <c r="DL100" t="n" s="10">
-        <v>42.075</v>
+        <v>42.108</v>
       </c>
       <c r="DM100" t="n" s="10">
-        <v>40.824</v>
+        <v>40.92</v>
       </c>
       <c r="DN100" t="n" s="10">
-        <v>40.02</v>
+        <v>39.773</v>
       </c>
       <c r="DO100" t="n" s="10">
-        <v>39.904</v>
+        <v>40.029</v>
       </c>
       <c r="DP100" t="n" s="10">
-        <v>36.603</v>
+        <v>36.584</v>
       </c>
       <c r="DQ100" t="n" s="10">
-        <v>38.52</v>
+        <v>38.566</v>
       </c>
       <c r="DR100" t="n" s="10">
-        <v>38.498</v>
+        <v>38.447</v>
       </c>
       <c r="DS100" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT100" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU100" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV100" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
@@ -35090,376 +35090,376 @@
         <v>43</v>
       </c>
       <c r="C101" t="n" s="10">
-        <v>8.579</v>
+        <v>8.614</v>
       </c>
       <c r="D101" t="n" s="10">
-        <v>9.528</v>
+        <v>9.523</v>
       </c>
       <c r="E101" t="n" s="10">
-        <v>9.349</v>
+        <v>9.352</v>
       </c>
       <c r="F101" t="n" s="10">
-        <v>9.024</v>
+        <v>9.05</v>
       </c>
       <c r="G101" t="n" s="10">
-        <v>9.307</v>
+        <v>9.298</v>
       </c>
       <c r="H101" t="n" s="10">
+        <v>8.871</v>
+      </c>
+      <c r="I101" t="n" s="10">
+        <v>8.074</v>
+      </c>
+      <c r="J101" t="n" s="10">
+        <v>7.555</v>
+      </c>
+      <c r="K101" t="n" s="10">
+        <v>6.781</v>
+      </c>
+      <c r="L101" t="n" s="10">
+        <v>6.09</v>
+      </c>
+      <c r="M101" t="n" s="10">
+        <v>6.41</v>
+      </c>
+      <c r="N101" t="n" s="10">
+        <v>6.342</v>
+      </c>
+      <c r="O101" t="n" s="10">
+        <v>6.449</v>
+      </c>
+      <c r="P101" t="n" s="10">
+        <v>6.753</v>
+      </c>
+      <c r="Q101" t="n" s="10">
+        <v>6.874</v>
+      </c>
+      <c r="R101" t="n" s="10">
+        <v>7.074</v>
+      </c>
+      <c r="S101" t="n" s="10">
+        <v>7.068</v>
+      </c>
+      <c r="T101" t="n" s="10">
+        <v>7.278</v>
+      </c>
+      <c r="U101" t="n" s="10">
+        <v>7.283</v>
+      </c>
+      <c r="V101" t="n" s="10">
+        <v>7.373</v>
+      </c>
+      <c r="W101" t="n" s="10">
+        <v>7.694</v>
+      </c>
+      <c r="X101" t="n" s="10">
+        <v>7.475</v>
+      </c>
+      <c r="Y101" t="n" s="10">
+        <v>7.588</v>
+      </c>
+      <c r="Z101" t="n" s="10">
+        <v>7.614</v>
+      </c>
+      <c r="AA101" t="n" s="10">
+        <v>7.917</v>
+      </c>
+      <c r="AB101" t="n" s="10">
+        <v>8.582</v>
+      </c>
+      <c r="AC101" t="n" s="10">
+        <v>8.57</v>
+      </c>
+      <c r="AD101" t="n" s="10">
+        <v>8.801</v>
+      </c>
+      <c r="AE101" t="n" s="10">
+        <v>8.767</v>
+      </c>
+      <c r="AF101" t="n" s="10">
         <v>8.856</v>
       </c>
-      <c r="I101" t="n" s="10">
-        <v>8.075</v>
-      </c>
-      <c r="J101" t="n" s="10">
-        <v>7.564</v>
-      </c>
-      <c r="K101" t="n" s="10">
-        <v>6.771</v>
-      </c>
-      <c r="L101" t="n" s="10">
-        <v>6.099</v>
-      </c>
-      <c r="M101" t="n" s="10">
-        <v>6.416</v>
-      </c>
-      <c r="N101" t="n" s="10">
-        <v>6.368</v>
-      </c>
-      <c r="O101" t="n" s="10">
-        <v>6.456</v>
-      </c>
-      <c r="P101" t="n" s="10">
-        <v>6.764</v>
-      </c>
-      <c r="Q101" t="n" s="10">
-        <v>6.883</v>
-      </c>
-      <c r="R101" t="n" s="10">
-        <v>7.067</v>
-      </c>
-      <c r="S101" t="n" s="10">
-        <v>7.083</v>
-      </c>
-      <c r="T101" t="n" s="10">
-        <v>7.271</v>
-      </c>
-      <c r="U101" t="n" s="10">
-        <v>7.266</v>
-      </c>
-      <c r="V101" t="n" s="10">
-        <v>7.366</v>
-      </c>
-      <c r="W101" t="n" s="10">
-        <v>7.7</v>
-      </c>
-      <c r="X101" t="n" s="10">
-        <v>7.459</v>
-      </c>
-      <c r="Y101" t="n" s="10">
-        <v>7.585</v>
-      </c>
-      <c r="Z101" t="n" s="10">
-        <v>7.603</v>
-      </c>
-      <c r="AA101" t="n" s="10">
-        <v>7.879</v>
-      </c>
-      <c r="AB101" t="n" s="10">
-        <v>8.599</v>
-      </c>
-      <c r="AC101" t="n" s="10">
-        <v>8.566</v>
-      </c>
-      <c r="AD101" t="n" s="10">
-        <v>8.785</v>
-      </c>
-      <c r="AE101" t="n" s="10">
-        <v>8.772</v>
-      </c>
-      <c r="AF101" t="n" s="10">
-        <v>8.838</v>
-      </c>
       <c r="AG101" t="n" s="10">
-        <v>9.496</v>
+        <v>9.491</v>
       </c>
       <c r="AH101" t="n" s="10">
-        <v>10.139</v>
+        <v>10.125</v>
       </c>
       <c r="AI101" t="n" s="10">
-        <v>9.972</v>
+        <v>9.977</v>
       </c>
       <c r="AJ101" t="n" s="10">
-        <v>9.866</v>
+        <v>9.849</v>
       </c>
       <c r="AK101" t="n" s="10">
-        <v>9.757</v>
+        <v>9.743</v>
       </c>
       <c r="AL101" t="n" s="10">
+        <v>9.588</v>
+      </c>
+      <c r="AM101" t="n" s="10">
+        <v>10.537</v>
+      </c>
+      <c r="AN101" t="n" s="10">
+        <v>11.327</v>
+      </c>
+      <c r="AO101" t="n" s="10">
+        <v>11.54</v>
+      </c>
+      <c r="AP101" t="n" s="10">
+        <v>11.492</v>
+      </c>
+      <c r="AQ101" t="n" s="10">
+        <v>11.141</v>
+      </c>
+      <c r="AR101" t="n" s="10">
+        <v>9.64</v>
+      </c>
+      <c r="AS101" t="n" s="10">
+        <v>9.443</v>
+      </c>
+      <c r="AT101" t="n" s="10">
+        <v>9.175</v>
+      </c>
+      <c r="AU101" t="n" s="10">
+        <v>8.555</v>
+      </c>
+      <c r="AV101" t="n" s="10">
+        <v>9.651</v>
+      </c>
+      <c r="AW101" t="n" s="10">
+        <v>9.072</v>
+      </c>
+      <c r="AX101" t="n" s="10">
+        <v>9.311</v>
+      </c>
+      <c r="AY101" t="n" s="10">
+        <v>10.164</v>
+      </c>
+      <c r="AZ101" t="n" s="10">
+        <v>9.169</v>
+      </c>
+      <c r="BA101" t="n" s="10">
+        <v>10.027</v>
+      </c>
+      <c r="BB101" t="n" s="10">
         <v>9.622</v>
       </c>
-      <c r="AM101" t="n" s="10">
-        <v>10.564</v>
-      </c>
-      <c r="AN101" t="n" s="10">
-        <v>11.324</v>
-      </c>
-      <c r="AO101" t="n" s="10">
-        <v>11.531</v>
-      </c>
-      <c r="AP101" t="n" s="10">
-        <v>11.471</v>
-      </c>
-      <c r="AQ101" t="n" s="10">
-        <v>11.144</v>
-      </c>
-      <c r="AR101" t="n" s="10">
-        <v>9.629</v>
-      </c>
-      <c r="AS101" t="n" s="10">
-        <v>9.427</v>
-      </c>
-      <c r="AT101" t="n" s="10">
-        <v>9.162</v>
-      </c>
-      <c r="AU101" t="n" s="10">
-        <v>8.526</v>
-      </c>
-      <c r="AV101" t="n" s="10">
-        <v>9.654</v>
-      </c>
-      <c r="AW101" t="n" s="10">
-        <v>9.07</v>
-      </c>
-      <c r="AX101" t="n" s="10">
-        <v>9.302</v>
-      </c>
-      <c r="AY101" t="n" s="10">
-        <v>10.158</v>
-      </c>
-      <c r="AZ101" t="n" s="10">
-        <v>9.152</v>
-      </c>
-      <c r="BA101" t="n" s="10">
-        <v>10.026</v>
-      </c>
-      <c r="BB101" t="n" s="10">
-        <v>9.607</v>
-      </c>
       <c r="BC101" t="n" s="10">
-        <v>9.417</v>
+        <v>9.397</v>
       </c>
       <c r="BD101" t="n" s="10">
-        <v>11.35</v>
+        <v>11.349</v>
       </c>
       <c r="BE101" t="n" s="10">
-        <v>11.134</v>
+        <v>11.124</v>
       </c>
       <c r="BF101" t="n" s="10">
-        <v>11.491</v>
+        <v>11.451</v>
       </c>
       <c r="BG101" t="n" s="10">
-        <v>11.958</v>
+        <v>11.975</v>
       </c>
       <c r="BH101" t="n" s="10">
-        <v>10.809</v>
+        <v>10.77</v>
       </c>
       <c r="BI101" t="n" s="10">
-        <v>11.41</v>
+        <v>11.395</v>
       </c>
       <c r="BJ101" t="n" s="10">
-        <v>12.71</v>
+        <v>12.705</v>
       </c>
       <c r="BK101" t="n" s="10">
-        <v>12.334</v>
+        <v>12.306</v>
       </c>
       <c r="BL101" t="n" s="10">
-        <v>13.821</v>
+        <v>13.839</v>
       </c>
       <c r="BM101" t="n" s="10">
-        <v>13.953</v>
+        <v>13.962</v>
       </c>
       <c r="BN101" t="n" s="10">
-        <v>13.611</v>
+        <v>13.621</v>
       </c>
       <c r="BO101" t="n" s="10">
-        <v>14.615</v>
+        <v>14.612</v>
       </c>
       <c r="BP101" t="n" s="10">
-        <v>13.846</v>
+        <v>13.868</v>
       </c>
       <c r="BQ101" t="n" s="10">
-        <v>13.202</v>
+        <v>13.216</v>
       </c>
       <c r="BR101" t="n" s="10">
-        <v>13.562</v>
+        <v>13.571</v>
       </c>
       <c r="BS101" t="n" s="10">
-        <v>13.75</v>
+        <v>13.773</v>
       </c>
       <c r="BT101" t="n" s="10">
-        <v>13.662</v>
+        <v>13.628</v>
       </c>
       <c r="BU101" t="n" s="10">
-        <v>13.593</v>
+        <v>13.588</v>
       </c>
       <c r="BV101" t="n" s="10">
-        <v>12.293</v>
+        <v>12.307</v>
       </c>
       <c r="BW101" t="n" s="10">
-        <v>9.831</v>
+        <v>9.829</v>
       </c>
       <c r="BX101" t="n" s="10">
-        <v>9.803</v>
+        <v>9.824</v>
       </c>
       <c r="BY101" t="n" s="10">
-        <v>10.591</v>
+        <v>10.584</v>
       </c>
       <c r="BZ101" t="n" s="10">
-        <v>10.582</v>
+        <v>10.569</v>
       </c>
       <c r="CA101" t="n" s="10">
         <v>12.712</v>
       </c>
       <c r="CB101" t="n" s="10">
-        <v>13.315</v>
+        <v>13.302</v>
       </c>
       <c r="CC101" t="n" s="10">
-        <v>12.749</v>
+        <v>12.737</v>
       </c>
       <c r="CD101" t="n" s="10">
-        <v>13.951</v>
+        <v>13.919</v>
       </c>
       <c r="CE101" t="n" s="10">
-        <v>13.694</v>
+        <v>13.68</v>
       </c>
       <c r="CF101" t="n" s="10">
-        <v>13.183</v>
+        <v>13.169</v>
       </c>
       <c r="CG101" t="n" s="10">
-        <v>13.973</v>
+        <v>13.961</v>
       </c>
       <c r="CH101" t="n" s="10">
         <v>13.578</v>
       </c>
       <c r="CI101" t="n" s="10">
-        <v>13.422</v>
+        <v>13.394</v>
       </c>
       <c r="CJ101" t="n" s="10">
-        <v>13.493</v>
+        <v>13.504</v>
       </c>
       <c r="CK101" t="n" s="10">
-        <v>13.037</v>
+        <v>13.054</v>
       </c>
       <c r="CL101" t="n" s="10">
-        <v>12.51</v>
+        <v>12.525</v>
       </c>
       <c r="CM101" t="n" s="10">
-        <v>12.62</v>
+        <v>12.65</v>
       </c>
       <c r="CN101" t="n" s="10">
-        <v>12.767</v>
+        <v>12.763</v>
       </c>
       <c r="CO101" t="n" s="10">
-        <v>13.196</v>
+        <v>13.199</v>
       </c>
       <c r="CP101" t="n" s="10">
-        <v>14.203</v>
+        <v>14.214</v>
       </c>
       <c r="CQ101" t="n" s="10">
-        <v>14.075</v>
+        <v>14.079</v>
       </c>
       <c r="CR101" t="n" s="10">
-        <v>14.326</v>
+        <v>14.34</v>
       </c>
       <c r="CS101" t="n" s="10">
-        <v>13.642</v>
+        <v>13.647</v>
       </c>
       <c r="CT101" t="n" s="10">
-        <v>13.189</v>
+        <v>13.206</v>
       </c>
       <c r="CU101" t="n" s="10">
-        <v>13.945</v>
+        <v>13.943</v>
       </c>
       <c r="CV101" t="n" s="10">
-        <v>13.788</v>
+        <v>13.806</v>
       </c>
       <c r="CW101" t="n" s="10">
-        <v>14.819</v>
+        <v>14.817</v>
       </c>
       <c r="CX101" t="n" s="10">
-        <v>15.515</v>
+        <v>15.492</v>
       </c>
       <c r="CY101" t="n" s="10">
-        <v>14.877</v>
+        <v>14.895</v>
       </c>
       <c r="CZ101" t="n" s="10">
-        <v>15.181</v>
+        <v>15.143</v>
       </c>
       <c r="DA101" t="n" s="10">
-        <v>15.292</v>
+        <v>15.282</v>
       </c>
       <c r="DB101" t="n" s="10">
-        <v>15.525</v>
+        <v>15.514</v>
       </c>
       <c r="DC101" t="n" s="10">
-        <v>16.185</v>
+        <v>16.153</v>
       </c>
       <c r="DD101" t="n" s="10">
-        <v>16.421</v>
+        <v>16.443</v>
       </c>
       <c r="DE101" t="n" s="10">
-        <v>16.902</v>
+        <v>16.913</v>
       </c>
       <c r="DF101" t="n" s="10">
-        <v>17.1</v>
+        <v>17.149</v>
       </c>
       <c r="DG101" t="n" s="10">
-        <v>17.042</v>
+        <v>17.061</v>
       </c>
       <c r="DH101" t="n" s="10">
-        <v>17.884</v>
+        <v>17.831</v>
       </c>
       <c r="DI101" t="n" s="10">
-        <v>16.781</v>
+        <v>16.7</v>
       </c>
       <c r="DJ101" t="n" s="10">
-        <v>16.933</v>
+        <v>17.237</v>
       </c>
       <c r="DK101" t="n" s="10">
-        <v>19.389</v>
+        <v>19.311</v>
       </c>
       <c r="DL101" t="n" s="10">
-        <v>18.865</v>
+        <v>18.729</v>
       </c>
       <c r="DM101" t="n" s="10">
-        <v>19.822</v>
+        <v>19.642</v>
       </c>
       <c r="DN101" t="n" s="10">
-        <v>18.811</v>
+        <v>19.366</v>
       </c>
       <c r="DO101" t="n" s="10">
-        <v>16.512</v>
+        <v>16.285</v>
       </c>
       <c r="DP101" t="n" s="10">
-        <v>10.7</v>
+        <v>10.561</v>
       </c>
       <c r="DQ101" t="n" s="10">
-        <v>17.455</v>
+        <v>17.427</v>
       </c>
       <c r="DR101" t="n" s="10">
-        <v>18.197</v>
+        <v>18.455</v>
       </c>
       <c r="DS101" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT101" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU101" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV101" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
@@ -35470,376 +35470,376 @@
         <v>43</v>
       </c>
       <c r="C102" t="n" s="10">
-        <v>46.077</v>
+        <v>45.96</v>
       </c>
       <c r="D102" t="n" s="10">
-        <v>47.238</v>
+        <v>47.251</v>
       </c>
       <c r="E102" t="n" s="10">
-        <v>49.358</v>
+        <v>49.348</v>
       </c>
       <c r="F102" t="n" s="10">
-        <v>51.571</v>
+        <v>51.485</v>
       </c>
       <c r="G102" t="n" s="10">
-        <v>54.546</v>
+        <v>54.574</v>
       </c>
       <c r="H102" t="n" s="10">
-        <v>55.785</v>
+        <v>55.735</v>
       </c>
       <c r="I102" t="n" s="10">
-        <v>56.556</v>
+        <v>56.558</v>
       </c>
       <c r="J102" t="n" s="10">
-        <v>58.558</v>
+        <v>58.586</v>
       </c>
       <c r="K102" t="n" s="10">
-        <v>58.073</v>
+        <v>58.042</v>
       </c>
       <c r="L102" t="n" s="10">
-        <v>59.244</v>
+        <v>59.275</v>
       </c>
       <c r="M102" t="n" s="10">
-        <v>60.708</v>
+        <v>60.73</v>
       </c>
       <c r="N102" t="n" s="10">
-        <v>60.018</v>
+        <v>60.105</v>
       </c>
       <c r="O102" t="n" s="10">
-        <v>63.566</v>
+        <v>63.589</v>
       </c>
       <c r="P102" t="n" s="10">
-        <v>64.545</v>
+        <v>64.579</v>
       </c>
       <c r="Q102" t="n" s="10">
-        <v>64.98</v>
+        <v>65.009</v>
       </c>
       <c r="R102" t="n" s="10">
-        <v>66.697</v>
+        <v>66.67</v>
       </c>
       <c r="S102" t="n" s="10">
-        <v>66.575</v>
+        <v>66.624</v>
       </c>
       <c r="T102" t="n" s="10">
-        <v>65.743</v>
+        <v>65.719</v>
       </c>
       <c r="U102" t="n" s="10">
-        <v>65.031</v>
+        <v>64.976</v>
       </c>
       <c r="V102" t="n" s="10">
-        <v>63.826</v>
+        <v>63.801</v>
       </c>
       <c r="W102" t="n" s="10">
-        <v>61.701</v>
+        <v>61.721</v>
       </c>
       <c r="X102" t="n" s="10">
-        <v>64.069</v>
+        <v>64.015</v>
       </c>
       <c r="Y102" t="n" s="10">
-        <v>64.177</v>
+        <v>64.169</v>
       </c>
       <c r="Z102" t="n" s="10">
-        <v>63.804</v>
+        <v>63.768</v>
       </c>
       <c r="AA102" t="n" s="10">
-        <v>63.065</v>
+        <v>62.939</v>
       </c>
       <c r="AB102" t="n" s="10">
-        <v>62.74</v>
+        <v>62.798</v>
       </c>
       <c r="AC102" t="n" s="10">
-        <v>62.441</v>
+        <v>62.429</v>
       </c>
       <c r="AD102" t="n" s="10">
-        <v>62.967</v>
+        <v>62.913</v>
       </c>
       <c r="AE102" t="n" s="10">
-        <v>63.528</v>
+        <v>63.546</v>
       </c>
       <c r="AF102" t="n" s="10">
-        <v>61.436</v>
+        <v>61.376</v>
       </c>
       <c r="AG102" t="n" s="10">
-        <v>61.3</v>
+        <v>61.317</v>
       </c>
       <c r="AH102" t="n" s="10">
-        <v>60.594</v>
+        <v>60.64</v>
       </c>
       <c r="AI102" t="n" s="10">
-        <v>60.837</v>
+        <v>60.819</v>
       </c>
       <c r="AJ102" t="n" s="10">
-        <v>61.682</v>
+        <v>61.737</v>
       </c>
       <c r="AK102" t="n" s="10">
-        <v>62.238</v>
+        <v>62.285</v>
       </c>
       <c r="AL102" t="n" s="10">
-        <v>61.869</v>
+        <v>61.982</v>
       </c>
       <c r="AM102" t="n" s="10">
-        <v>61.643</v>
+        <v>61.729</v>
       </c>
       <c r="AN102" t="n" s="10">
-        <v>60.867</v>
+        <v>60.856</v>
       </c>
       <c r="AO102" t="n" s="10">
-        <v>59.936</v>
+        <v>59.908</v>
       </c>
       <c r="AP102" t="n" s="10">
-        <v>59.563</v>
+        <v>59.495</v>
       </c>
       <c r="AQ102" t="n" s="10">
-        <v>58.774</v>
+        <v>58.784</v>
       </c>
       <c r="AR102" t="n" s="10">
-        <v>58.578</v>
+        <v>58.541</v>
       </c>
       <c r="AS102" t="n" s="10">
-        <v>57.809</v>
+        <v>57.755</v>
       </c>
       <c r="AT102" t="n" s="10">
-        <v>57.215</v>
+        <v>57.171</v>
       </c>
       <c r="AU102" t="n" s="10">
-        <v>56.212</v>
+        <v>56.117</v>
       </c>
       <c r="AV102" t="n" s="10">
-        <v>54.55</v>
+        <v>54.56</v>
       </c>
       <c r="AW102" t="n" s="10">
-        <v>54.01</v>
+        <v>54.003</v>
       </c>
       <c r="AX102" t="n" s="10">
-        <v>53.055</v>
+        <v>53.027</v>
       </c>
       <c r="AY102" t="n" s="10">
-        <v>52.909</v>
+        <v>52.887</v>
       </c>
       <c r="AZ102" t="n" s="10">
-        <v>53.342</v>
+        <v>53.287</v>
       </c>
       <c r="BA102" t="n" s="10">
-        <v>53.118</v>
+        <v>53.111</v>
       </c>
       <c r="BB102" t="n" s="10">
-        <v>53.163</v>
+        <v>53.11</v>
       </c>
       <c r="BC102" t="n" s="10">
-        <v>52.46</v>
+        <v>52.58</v>
       </c>
       <c r="BD102" t="n" s="10">
-        <v>51.383</v>
+        <v>51.385</v>
       </c>
       <c r="BE102" t="n" s="10">
-        <v>50.584</v>
+        <v>50.506</v>
       </c>
       <c r="BF102" t="n" s="10">
-        <v>49.745</v>
+        <v>49.667</v>
       </c>
       <c r="BG102" t="n" s="10">
-        <v>49.211</v>
+        <v>49.793</v>
       </c>
       <c r="BH102" t="n" s="10">
-        <v>49.731</v>
+        <v>49.649</v>
       </c>
       <c r="BI102" t="n" s="10">
-        <v>50.096</v>
+        <v>49.836</v>
       </c>
       <c r="BJ102" t="n" s="10">
-        <v>50.717</v>
+        <v>50.308</v>
       </c>
       <c r="BK102" t="n" s="10">
-        <v>48.725</v>
+        <v>49.98</v>
       </c>
       <c r="BL102" t="n" s="10">
-        <v>53.849</v>
+        <v>53.37</v>
       </c>
       <c r="BM102" t="n" s="10">
-        <v>55.59</v>
+        <v>55.248</v>
       </c>
       <c r="BN102" t="n" s="10">
-        <v>57.135</v>
+        <v>56.891</v>
       </c>
       <c r="BO102" t="n" s="10">
-        <v>57.146</v>
+        <v>57.798</v>
       </c>
       <c r="BP102" t="n" s="10">
-        <v>56.721</v>
+        <v>56.439</v>
       </c>
       <c r="BQ102" t="n" s="10">
-        <v>56.74</v>
+        <v>56.586</v>
       </c>
       <c r="BR102" t="n" s="10">
-        <v>57.033</v>
+        <v>57.001</v>
       </c>
       <c r="BS102" t="n" s="10">
-        <v>58.778</v>
+        <v>58.753</v>
       </c>
       <c r="BT102" t="n" s="10">
-        <v>58.115</v>
+        <v>58.223</v>
       </c>
       <c r="BU102" t="n" s="10">
-        <v>57.986</v>
+        <v>58.003</v>
       </c>
       <c r="BV102" t="n" s="10">
-        <v>57.71</v>
+        <v>57.667</v>
       </c>
       <c r="BW102" t="n" s="10">
-        <v>55.65</v>
+        <v>55.641</v>
       </c>
       <c r="BX102" t="n" s="10">
-        <v>56.499</v>
+        <v>56.435</v>
       </c>
       <c r="BY102" t="n" s="10">
-        <v>57.043</v>
+        <v>57.073</v>
       </c>
       <c r="BZ102" t="n" s="10">
-        <v>58.652</v>
+        <v>58.708</v>
       </c>
       <c r="CA102" t="n" s="10">
-        <v>55.15</v>
+        <v>55.121</v>
       </c>
       <c r="CB102" t="n" s="10">
-        <v>60.369</v>
+        <v>60.422</v>
       </c>
       <c r="CC102" t="n" s="10">
-        <v>60.967</v>
+        <v>61.013</v>
       </c>
       <c r="CD102" t="n" s="10">
-        <v>60.318</v>
+        <v>60.429</v>
       </c>
       <c r="CE102" t="n" s="10">
-        <v>63.995</v>
+        <v>64.023</v>
       </c>
       <c r="CF102" t="n" s="10">
-        <v>65.429</v>
+        <v>65.484</v>
       </c>
       <c r="CG102" t="n" s="10">
-        <v>66.066</v>
+        <v>66.108</v>
       </c>
       <c r="CH102" t="n" s="10">
-        <v>68.119</v>
+        <v>68.12</v>
       </c>
       <c r="CI102" t="n" s="10">
-        <v>68.131</v>
+        <v>68.222</v>
       </c>
       <c r="CJ102" t="n" s="10">
-        <v>68.35</v>
+        <v>68.315</v>
       </c>
       <c r="CK102" t="n" s="10">
-        <v>68.84</v>
+        <v>68.785</v>
       </c>
       <c r="CL102" t="n" s="10">
-        <v>68.665</v>
+        <v>68.618</v>
       </c>
       <c r="CM102" t="n" s="10">
-        <v>67.08</v>
+        <v>66.98</v>
       </c>
       <c r="CN102" t="n" s="10">
-        <v>69.685</v>
+        <v>69.701</v>
       </c>
       <c r="CO102" t="n" s="10">
-        <v>71.145</v>
+        <v>71.137</v>
       </c>
       <c r="CP102" t="n" s="10">
-        <v>71.536</v>
+        <v>71.501</v>
       </c>
       <c r="CQ102" t="n" s="10">
-        <v>73.839</v>
+        <v>73.825</v>
       </c>
       <c r="CR102" t="n" s="10">
-        <v>72.366</v>
+        <v>72.32</v>
       </c>
       <c r="CS102" t="n" s="10">
-        <v>72.455</v>
+        <v>72.436</v>
       </c>
       <c r="CT102" t="n" s="10">
-        <v>72.862</v>
+        <v>72.809</v>
       </c>
       <c r="CU102" t="n" s="10">
-        <v>71.768</v>
+        <v>71.774</v>
       </c>
       <c r="CV102" t="n" s="10">
-        <v>72.333</v>
+        <v>72.272</v>
       </c>
       <c r="CW102" t="n" s="10">
-        <v>72.938</v>
+        <v>72.944</v>
       </c>
       <c r="CX102" t="n" s="10">
-        <v>74.185</v>
+        <v>74.26</v>
       </c>
       <c r="CY102" t="n" s="10">
-        <v>75.942</v>
+        <v>75.884</v>
       </c>
       <c r="CZ102" t="n" s="10">
-        <v>76.389</v>
+        <v>76.517</v>
       </c>
       <c r="DA102" t="n" s="10">
-        <v>77.013</v>
+        <v>77.047</v>
       </c>
       <c r="DB102" t="n" s="10">
-        <v>77.823</v>
+        <v>77.859</v>
       </c>
       <c r="DC102" t="n" s="10">
-        <v>78.756</v>
+        <v>78.86</v>
       </c>
       <c r="DD102" t="n" s="10">
-        <v>80.282</v>
+        <v>80.202</v>
       </c>
       <c r="DE102" t="n" s="10">
-        <v>81.186</v>
+        <v>81.147</v>
       </c>
       <c r="DF102" t="n" s="10">
-        <v>82.368</v>
+        <v>82.283</v>
       </c>
       <c r="DG102" t="n" s="10">
-        <v>83.66</v>
+        <v>83.594</v>
       </c>
       <c r="DH102" t="n" s="10">
-        <v>85.883</v>
+        <v>85.89</v>
       </c>
       <c r="DI102" t="n" s="10">
-        <v>87.795</v>
+        <v>87.746</v>
       </c>
       <c r="DJ102" t="n" s="10">
-        <v>89.534</v>
+        <v>89.526</v>
       </c>
       <c r="DK102" t="n" s="10">
-        <v>89.583</v>
+        <v>89.549</v>
       </c>
       <c r="DL102" t="n" s="10">
-        <v>90.817</v>
+        <v>90.709</v>
       </c>
       <c r="DM102" t="n" s="10">
-        <v>92.838</v>
+        <v>92.707</v>
       </c>
       <c r="DN102" t="n" s="10">
-        <v>92.458</v>
+        <v>92.521</v>
       </c>
       <c r="DO102" t="n" s="10">
-        <v>95.0</v>
+        <v>95.604</v>
       </c>
       <c r="DP102" t="n" s="10">
-        <v>94.406</v>
+        <v>94.087</v>
       </c>
       <c r="DQ102" t="n" s="10">
-        <v>93.861</v>
+        <v>93.21</v>
       </c>
       <c r="DR102" t="n" s="10">
-        <v>96.156</v>
+        <v>96.422</v>
       </c>
       <c r="DS102" t="n" s="10">
-        <v>95.234</v>
+        <v>96.391</v>
       </c>
       <c r="DT102" t="n" s="10">
-        <v>103.297</v>
+        <v>103.013</v>
       </c>
       <c r="DU102" t="n" s="10">
-        <v>108.442</v>
-      </c>
-      <c r="DV102" t="s" s="10">
-        <v>44</v>
+        <v>105.983</v>
+      </c>
+      <c r="DV102" t="n" s="10">
+        <v>107.402</v>
       </c>
     </row>
     <row r="103">
@@ -35850,271 +35850,271 @@
         <v>43</v>
       </c>
       <c r="C103" t="n" s="10">
-        <v>23.28</v>
+        <v>23.285</v>
       </c>
       <c r="D103" t="n" s="10">
         <v>23.617</v>
       </c>
       <c r="E103" t="n" s="10">
-        <v>24.52</v>
+        <v>24.521</v>
       </c>
       <c r="F103" t="n" s="10">
-        <v>25.515</v>
+        <v>25.519</v>
       </c>
       <c r="G103" t="n" s="10">
-        <v>26.974</v>
+        <v>26.972</v>
       </c>
       <c r="H103" t="n" s="10">
-        <v>27.773</v>
+        <v>27.776</v>
       </c>
       <c r="I103" t="n" s="10">
         <v>28.188</v>
       </c>
       <c r="J103" t="n" s="10">
-        <v>29.426</v>
+        <v>29.425</v>
       </c>
       <c r="K103" t="n" s="10">
-        <v>29.514</v>
+        <v>29.516</v>
       </c>
       <c r="L103" t="n" s="10">
-        <v>30.106</v>
+        <v>30.105</v>
       </c>
       <c r="M103" t="n" s="10">
-        <v>31.373</v>
+        <v>31.372</v>
       </c>
       <c r="N103" t="n" s="10">
-        <v>31.532</v>
+        <v>31.528</v>
       </c>
       <c r="O103" t="n" s="10">
-        <v>33.671</v>
+        <v>33.67</v>
       </c>
       <c r="P103" t="n" s="10">
-        <v>34.673</v>
+        <v>34.672</v>
       </c>
       <c r="Q103" t="n" s="10">
-        <v>35.239</v>
+        <v>35.238</v>
       </c>
       <c r="R103" t="n" s="10">
-        <v>36.317</v>
+        <v>36.318</v>
       </c>
       <c r="S103" t="n" s="10">
-        <v>36.417</v>
+        <v>36.414</v>
       </c>
       <c r="T103" t="n" s="10">
-        <v>36.295</v>
+        <v>36.296</v>
       </c>
       <c r="U103" t="n" s="10">
-        <v>35.758</v>
+        <v>35.761</v>
       </c>
       <c r="V103" t="n" s="10">
-        <v>35.361</v>
+        <v>35.362</v>
       </c>
       <c r="W103" t="n" s="10">
-        <v>34.758</v>
+        <v>34.757</v>
       </c>
       <c r="X103" t="n" s="10">
-        <v>36.086</v>
+        <v>36.088</v>
       </c>
       <c r="Y103" t="n" s="10">
-        <v>36.501</v>
+        <v>36.502</v>
       </c>
       <c r="Z103" t="n" s="10">
-        <v>36.508</v>
+        <v>36.509</v>
       </c>
       <c r="AA103" t="n" s="10">
-        <v>36.174</v>
+        <v>36.18</v>
       </c>
       <c r="AB103" t="n" s="10">
-        <v>36.209</v>
+        <v>36.207</v>
       </c>
       <c r="AC103" t="n" s="10">
-        <v>36.095</v>
+        <v>36.096</v>
       </c>
       <c r="AD103" t="n" s="10">
-        <v>36.332</v>
+        <v>36.335</v>
       </c>
       <c r="AE103" t="n" s="10">
-        <v>36.847</v>
+        <v>36.846</v>
       </c>
       <c r="AF103" t="n" s="10">
-        <v>35.881</v>
+        <v>35.884</v>
       </c>
       <c r="AG103" t="n" s="10">
-        <v>35.905</v>
+        <v>35.904</v>
       </c>
       <c r="AH103" t="n" s="10">
-        <v>35.663</v>
+        <v>35.661</v>
       </c>
       <c r="AI103" t="n" s="10">
-        <v>35.731</v>
+        <v>35.732</v>
       </c>
       <c r="AJ103" t="n" s="10">
-        <v>36.183</v>
+        <v>36.18</v>
       </c>
       <c r="AK103" t="n" s="10">
-        <v>36.522</v>
+        <v>36.52</v>
       </c>
       <c r="AL103" t="n" s="10">
-        <v>36.271</v>
+        <v>36.266</v>
       </c>
       <c r="AM103" t="n" s="10">
-        <v>36.096</v>
+        <v>36.092</v>
       </c>
       <c r="AN103" t="n" s="10">
         <v>35.661</v>
       </c>
       <c r="AO103" t="n" s="10">
-        <v>34.953</v>
+        <v>34.955</v>
       </c>
       <c r="AP103" t="n" s="10">
-        <v>34.429</v>
+        <v>34.432</v>
       </c>
       <c r="AQ103" t="n" s="10">
-        <v>33.736</v>
+        <v>33.735</v>
       </c>
       <c r="AR103" t="n" s="10">
-        <v>33.484</v>
+        <v>33.486</v>
       </c>
       <c r="AS103" t="n" s="10">
-        <v>33.05</v>
+        <v>33.053</v>
       </c>
       <c r="AT103" t="n" s="10">
-        <v>32.704</v>
+        <v>32.706</v>
       </c>
       <c r="AU103" t="n" s="10">
-        <v>32.202</v>
+        <v>32.206</v>
       </c>
       <c r="AV103" t="n" s="10">
-        <v>31.255</v>
+        <v>31.254</v>
       </c>
       <c r="AW103" t="n" s="10">
         <v>30.928</v>
       </c>
       <c r="AX103" t="n" s="10">
-        <v>30.559</v>
+        <v>30.561</v>
       </c>
       <c r="AY103" t="n" s="10">
-        <v>30.429</v>
+        <v>30.43</v>
       </c>
       <c r="AZ103" t="n" s="10">
-        <v>30.661</v>
+        <v>30.664</v>
       </c>
       <c r="BA103" t="n" s="10">
         <v>30.697</v>
       </c>
       <c r="BB103" t="n" s="10">
-        <v>30.725</v>
+        <v>30.727</v>
       </c>
       <c r="BC103" t="n" s="10">
-        <v>30.42</v>
+        <v>30.417</v>
       </c>
       <c r="BD103" t="n" s="10">
         <v>29.864</v>
       </c>
       <c r="BE103" t="n" s="10">
-        <v>29.187</v>
+        <v>29.185</v>
       </c>
       <c r="BF103" t="n" s="10">
-        <v>28.611</v>
+        <v>28.605</v>
       </c>
       <c r="BG103" t="n" s="10">
-        <v>28.646</v>
+        <v>28.649</v>
       </c>
       <c r="BH103" t="n" s="10">
-        <v>28.401</v>
+        <v>28.395</v>
       </c>
       <c r="BI103" t="n" s="10">
-        <v>28.657</v>
+        <v>28.655</v>
       </c>
       <c r="BJ103" t="n" s="10">
-        <v>28.894</v>
+        <v>28.893</v>
       </c>
       <c r="BK103" t="n" s="10">
-        <v>29.085</v>
+        <v>29.08</v>
       </c>
       <c r="BL103" t="n" s="10">
-        <v>31.046</v>
+        <v>31.049</v>
       </c>
       <c r="BM103" t="n" s="10">
-        <v>32.01</v>
+        <v>32.011</v>
       </c>
       <c r="BN103" t="n" s="10">
-        <v>33.046</v>
+        <v>33.048</v>
       </c>
       <c r="BO103" t="n" s="10">
         <v>33.165</v>
       </c>
       <c r="BP103" t="n" s="10">
-        <v>32.502</v>
+        <v>32.505</v>
       </c>
       <c r="BQ103" t="n" s="10">
-        <v>32.543</v>
+        <v>32.545</v>
       </c>
       <c r="BR103" t="n" s="10">
-        <v>32.386</v>
+        <v>32.387</v>
       </c>
       <c r="BS103" t="n" s="10">
-        <v>33.024</v>
+        <v>33.027</v>
       </c>
       <c r="BT103" t="n" s="10">
-        <v>32.378</v>
+        <v>32.373</v>
       </c>
       <c r="BU103" t="n" s="10">
-        <v>32.103</v>
+        <v>32.102</v>
       </c>
       <c r="BV103" t="n" s="10">
-        <v>32.006</v>
+        <v>32.008</v>
       </c>
       <c r="BW103" t="n" s="10">
         <v>31.559</v>
       </c>
       <c r="BX103" t="n" s="10">
-        <v>31.373</v>
+        <v>31.376</v>
       </c>
       <c r="BY103" t="n" s="10">
-        <v>31.676</v>
+        <v>31.675</v>
       </c>
       <c r="BZ103" t="n" s="10">
-        <v>32.54</v>
+        <v>32.538</v>
       </c>
       <c r="CA103" t="n" s="10">
         <v>32.078</v>
       </c>
       <c r="CB103" t="n" s="10">
-        <v>33.66</v>
+        <v>33.658</v>
       </c>
       <c r="CC103" t="n" s="10">
-        <v>34.085</v>
+        <v>34.083</v>
       </c>
       <c r="CD103" t="n" s="10">
-        <v>34.046</v>
+        <v>34.041</v>
       </c>
       <c r="CE103" t="n" s="10">
-        <v>36.714</v>
+        <v>36.712</v>
       </c>
       <c r="CF103" t="n" s="10">
-        <v>37.247</v>
+        <v>37.244</v>
       </c>
       <c r="CG103" t="n" s="10">
-        <v>37.918</v>
+        <v>37.916</v>
       </c>
       <c r="CH103" t="n" s="10">
         <v>39.359</v>
       </c>
       <c r="CI103" t="n" s="10">
-        <v>39.909</v>
+        <v>39.904</v>
       </c>
       <c r="CJ103" t="n" s="10">
-        <v>40.228</v>
+        <v>40.23</v>
       </c>
       <c r="CK103" t="n" s="10">
-        <v>40.608</v>
+        <v>40.611</v>
       </c>
       <c r="CL103" t="n" s="10">
-        <v>40.602</v>
+        <v>40.604</v>
       </c>
       <c r="CM103" t="n" s="10">
-        <v>39.648</v>
+        <v>39.653</v>
       </c>
       <c r="CN103" t="n" s="10">
         <v>41.085</v>
@@ -36123,103 +36123,103 @@
         <v>42.167</v>
       </c>
       <c r="CP103" t="n" s="10">
-        <v>42.516</v>
+        <v>42.517</v>
       </c>
       <c r="CQ103" t="n" s="10">
-        <v>44.091</v>
+        <v>44.092</v>
       </c>
       <c r="CR103" t="n" s="10">
-        <v>43.252</v>
+        <v>43.255</v>
       </c>
       <c r="CS103" t="n" s="10">
-        <v>43.28</v>
+        <v>43.281</v>
       </c>
       <c r="CT103" t="n" s="10">
-        <v>43.592</v>
+        <v>43.594</v>
       </c>
       <c r="CU103" t="n" s="10">
         <v>43.045</v>
       </c>
       <c r="CV103" t="n" s="10">
-        <v>43.493</v>
+        <v>43.496</v>
       </c>
       <c r="CW103" t="n" s="10">
-        <v>43.986</v>
+        <v>43.985</v>
       </c>
       <c r="CX103" t="n" s="10">
-        <v>44.717</v>
+        <v>44.713</v>
       </c>
       <c r="CY103" t="n" s="10">
-        <v>46.084</v>
+        <v>46.087</v>
       </c>
       <c r="CZ103" t="n" s="10">
-        <v>46.77</v>
+        <v>46.764</v>
       </c>
       <c r="DA103" t="n" s="10">
-        <v>47.153</v>
+        <v>47.152</v>
       </c>
       <c r="DB103" t="n" s="10">
-        <v>47.799</v>
+        <v>47.797</v>
       </c>
       <c r="DC103" t="n" s="10">
-        <v>47.954</v>
+        <v>47.949</v>
       </c>
       <c r="DD103" t="n" s="10">
-        <v>48.82</v>
+        <v>48.823</v>
       </c>
       <c r="DE103" t="n" s="10">
-        <v>49.441</v>
+        <v>49.442</v>
       </c>
       <c r="DF103" t="n" s="10">
-        <v>50.111</v>
+        <v>50.115</v>
       </c>
       <c r="DG103" t="n" s="10">
-        <v>51.021</v>
+        <v>51.024</v>
       </c>
       <c r="DH103" t="n" s="10">
-        <v>52.309</v>
+        <v>52.308</v>
       </c>
       <c r="DI103" t="n" s="10">
-        <v>53.403</v>
+        <v>53.407</v>
       </c>
       <c r="DJ103" t="n" s="10">
-        <v>54.462</v>
+        <v>54.468</v>
       </c>
       <c r="DK103" t="n" s="10">
-        <v>54.646</v>
+        <v>54.657</v>
       </c>
       <c r="DL103" t="n" s="10">
-        <v>55.42</v>
+        <v>55.406</v>
       </c>
       <c r="DM103" t="n" s="10">
-        <v>56.849</v>
+        <v>56.812</v>
       </c>
       <c r="DN103" t="n" s="10">
-        <v>56.617</v>
+        <v>56.637</v>
       </c>
       <c r="DO103" t="n" s="10">
-        <v>58.363</v>
+        <v>58.521</v>
       </c>
       <c r="DP103" t="n" s="10">
-        <v>58.166</v>
+        <v>58.118</v>
       </c>
       <c r="DQ103" t="n" s="10">
-        <v>57.907</v>
+        <v>57.929</v>
       </c>
       <c r="DR103" t="n" s="10">
-        <v>59.62</v>
+        <v>59.381</v>
       </c>
       <c r="DS103" t="n" s="10">
-        <v>58.865</v>
+        <v>59.239</v>
       </c>
       <c r="DT103" t="n" s="10">
-        <v>64.24</v>
+        <v>64.226</v>
       </c>
       <c r="DU103" t="n" s="10">
-        <v>68.157</v>
-      </c>
-      <c r="DV103" t="s" s="10">
-        <v>44</v>
+        <v>66.92</v>
+      </c>
+      <c r="DV103" t="n" s="10">
+        <v>66.18</v>
       </c>
     </row>
     <row r="104">
@@ -36230,376 +36230,376 @@
         <v>43</v>
       </c>
       <c r="C104" t="n" s="10">
-        <v>22.797</v>
+        <v>22.675</v>
       </c>
       <c r="D104" t="n" s="10">
-        <v>23.621</v>
+        <v>23.634</v>
       </c>
       <c r="E104" t="n" s="10">
-        <v>24.838</v>
+        <v>24.827</v>
       </c>
       <c r="F104" t="n" s="10">
-        <v>26.056</v>
+        <v>25.966</v>
       </c>
       <c r="G104" t="n" s="10">
-        <v>27.572</v>
+        <v>27.602</v>
       </c>
       <c r="H104" t="n" s="10">
-        <v>28.012</v>
+        <v>27.959</v>
       </c>
       <c r="I104" t="n" s="10">
-        <v>28.368</v>
+        <v>28.37</v>
       </c>
       <c r="J104" t="n" s="10">
-        <v>29.132</v>
+        <v>29.161</v>
       </c>
       <c r="K104" t="n" s="10">
-        <v>28.559</v>
+        <v>28.526</v>
       </c>
       <c r="L104" t="n" s="10">
-        <v>29.138</v>
+        <v>29.17</v>
       </c>
       <c r="M104" t="n" s="10">
-        <v>29.335</v>
+        <v>29.358</v>
       </c>
       <c r="N104" t="n" s="10">
-        <v>28.486</v>
+        <v>28.577</v>
       </c>
       <c r="O104" t="n" s="10">
+        <v>29.919</v>
+      </c>
+      <c r="P104" t="n" s="10">
+        <v>29.907</v>
+      </c>
+      <c r="Q104" t="n" s="10">
+        <v>29.771</v>
+      </c>
+      <c r="R104" t="n" s="10">
+        <v>30.352</v>
+      </c>
+      <c r="S104" t="n" s="10">
+        <v>30.21</v>
+      </c>
+      <c r="T104" t="n" s="10">
+        <v>29.423</v>
+      </c>
+      <c r="U104" t="n" s="10">
+        <v>29.215</v>
+      </c>
+      <c r="V104" t="n" s="10">
+        <v>28.439</v>
+      </c>
+      <c r="W104" t="n" s="10">
+        <v>26.964</v>
+      </c>
+      <c r="X104" t="n" s="10">
+        <v>27.927</v>
+      </c>
+      <c r="Y104" t="n" s="10">
+        <v>27.667</v>
+      </c>
+      <c r="Z104" t="n" s="10">
+        <v>27.259</v>
+      </c>
+      <c r="AA104" t="n" s="10">
+        <v>26.759</v>
+      </c>
+      <c r="AB104" t="n" s="10">
+        <v>26.591</v>
+      </c>
+      <c r="AC104" t="n" s="10">
+        <v>26.333</v>
+      </c>
+      <c r="AD104" t="n" s="10">
+        <v>26.578</v>
+      </c>
+      <c r="AE104" t="n" s="10">
+        <v>26.7</v>
+      </c>
+      <c r="AF104" t="n" s="10">
+        <v>25.492</v>
+      </c>
+      <c r="AG104" t="n" s="10">
+        <v>25.413</v>
+      </c>
+      <c r="AH104" t="n" s="10">
+        <v>24.979</v>
+      </c>
+      <c r="AI104" t="n" s="10">
+        <v>25.087</v>
+      </c>
+      <c r="AJ104" t="n" s="10">
+        <v>25.557</v>
+      </c>
+      <c r="AK104" t="n" s="10">
+        <v>25.765</v>
+      </c>
+      <c r="AL104" t="n" s="10">
+        <v>25.716</v>
+      </c>
+      <c r="AM104" t="n" s="10">
+        <v>25.637</v>
+      </c>
+      <c r="AN104" t="n" s="10">
+        <v>25.195</v>
+      </c>
+      <c r="AO104" t="n" s="10">
+        <v>24.953</v>
+      </c>
+      <c r="AP104" t="n" s="10">
+        <v>25.063</v>
+      </c>
+      <c r="AQ104" t="n" s="10">
+        <v>25.049</v>
+      </c>
+      <c r="AR104" t="n" s="10">
+        <v>25.055</v>
+      </c>
+      <c r="AS104" t="n" s="10">
+        <v>24.702</v>
+      </c>
+      <c r="AT104" t="n" s="10">
+        <v>24.465</v>
+      </c>
+      <c r="AU104" t="n" s="10">
+        <v>23.911</v>
+      </c>
+      <c r="AV104" t="n" s="10">
+        <v>23.306</v>
+      </c>
+      <c r="AW104" t="n" s="10">
+        <v>23.075</v>
+      </c>
+      <c r="AX104" t="n" s="10">
+        <v>22.466</v>
+      </c>
+      <c r="AY104" t="n" s="10">
+        <v>22.457</v>
+      </c>
+      <c r="AZ104" t="n" s="10">
+        <v>22.623</v>
+      </c>
+      <c r="BA104" t="n" s="10">
+        <v>22.414</v>
+      </c>
+      <c r="BB104" t="n" s="10">
+        <v>22.383</v>
+      </c>
+      <c r="BC104" t="n" s="10">
+        <v>22.163</v>
+      </c>
+      <c r="BD104" t="n" s="10">
+        <v>21.521</v>
+      </c>
+      <c r="BE104" t="n" s="10">
+        <v>21.321</v>
+      </c>
+      <c r="BF104" t="n" s="10">
+        <v>21.062</v>
+      </c>
+      <c r="BG104" t="n" s="10">
+        <v>21.144</v>
+      </c>
+      <c r="BH104" t="n" s="10">
+        <v>21.254</v>
+      </c>
+      <c r="BI104" t="n" s="10">
+        <v>21.181</v>
+      </c>
+      <c r="BJ104" t="n" s="10">
+        <v>21.415</v>
+      </c>
+      <c r="BK104" t="n" s="10">
+        <v>20.9</v>
+      </c>
+      <c r="BL104" t="n" s="10">
+        <v>22.321</v>
+      </c>
+      <c r="BM104" t="n" s="10">
+        <v>23.237</v>
+      </c>
+      <c r="BN104" t="n" s="10">
+        <v>23.843</v>
+      </c>
+      <c r="BO104" t="n" s="10">
+        <v>24.633</v>
+      </c>
+      <c r="BP104" t="n" s="10">
+        <v>23.934</v>
+      </c>
+      <c r="BQ104" t="n" s="10">
+        <v>24.041</v>
+      </c>
+      <c r="BR104" t="n" s="10">
+        <v>24.614</v>
+      </c>
+      <c r="BS104" t="n" s="10">
+        <v>25.726</v>
+      </c>
+      <c r="BT104" t="n" s="10">
+        <v>25.85</v>
+      </c>
+      <c r="BU104" t="n" s="10">
+        <v>25.901</v>
+      </c>
+      <c r="BV104" t="n" s="10">
+        <v>25.659</v>
+      </c>
+      <c r="BW104" t="n" s="10">
+        <v>24.082</v>
+      </c>
+      <c r="BX104" t="n" s="10">
+        <v>25.059</v>
+      </c>
+      <c r="BY104" t="n" s="10">
+        <v>25.398</v>
+      </c>
+      <c r="BZ104" t="n" s="10">
+        <v>26.17</v>
+      </c>
+      <c r="CA104" t="n" s="10">
+        <v>23.043</v>
+      </c>
+      <c r="CB104" t="n" s="10">
+        <v>26.764</v>
+      </c>
+      <c r="CC104" t="n" s="10">
+        <v>26.93</v>
+      </c>
+      <c r="CD104" t="n" s="10">
+        <v>26.388</v>
+      </c>
+      <c r="CE104" t="n" s="10">
+        <v>27.311</v>
+      </c>
+      <c r="CF104" t="n" s="10">
+        <v>28.24</v>
+      </c>
+      <c r="CG104" t="n" s="10">
+        <v>28.192</v>
+      </c>
+      <c r="CH104" t="n" s="10">
+        <v>28.761</v>
+      </c>
+      <c r="CI104" t="n" s="10">
+        <v>28.318</v>
+      </c>
+      <c r="CJ104" t="n" s="10">
+        <v>28.085</v>
+      </c>
+      <c r="CK104" t="n" s="10">
+        <v>28.174</v>
+      </c>
+      <c r="CL104" t="n" s="10">
+        <v>28.014</v>
+      </c>
+      <c r="CM104" t="n" s="10">
+        <v>27.327</v>
+      </c>
+      <c r="CN104" t="n" s="10">
+        <v>28.616</v>
+      </c>
+      <c r="CO104" t="n" s="10">
+        <v>28.97</v>
+      </c>
+      <c r="CP104" t="n" s="10">
+        <v>28.984</v>
+      </c>
+      <c r="CQ104" t="n" s="10">
+        <v>29.733</v>
+      </c>
+      <c r="CR104" t="n" s="10">
+        <v>29.065</v>
+      </c>
+      <c r="CS104" t="n" s="10">
+        <v>29.155</v>
+      </c>
+      <c r="CT104" t="n" s="10">
+        <v>29.215</v>
+      </c>
+      <c r="CU104" t="n" s="10">
+        <v>28.729</v>
+      </c>
+      <c r="CV104" t="n" s="10">
+        <v>28.776</v>
+      </c>
+      <c r="CW104" t="n" s="10">
+        <v>28.959</v>
+      </c>
+      <c r="CX104" t="n" s="10">
+        <v>29.547</v>
+      </c>
+      <c r="CY104" t="n" s="10">
+        <v>29.797</v>
+      </c>
+      <c r="CZ104" t="n" s="10">
+        <v>29.753</v>
+      </c>
+      <c r="DA104" t="n" s="10">
         <v>29.895</v>
       </c>
-      <c r="P104" t="n" s="10">
-        <v>29.872</v>
-      </c>
-      <c r="Q104" t="n" s="10">
-        <v>29.741</v>
-      </c>
-      <c r="R104" t="n" s="10">
-        <v>30.38</v>
-      </c>
-      <c r="S104" t="n" s="10">
-        <v>30.158</v>
-      </c>
-      <c r="T104" t="n" s="10">
-        <v>29.448</v>
-      </c>
-      <c r="U104" t="n" s="10">
-        <v>29.273</v>
-      </c>
-      <c r="V104" t="n" s="10">
-        <v>28.465</v>
-      </c>
-      <c r="W104" t="n" s="10">
-        <v>26.943</v>
-      </c>
-      <c r="X104" t="n" s="10">
-        <v>27.983</v>
-      </c>
-      <c r="Y104" t="n" s="10">
-        <v>27.676</v>
-      </c>
-      <c r="Z104" t="n" s="10">
-        <v>27.296</v>
-      </c>
-      <c r="AA104" t="n" s="10">
-        <v>26.891</v>
-      </c>
-      <c r="AB104" t="n" s="10">
-        <v>26.531</v>
-      </c>
-      <c r="AC104" t="n" s="10">
-        <v>26.346</v>
-      </c>
-      <c r="AD104" t="n" s="10">
-        <v>26.635</v>
-      </c>
-      <c r="AE104" t="n" s="10">
-        <v>26.681</v>
-      </c>
-      <c r="AF104" t="n" s="10">
-        <v>25.555</v>
-      </c>
-      <c r="AG104" t="n" s="10">
-        <v>25.395</v>
-      </c>
-      <c r="AH104" t="n" s="10">
-        <v>24.931</v>
-      </c>
-      <c r="AI104" t="n" s="10">
-        <v>25.106</v>
-      </c>
-      <c r="AJ104" t="n" s="10">
-        <v>25.499</v>
-      </c>
-      <c r="AK104" t="n" s="10">
-        <v>25.716</v>
-      </c>
-      <c r="AL104" t="n" s="10">
-        <v>25.598</v>
-      </c>
-      <c r="AM104" t="n" s="10">
-        <v>25.547</v>
-      </c>
-      <c r="AN104" t="n" s="10">
-        <v>25.206</v>
-      </c>
-      <c r="AO104" t="n" s="10">
-        <v>24.983</v>
-      </c>
-      <c r="AP104" t="n" s="10">
-        <v>25.134</v>
-      </c>
-      <c r="AQ104" t="n" s="10">
-        <v>25.038</v>
-      </c>
-      <c r="AR104" t="n" s="10">
-        <v>25.094</v>
-      </c>
-      <c r="AS104" t="n" s="10">
-        <v>24.759</v>
-      </c>
-      <c r="AT104" t="n" s="10">
-        <v>24.511</v>
-      </c>
-      <c r="AU104" t="n" s="10">
-        <v>24.01</v>
-      </c>
-      <c r="AV104" t="n" s="10">
-        <v>23.295</v>
-      </c>
-      <c r="AW104" t="n" s="10">
-        <v>23.082</v>
-      </c>
-      <c r="AX104" t="n" s="10">
-        <v>22.496</v>
-      </c>
-      <c r="AY104" t="n" s="10">
-        <v>22.48</v>
-      </c>
-      <c r="AZ104" t="n" s="10">
-        <v>22.681</v>
-      </c>
-      <c r="BA104" t="n" s="10">
-        <v>22.421</v>
-      </c>
-      <c r="BB104" t="n" s="10">
-        <v>22.438</v>
-      </c>
-      <c r="BC104" t="n" s="10">
-        <v>22.04</v>
-      </c>
-      <c r="BD104" t="n" s="10">
-        <v>21.519</v>
-      </c>
-      <c r="BE104" t="n" s="10">
-        <v>21.397</v>
-      </c>
-      <c r="BF104" t="n" s="10">
-        <v>21.134</v>
-      </c>
-      <c r="BG104" t="n" s="10">
-        <v>20.565</v>
-      </c>
-      <c r="BH104" t="n" s="10">
-        <v>21.33</v>
-      </c>
-      <c r="BI104" t="n" s="10">
-        <v>21.439</v>
-      </c>
-      <c r="BJ104" t="n" s="10">
-        <v>21.823</v>
-      </c>
-      <c r="BK104" t="n" s="10">
-        <v>19.64</v>
-      </c>
-      <c r="BL104" t="n" s="10">
-        <v>22.803</v>
-      </c>
-      <c r="BM104" t="n" s="10">
-        <v>23.58</v>
-      </c>
-      <c r="BN104" t="n" s="10">
-        <v>24.089</v>
-      </c>
-      <c r="BO104" t="n" s="10">
-        <v>23.981</v>
-      </c>
-      <c r="BP104" t="n" s="10">
-        <v>24.219</v>
-      </c>
-      <c r="BQ104" t="n" s="10">
-        <v>24.197</v>
-      </c>
-      <c r="BR104" t="n" s="10">
-        <v>24.647</v>
-      </c>
-      <c r="BS104" t="n" s="10">
-        <v>25.754</v>
-      </c>
-      <c r="BT104" t="n" s="10">
-        <v>25.737</v>
-      </c>
-      <c r="BU104" t="n" s="10">
-        <v>25.883</v>
-      </c>
-      <c r="BV104" t="n" s="10">
-        <v>25.704</v>
-      </c>
-      <c r="BW104" t="n" s="10">
-        <v>24.091</v>
-      </c>
-      <c r="BX104" t="n" s="10">
-        <v>25.126</v>
-      </c>
-      <c r="BY104" t="n" s="10">
-        <v>25.367</v>
-      </c>
-      <c r="BZ104" t="n" s="10">
-        <v>26.112</v>
-      </c>
-      <c r="CA104" t="n" s="10">
-        <v>23.072</v>
-      </c>
-      <c r="CB104" t="n" s="10">
-        <v>26.709</v>
-      </c>
-      <c r="CC104" t="n" s="10">
-        <v>26.882</v>
-      </c>
-      <c r="CD104" t="n" s="10">
-        <v>26.272</v>
-      </c>
-      <c r="CE104" t="n" s="10">
-        <v>27.281</v>
-      </c>
-      <c r="CF104" t="n" s="10">
-        <v>28.182</v>
-      </c>
-      <c r="CG104" t="n" s="10">
-        <v>28.148</v>
-      </c>
-      <c r="CH104" t="n" s="10">
-        <v>28.76</v>
-      </c>
-      <c r="CI104" t="n" s="10">
-        <v>28.222</v>
-      </c>
-      <c r="CJ104" t="n" s="10">
-        <v>28.122</v>
-      </c>
-      <c r="CK104" t="n" s="10">
-        <v>28.232</v>
-      </c>
-      <c r="CL104" t="n" s="10">
-        <v>28.063</v>
-      </c>
-      <c r="CM104" t="n" s="10">
-        <v>27.432</v>
-      </c>
-      <c r="CN104" t="n" s="10">
-        <v>28.6</v>
-      </c>
-      <c r="CO104" t="n" s="10">
-        <v>28.978</v>
-      </c>
-      <c r="CP104" t="n" s="10">
-        <v>29.02</v>
-      </c>
-      <c r="CQ104" t="n" s="10">
-        <v>29.748</v>
-      </c>
-      <c r="CR104" t="n" s="10">
-        <v>29.114</v>
-      </c>
-      <c r="CS104" t="n" s="10">
-        <v>29.175</v>
-      </c>
-      <c r="CT104" t="n" s="10">
-        <v>29.27</v>
-      </c>
-      <c r="CU104" t="n" s="10">
-        <v>28.723</v>
-      </c>
-      <c r="CV104" t="n" s="10">
-        <v>28.84</v>
-      </c>
-      <c r="CW104" t="n" s="10">
-        <v>28.952</v>
-      </c>
-      <c r="CX104" t="n" s="10">
-        <v>29.468</v>
-      </c>
-      <c r="CY104" t="n" s="10">
-        <v>29.858</v>
-      </c>
-      <c r="CZ104" t="n" s="10">
-        <v>29.619</v>
-      </c>
-      <c r="DA104" t="n" s="10">
-        <v>29.86</v>
-      </c>
       <c r="DB104" t="n" s="10">
-        <v>30.024</v>
+        <v>30.062</v>
       </c>
       <c r="DC104" t="n" s="10">
-        <v>30.802</v>
+        <v>30.911</v>
       </c>
       <c r="DD104" t="n" s="10">
-        <v>31.462</v>
+        <v>31.379</v>
       </c>
       <c r="DE104" t="n" s="10">
-        <v>31.745</v>
+        <v>31.705</v>
       </c>
       <c r="DF104" t="n" s="10">
-        <v>32.257</v>
+        <v>32.168</v>
       </c>
       <c r="DG104" t="n" s="10">
-        <v>32.639</v>
+        <v>32.57</v>
       </c>
       <c r="DH104" t="n" s="10">
-        <v>33.574</v>
+        <v>33.582</v>
       </c>
       <c r="DI104" t="n" s="10">
-        <v>34.392</v>
+        <v>34.339</v>
       </c>
       <c r="DJ104" t="n" s="10">
-        <v>35.072</v>
+        <v>35.058</v>
       </c>
       <c r="DK104" t="n" s="10">
-        <v>34.937</v>
+        <v>34.892</v>
       </c>
       <c r="DL104" t="n" s="10">
-        <v>35.397</v>
+        <v>35.303</v>
       </c>
       <c r="DM104" t="n" s="10">
-        <v>35.989</v>
+        <v>35.895</v>
       </c>
       <c r="DN104" t="n" s="10">
-        <v>35.841</v>
+        <v>35.884</v>
       </c>
       <c r="DO104" t="n" s="10">
-        <v>36.637</v>
+        <v>37.083</v>
       </c>
       <c r="DP104" t="n" s="10">
-        <v>36.24</v>
+        <v>35.969</v>
       </c>
       <c r="DQ104" t="n" s="10">
-        <v>35.954</v>
+        <v>35.281</v>
       </c>
       <c r="DR104" t="n" s="10">
-        <v>36.536</v>
+        <v>37.041</v>
       </c>
       <c r="DS104" t="n" s="10">
-        <v>36.369</v>
+        <v>37.152</v>
       </c>
       <c r="DT104" t="n" s="10">
-        <v>39.057</v>
+        <v>38.787</v>
       </c>
       <c r="DU104" t="n" s="10">
-        <v>40.285</v>
-      </c>
-      <c r="DV104" t="s" s="10">
-        <v>44</v>
+        <v>39.063</v>
+      </c>
+      <c r="DV104" t="n" s="10">
+        <v>41.222</v>
       </c>
     </row>
     <row r="105">
@@ -36979,7 +36979,7 @@
         <v>57</v>
       </c>
       <c r="DV105" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="106">
@@ -37359,7 +37359,7 @@
         <v>57</v>
       </c>
       <c r="DV106" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107">
@@ -37673,73 +37673,73 @@
         <v>27.982</v>
       </c>
       <c r="CZ107" t="n" s="10">
-        <v>28.411</v>
+        <v>28.409</v>
       </c>
       <c r="DA107" t="n" s="10">
-        <v>28.785</v>
+        <v>28.782</v>
       </c>
       <c r="DB107" t="n" s="10">
-        <v>28.987</v>
+        <v>28.996</v>
       </c>
       <c r="DC107" t="n" s="10">
-        <v>29.438</v>
+        <v>29.435</v>
       </c>
       <c r="DD107" t="n" s="10">
-        <v>29.781</v>
+        <v>29.777</v>
       </c>
       <c r="DE107" t="n" s="10">
-        <v>30.238</v>
+        <v>30.232</v>
       </c>
       <c r="DF107" t="n" s="10">
-        <v>31.1</v>
+        <v>31.11</v>
       </c>
       <c r="DG107" t="n" s="10">
-        <v>31.12</v>
+        <v>31.114</v>
       </c>
       <c r="DH107" t="n" s="10">
-        <v>31.765</v>
+        <v>31.776</v>
       </c>
       <c r="DI107" t="n" s="10">
-        <v>32.245</v>
+        <v>32.27</v>
       </c>
       <c r="DJ107" t="n" s="10">
-        <v>32.89</v>
+        <v>32.804</v>
       </c>
       <c r="DK107" t="n" s="10">
-        <v>33.311</v>
+        <v>33.336</v>
       </c>
       <c r="DL107" t="n" s="10">
-        <v>34.122</v>
+        <v>34.182</v>
       </c>
       <c r="DM107" t="n" s="10">
-        <v>34.37</v>
+        <v>34.467</v>
       </c>
       <c r="DN107" t="n" s="10">
-        <v>35.107</v>
+        <v>34.821</v>
       </c>
       <c r="DO107" t="n" s="10">
-        <v>34.689</v>
+        <v>34.786</v>
       </c>
       <c r="DP107" t="n" s="10">
-        <v>34.018</v>
+        <v>34.13</v>
       </c>
       <c r="DQ107" t="n" s="10">
-        <v>34.494</v>
+        <v>34.642</v>
       </c>
       <c r="DR107" t="n" s="10">
-        <v>35.674</v>
+        <v>35.26</v>
       </c>
       <c r="DS107" t="n" s="10">
-        <v>34.395</v>
+        <v>34.587</v>
       </c>
       <c r="DT107" t="n" s="10">
-        <v>35.252</v>
+        <v>35.47</v>
       </c>
       <c r="DU107" t="n" s="10">
-        <v>35.172</v>
-      </c>
-      <c r="DV107" t="s" s="10">
-        <v>44</v>
+        <v>35.416</v>
+      </c>
+      <c r="DV107" t="n" s="10">
+        <v>35.977</v>
       </c>
     </row>
     <row r="108" ht="33.75" customHeight="true">
@@ -37755,13 +37755,13 @@
         <v>43</v>
       </c>
       <c r="C109" t="n" s="10">
-        <v>79.02</v>
+        <v>79.01</v>
       </c>
       <c r="D109" t="n" s="10">
         <v>80.52</v>
       </c>
       <c r="E109" t="n" s="10">
-        <v>81.86</v>
+        <v>81.87</v>
       </c>
       <c r="F109" t="n" s="10">
         <v>83.41</v>
@@ -37776,7 +37776,7 @@
         <v>83.69</v>
       </c>
       <c r="J109" t="n" s="10">
-        <v>83.51</v>
+        <v>83.5</v>
       </c>
       <c r="K109" t="n" s="10">
         <v>80.87</v>
@@ -37803,28 +37803,28 @@
         <v>84.6</v>
       </c>
       <c r="S109" t="n" s="10">
-        <v>84.52</v>
+        <v>84.53</v>
       </c>
       <c r="T109" t="n" s="10">
         <v>83.13</v>
       </c>
       <c r="U109" t="n" s="10">
-        <v>82.92</v>
+        <v>82.91</v>
       </c>
       <c r="V109" t="n" s="10">
         <v>82.31</v>
       </c>
       <c r="W109" t="n" s="10">
-        <v>81.22</v>
+        <v>81.23</v>
       </c>
       <c r="X109" t="n" s="10">
-        <v>83.56</v>
+        <v>83.55</v>
       </c>
       <c r="Y109" t="n" s="10">
         <v>83.86</v>
       </c>
       <c r="Z109" t="n" s="10">
-        <v>83.79</v>
+        <v>83.78</v>
       </c>
       <c r="AA109" t="n" s="10">
         <v>83.27</v>
@@ -37839,7 +37839,7 @@
         <v>84.91</v>
       </c>
       <c r="AE109" t="n" s="10">
-        <v>86.69</v>
+        <v>86.7</v>
       </c>
       <c r="AF109" t="n" s="10">
         <v>85.91</v>
@@ -37848,7 +37848,7 @@
         <v>86.82</v>
       </c>
       <c r="AH109" t="n" s="10">
-        <v>87.23</v>
+        <v>87.22</v>
       </c>
       <c r="AI109" t="n" s="10">
         <v>88.26</v>
@@ -37872,7 +37872,7 @@
         <v>92.62</v>
       </c>
       <c r="AP109" t="n" s="10">
-        <v>92.87</v>
+        <v>92.86</v>
       </c>
       <c r="AQ109" t="n" s="10">
         <v>92.24</v>
@@ -37911,7 +37911,7 @@
         <v>83.18</v>
       </c>
       <c r="BC109" t="n" s="10">
-        <v>82.54</v>
+        <v>82.55</v>
       </c>
       <c r="BD109" t="n" s="10">
         <v>82.41</v>
@@ -37920,10 +37920,10 @@
         <v>82.1</v>
       </c>
       <c r="BF109" t="n" s="10">
-        <v>81.03</v>
+        <v>81.04</v>
       </c>
       <c r="BG109" t="n" s="10">
-        <v>81.37</v>
+        <v>81.38</v>
       </c>
       <c r="BH109" t="n" s="10">
         <v>82.02</v>
@@ -37932,37 +37932,37 @@
         <v>83.63</v>
       </c>
       <c r="BJ109" t="n" s="10">
-        <v>85.47</v>
+        <v>85.46</v>
       </c>
       <c r="BK109" t="n" s="10">
-        <v>84.94</v>
+        <v>84.96</v>
       </c>
       <c r="BL109" t="n" s="10">
-        <v>90.15</v>
+        <v>90.14</v>
       </c>
       <c r="BM109" t="n" s="10">
-        <v>91.21</v>
+        <v>91.2</v>
       </c>
       <c r="BN109" t="n" s="10">
-        <v>92.97</v>
+        <v>92.96</v>
       </c>
       <c r="BO109" t="n" s="10">
         <v>93.14</v>
       </c>
       <c r="BP109" t="n" s="10">
-        <v>92.55</v>
+        <v>92.54</v>
       </c>
       <c r="BQ109" t="n" s="10">
-        <v>92.99</v>
+        <v>92.98</v>
       </c>
       <c r="BR109" t="n" s="10">
         <v>94.26</v>
       </c>
       <c r="BS109" t="n" s="10">
-        <v>95.44</v>
+        <v>95.43</v>
       </c>
       <c r="BT109" t="n" s="10">
-        <v>95.01</v>
+        <v>95.02</v>
       </c>
       <c r="BU109" t="n" s="10">
         <v>93.71</v>
@@ -37971,19 +37971,19 @@
         <v>93.22</v>
       </c>
       <c r="BW109" t="n" s="10">
-        <v>86.46</v>
+        <v>86.44</v>
       </c>
       <c r="BX109" t="n" s="10">
         <v>85.32</v>
       </c>
       <c r="BY109" t="n" s="10">
-        <v>85.03</v>
+        <v>85.04</v>
       </c>
       <c r="BZ109" t="n" s="10">
-        <v>85.42</v>
+        <v>85.43</v>
       </c>
       <c r="CA109" t="n" s="10">
-        <v>86.33</v>
+        <v>86.32</v>
       </c>
       <c r="CB109" t="n" s="10">
         <v>89.81</v>
@@ -37992,7 +37992,7 @@
         <v>90.93</v>
       </c>
       <c r="CD109" t="n" s="10">
-        <v>91.68</v>
+        <v>91.69</v>
       </c>
       <c r="CE109" t="n" s="10">
         <v>95.29</v>
@@ -38013,13 +38013,13 @@
         <v>96.57</v>
       </c>
       <c r="CK109" t="n" s="10">
-        <v>96.31</v>
+        <v>96.3</v>
       </c>
       <c r="CL109" t="n" s="10">
         <v>95.72</v>
       </c>
       <c r="CM109" t="n" s="10">
-        <v>93.53</v>
+        <v>93.52</v>
       </c>
       <c r="CN109" t="n" s="10">
         <v>95.62</v>
@@ -38040,7 +38040,7 @@
         <v>98.56</v>
       </c>
       <c r="CT109" t="n" s="10">
-        <v>98.57</v>
+        <v>98.56</v>
       </c>
       <c r="CU109" t="n" s="10">
         <v>98.25</v>
@@ -38052,13 +38052,13 @@
         <v>100.25</v>
       </c>
       <c r="CX109" t="n" s="10">
-        <v>101.99</v>
+        <v>102.0</v>
       </c>
       <c r="CY109" t="n" s="10">
         <v>103.24</v>
       </c>
       <c r="CZ109" t="n" s="10">
-        <v>103.2</v>
+        <v>103.21</v>
       </c>
       <c r="DA109" t="n" s="10">
         <v>103.8</v>
@@ -38070,7 +38070,7 @@
         <v>104.82</v>
       </c>
       <c r="DD109" t="n" s="10">
-        <v>106.47</v>
+        <v>106.46</v>
       </c>
       <c r="DE109" t="n" s="10">
         <v>107.34</v>
@@ -38082,192 +38082,192 @@
         <v>108.89</v>
       </c>
       <c r="DH109" t="n" s="10">
-        <v>110.06</v>
+        <v>110.04</v>
       </c>
       <c r="DI109" t="n" s="10">
-        <v>110.87</v>
+        <v>110.83</v>
       </c>
       <c r="DJ109" t="n" s="10">
-        <v>111.99</v>
+        <v>112.08</v>
       </c>
       <c r="DK109" t="n" s="10">
-        <v>112.41</v>
+        <v>112.37</v>
       </c>
       <c r="DL109" t="n" s="10">
-        <v>112.83</v>
+        <v>112.77</v>
       </c>
       <c r="DM109" t="n" s="10">
-        <v>113.04</v>
+        <v>113.02</v>
       </c>
       <c r="DN109" t="n" s="10">
-        <v>111.65</v>
+        <v>111.77</v>
       </c>
       <c r="DO109" t="n" s="10">
-        <v>111.42</v>
+        <v>111.41</v>
       </c>
       <c r="DP109" t="n" s="10">
-        <v>104.5</v>
+        <v>104.34</v>
       </c>
       <c r="DQ109" t="n" s="10">
-        <v>109.92</v>
+        <v>110.01</v>
       </c>
       <c r="DR109" t="n" s="10">
-        <v>111.74</v>
+        <v>111.75</v>
       </c>
       <c r="DS109" t="n" s="10">
-        <v>110.96</v>
+        <v>111.09</v>
       </c>
       <c r="DT109" t="n" s="10">
-        <v>112.58</v>
+        <v>112.53</v>
       </c>
       <c r="DU109" t="n" s="10">
-        <v>111.14</v>
-      </c>
-      <c r="DV109" t="s" s="10">
-        <v>44</v>
+        <v>110.37</v>
+      </c>
+      <c r="DV109" t="n" s="10">
+        <v>109.17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B110" t="s" s="13">
         <v>43</v>
       </c>
       <c r="C110" t="n" s="10">
-        <v>69.5</v>
+        <v>69.53</v>
       </c>
       <c r="D110" t="n" s="10">
-        <v>71.21</v>
+        <v>71.2</v>
       </c>
       <c r="E110" t="n" s="10">
-        <v>71.27</v>
+        <v>71.28</v>
       </c>
       <c r="F110" t="n" s="10">
-        <v>72.04</v>
+        <v>72.07</v>
       </c>
       <c r="G110" t="n" s="10">
-        <v>71.36</v>
+        <v>71.35</v>
       </c>
       <c r="H110" t="n" s="10">
-        <v>70.04</v>
+        <v>70.06</v>
       </c>
       <c r="I110" t="n" s="10">
         <v>67.04</v>
       </c>
       <c r="J110" t="n" s="10">
-        <v>64.48</v>
+        <v>64.47</v>
       </c>
       <c r="K110" t="n" s="10">
-        <v>60.74</v>
+        <v>60.75</v>
       </c>
       <c r="L110" t="n" s="10">
-        <v>58.33</v>
+        <v>58.32</v>
       </c>
       <c r="M110" t="n" s="10">
         <v>57.67</v>
       </c>
       <c r="N110" t="n" s="10">
-        <v>55.43</v>
+        <v>55.4</v>
       </c>
       <c r="O110" t="n" s="10">
         <v>56.68</v>
       </c>
       <c r="P110" t="n" s="10">
-        <v>56.84</v>
+        <v>56.83</v>
       </c>
       <c r="Q110" t="n" s="10">
-        <v>57.23</v>
+        <v>57.22</v>
       </c>
       <c r="R110" t="n" s="10">
         <v>58.61</v>
       </c>
       <c r="S110" t="n" s="10">
-        <v>58.32</v>
+        <v>58.31</v>
       </c>
       <c r="T110" t="n" s="10">
-        <v>58.09</v>
+        <v>58.1</v>
       </c>
       <c r="U110" t="n" s="10">
-        <v>58.76</v>
+        <v>58.77</v>
       </c>
       <c r="V110" t="n" s="10">
         <v>59.2</v>
       </c>
       <c r="W110" t="n" s="10">
-        <v>59.29</v>
+        <v>59.28</v>
       </c>
       <c r="X110" t="n" s="10">
-        <v>60.54</v>
+        <v>60.55</v>
       </c>
       <c r="Y110" t="n" s="10">
         <v>60.76</v>
       </c>
       <c r="Z110" t="n" s="10">
-        <v>60.95</v>
+        <v>60.96</v>
       </c>
       <c r="AA110" t="n" s="10">
-        <v>61.6</v>
+        <v>61.64</v>
       </c>
       <c r="AB110" t="n" s="10">
-        <v>62.13</v>
+        <v>62.11</v>
       </c>
       <c r="AC110" t="n" s="10">
         <v>63.12</v>
       </c>
       <c r="AD110" t="n" s="10">
-        <v>64.79</v>
+        <v>64.81</v>
       </c>
       <c r="AE110" t="n" s="10">
         <v>67.17</v>
       </c>
       <c r="AF110" t="n" s="10">
-        <v>68.87</v>
+        <v>68.89</v>
       </c>
       <c r="AG110" t="n" s="10">
         <v>70.65</v>
       </c>
       <c r="AH110" t="n" s="10">
-        <v>72.28</v>
+        <v>72.26</v>
       </c>
       <c r="AI110" t="n" s="10">
         <v>73.31</v>
       </c>
       <c r="AJ110" t="n" s="10">
-        <v>74.22</v>
+        <v>74.21</v>
       </c>
       <c r="AK110" t="n" s="10">
-        <v>75.5</v>
+        <v>75.49</v>
       </c>
       <c r="AL110" t="n" s="10">
-        <v>76.46</v>
+        <v>76.42</v>
       </c>
       <c r="AM110" t="n" s="10">
-        <v>79.09</v>
+        <v>79.06</v>
       </c>
       <c r="AN110" t="n" s="10">
         <v>82.23</v>
       </c>
       <c r="AO110" t="n" s="10">
-        <v>84.73</v>
+        <v>84.74</v>
       </c>
       <c r="AP110" t="n" s="10">
-        <v>85.91</v>
+        <v>85.93</v>
       </c>
       <c r="AQ110" t="n" s="10">
-        <v>85.0</v>
+        <v>84.99</v>
       </c>
       <c r="AR110" t="n" s="10">
-        <v>81.78</v>
+        <v>81.8</v>
       </c>
       <c r="AS110" t="n" s="10">
-        <v>79.03</v>
+        <v>79.04</v>
       </c>
       <c r="AT110" t="n" s="10">
-        <v>77.08</v>
+        <v>77.09</v>
       </c>
       <c r="AU110" t="n" s="10">
-        <v>74.36</v>
+        <v>74.39</v>
       </c>
       <c r="AV110" t="n" s="10">
         <v>74.78</v>
@@ -38276,378 +38276,378 @@
         <v>73.76</v>
       </c>
       <c r="AX110" t="n" s="10">
-        <v>73.25</v>
+        <v>73.26</v>
       </c>
       <c r="AY110" t="n" s="10">
-        <v>74.87</v>
+        <v>74.88</v>
       </c>
       <c r="AZ110" t="n" s="10">
-        <v>72.92</v>
+        <v>72.93</v>
       </c>
       <c r="BA110" t="n" s="10">
         <v>73.17</v>
       </c>
       <c r="BB110" t="n" s="10">
-        <v>73.46</v>
+        <v>73.47</v>
       </c>
       <c r="BC110" t="n" s="10">
-        <v>73.1</v>
+        <v>73.08</v>
       </c>
       <c r="BD110" t="n" s="10">
         <v>75.67</v>
       </c>
       <c r="BE110" t="n" s="10">
-        <v>76.79</v>
+        <v>76.78</v>
       </c>
       <c r="BF110" t="n" s="10">
-        <v>75.78</v>
+        <v>75.74</v>
       </c>
       <c r="BG110" t="n" s="10">
-        <v>78.01</v>
+        <v>78.03</v>
       </c>
       <c r="BH110" t="n" s="10">
-        <v>78.46</v>
+        <v>78.42</v>
       </c>
       <c r="BI110" t="n" s="10">
-        <v>81.72</v>
+        <v>81.71</v>
       </c>
       <c r="BJ110" t="n" s="10">
-        <v>85.62</v>
+        <v>85.61</v>
       </c>
       <c r="BK110" t="n" s="10">
-        <v>87.17</v>
+        <v>87.15</v>
       </c>
       <c r="BL110" t="n" s="10">
-        <v>91.44</v>
+        <v>91.45</v>
       </c>
       <c r="BM110" t="n" s="10">
-        <v>91.89</v>
+        <v>91.9</v>
       </c>
       <c r="BN110" t="n" s="10">
-        <v>94.39</v>
+        <v>94.4</v>
       </c>
       <c r="BO110" t="n" s="10">
-        <v>96.92</v>
+        <v>96.91</v>
       </c>
       <c r="BP110" t="n" s="10">
-        <v>97.16</v>
+        <v>97.18</v>
       </c>
       <c r="BQ110" t="n" s="10">
-        <v>98.38</v>
+        <v>98.39</v>
       </c>
       <c r="BR110" t="n" s="10">
-        <v>101.7</v>
+        <v>101.72</v>
       </c>
       <c r="BS110" t="n" s="10">
-        <v>101.17</v>
+        <v>101.18</v>
       </c>
       <c r="BT110" t="n" s="10">
-        <v>102.53</v>
+        <v>102.5</v>
       </c>
       <c r="BU110" t="n" s="10">
-        <v>100.56</v>
+        <v>100.55</v>
       </c>
       <c r="BV110" t="n" s="10">
-        <v>99.62</v>
+        <v>99.65</v>
       </c>
       <c r="BW110" t="n" s="10">
-        <v>83.59</v>
+        <v>83.56</v>
       </c>
       <c r="BX110" t="n" s="10">
-        <v>80.49</v>
+        <v>80.51</v>
       </c>
       <c r="BY110" t="n" s="10">
         <v>78.69</v>
       </c>
       <c r="BZ110" t="n" s="10">
-        <v>77.93</v>
+        <v>77.92</v>
       </c>
       <c r="CA110" t="n" s="10">
-        <v>83.55</v>
+        <v>83.54</v>
       </c>
       <c r="CB110" t="n" s="10">
-        <v>87.88</v>
+        <v>87.87</v>
       </c>
       <c r="CC110" t="n" s="10">
-        <v>89.84</v>
+        <v>89.83</v>
       </c>
       <c r="CD110" t="n" s="10">
-        <v>93.22</v>
+        <v>93.19</v>
       </c>
       <c r="CE110" t="n" s="10">
-        <v>93.56</v>
+        <v>93.55</v>
       </c>
       <c r="CF110" t="n" s="10">
-        <v>94.18</v>
+        <v>94.16</v>
       </c>
       <c r="CG110" t="n" s="10">
-        <v>96.85</v>
+        <v>96.84</v>
       </c>
       <c r="CH110" t="n" s="10">
         <v>96.05</v>
       </c>
       <c r="CI110" t="n" s="10">
-        <v>96.44</v>
+        <v>96.41</v>
       </c>
       <c r="CJ110" t="n" s="10">
-        <v>94.43</v>
+        <v>94.44</v>
       </c>
       <c r="CK110" t="n" s="10">
-        <v>92.71</v>
+        <v>92.73</v>
       </c>
       <c r="CL110" t="n" s="10">
-        <v>91.68</v>
+        <v>91.69</v>
       </c>
       <c r="CM110" t="n" s="10">
-        <v>89.59</v>
+        <v>89.62</v>
       </c>
       <c r="CN110" t="n" s="10">
-        <v>91.55</v>
+        <v>91.54</v>
       </c>
       <c r="CO110" t="n" s="10">
         <v>91.5</v>
       </c>
       <c r="CP110" t="n" s="10">
-        <v>94.24</v>
+        <v>94.25</v>
       </c>
       <c r="CQ110" t="n" s="10">
         <v>95.85</v>
       </c>
       <c r="CR110" t="n" s="10">
-        <v>95.95</v>
+        <v>95.97</v>
       </c>
       <c r="CS110" t="n" s="10">
-        <v>96.72</v>
+        <v>96.73</v>
       </c>
       <c r="CT110" t="n" s="10">
-        <v>95.73</v>
+        <v>95.75</v>
       </c>
       <c r="CU110" t="n" s="10">
         <v>97.29</v>
       </c>
       <c r="CV110" t="n" s="10">
-        <v>98.52</v>
+        <v>98.53</v>
       </c>
       <c r="CW110" t="n" s="10">
         <v>100.38</v>
       </c>
       <c r="CX110" t="n" s="10">
-        <v>103.28</v>
+        <v>103.26</v>
       </c>
       <c r="CY110" t="n" s="10">
-        <v>102.64</v>
+        <v>102.66</v>
       </c>
       <c r="CZ110" t="n" s="10">
-        <v>102.71</v>
+        <v>102.67</v>
       </c>
       <c r="DA110" t="n" s="10">
-        <v>103.16</v>
+        <v>103.15</v>
       </c>
       <c r="DB110" t="n" s="10">
-        <v>102.87</v>
+        <v>102.86</v>
       </c>
       <c r="DC110" t="n" s="10">
-        <v>104.97</v>
+        <v>104.94</v>
       </c>
       <c r="DD110" t="n" s="10">
-        <v>106.93</v>
+        <v>106.95</v>
       </c>
       <c r="DE110" t="n" s="10">
-        <v>108.58</v>
+        <v>108.6</v>
       </c>
       <c r="DF110" t="n" s="10">
-        <v>110.13</v>
+        <v>110.18</v>
       </c>
       <c r="DG110" t="n" s="10">
-        <v>111.2</v>
+        <v>111.22</v>
       </c>
       <c r="DH110" t="n" s="10">
-        <v>111.98</v>
+        <v>111.92</v>
       </c>
       <c r="DI110" t="n" s="10">
-        <v>112.14</v>
+        <v>112.06</v>
       </c>
       <c r="DJ110" t="n" s="10">
-        <v>113.41</v>
+        <v>113.72</v>
       </c>
       <c r="DK110" t="n" s="10">
-        <v>115.1</v>
+        <v>115.04</v>
       </c>
       <c r="DL110" t="n" s="10">
-        <v>114.65</v>
+        <v>114.46</v>
       </c>
       <c r="DM110" t="n" s="10">
-        <v>113.56</v>
+        <v>113.4</v>
       </c>
       <c r="DN110" t="n" s="10">
-        <v>109.77</v>
+        <v>110.36</v>
       </c>
       <c r="DO110" t="n" s="10">
-        <v>104.96</v>
+        <v>104.77</v>
       </c>
       <c r="DP110" t="n" s="10">
-        <v>87.86</v>
+        <v>87.58</v>
       </c>
       <c r="DQ110" t="n" s="10">
-        <v>103.54</v>
+        <v>103.51</v>
       </c>
       <c r="DR110" t="n" s="10">
-        <v>104.48</v>
+        <v>104.93</v>
       </c>
       <c r="DS110" t="n" s="10">
-        <v>106.15</v>
+        <v>105.96</v>
       </c>
       <c r="DT110" t="n" s="10">
-        <v>105.09</v>
+        <v>104.94</v>
       </c>
       <c r="DU110" t="n" s="10">
-        <v>102.34</v>
-      </c>
-      <c r="DV110" t="s" s="10">
-        <v>44</v>
+        <v>102.11</v>
+      </c>
+      <c r="DV110" t="n" s="10">
+        <v>100.96</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s" s="13">
         <v>43</v>
       </c>
       <c r="C111" t="n" s="10">
-        <v>68.01</v>
+        <v>68.05</v>
       </c>
       <c r="D111" t="n" s="10">
-        <v>67.95</v>
+        <v>67.93</v>
       </c>
       <c r="E111" t="n" s="10">
-        <v>68.67</v>
+        <v>68.69</v>
       </c>
       <c r="F111" t="n" s="10">
-        <v>70.54</v>
+        <v>70.58</v>
       </c>
       <c r="G111" t="n" s="10">
-        <v>69.18</v>
+        <v>69.16</v>
       </c>
       <c r="H111" t="n" s="10">
-        <v>68.85</v>
+        <v>68.88</v>
       </c>
       <c r="I111" t="n" s="10">
-        <v>66.89</v>
+        <v>66.9</v>
       </c>
       <c r="J111" t="n" s="10">
-        <v>64.93</v>
+        <v>64.92</v>
       </c>
       <c r="K111" t="n" s="10">
-        <v>62.16</v>
+        <v>62.17</v>
       </c>
       <c r="L111" t="n" s="10">
-        <v>60.66</v>
+        <v>60.65</v>
       </c>
       <c r="M111" t="n" s="10">
         <v>59.15</v>
       </c>
       <c r="N111" t="n" s="10">
-        <v>56.42</v>
+        <v>56.37</v>
       </c>
       <c r="O111" t="n" s="10">
         <v>57.82</v>
       </c>
       <c r="P111" t="n" s="10">
-        <v>57.27</v>
+        <v>57.26</v>
       </c>
       <c r="Q111" t="n" s="10">
-        <v>57.52</v>
+        <v>57.51</v>
       </c>
       <c r="R111" t="n" s="10">
-        <v>58.89</v>
+        <v>58.9</v>
       </c>
       <c r="S111" t="n" s="10">
-        <v>58.52</v>
+        <v>58.51</v>
       </c>
       <c r="T111" t="n" s="10">
-        <v>57.87</v>
+        <v>57.88</v>
       </c>
       <c r="U111" t="n" s="10">
-        <v>58.74</v>
+        <v>58.76</v>
       </c>
       <c r="V111" t="n" s="10">
         <v>59.14</v>
       </c>
       <c r="W111" t="n" s="10">
-        <v>58.48</v>
+        <v>58.47</v>
       </c>
       <c r="X111" t="n" s="10">
-        <v>60.61</v>
+        <v>60.63</v>
       </c>
       <c r="Y111" t="n" s="10">
         <v>60.65</v>
       </c>
       <c r="Z111" t="n" s="10">
-        <v>60.78</v>
+        <v>60.8</v>
       </c>
       <c r="AA111" t="n" s="10">
-        <v>60.96</v>
+        <v>61.03</v>
       </c>
       <c r="AB111" t="n" s="10">
-        <v>59.97</v>
+        <v>59.94</v>
       </c>
       <c r="AC111" t="n" s="10">
         <v>61.35</v>
       </c>
       <c r="AD111" t="n" s="10">
-        <v>62.94</v>
+        <v>62.98</v>
       </c>
       <c r="AE111" t="n" s="10">
         <v>66.15</v>
       </c>
       <c r="AF111" t="n" s="10">
-        <v>68.24</v>
+        <v>68.27</v>
       </c>
       <c r="AG111" t="n" s="10">
         <v>68.96</v>
       </c>
       <c r="AH111" t="n" s="10">
-        <v>69.71</v>
+        <v>69.68</v>
       </c>
       <c r="AI111" t="n" s="10">
         <v>71.34</v>
       </c>
       <c r="AJ111" t="n" s="10">
-        <v>72.78</v>
+        <v>72.76</v>
       </c>
       <c r="AK111" t="n" s="10">
-        <v>74.71</v>
+        <v>74.69</v>
       </c>
       <c r="AL111" t="n" s="10">
-        <v>76.3</v>
+        <v>76.24</v>
       </c>
       <c r="AM111" t="n" s="10">
-        <v>77.46</v>
+        <v>77.42</v>
       </c>
       <c r="AN111" t="n" s="10">
-        <v>79.78</v>
+        <v>79.79</v>
       </c>
       <c r="AO111" t="n" s="10">
-        <v>82.57</v>
+        <v>82.59</v>
       </c>
       <c r="AP111" t="n" s="10">
-        <v>84.24</v>
+        <v>84.28</v>
       </c>
       <c r="AQ111" t="n" s="10">
-        <v>83.97</v>
+        <v>83.96</v>
       </c>
       <c r="AR111" t="n" s="10">
-        <v>83.45</v>
+        <v>83.48</v>
       </c>
       <c r="AS111" t="n" s="10">
-        <v>80.49</v>
+        <v>80.51</v>
       </c>
       <c r="AT111" t="n" s="10">
-        <v>78.62</v>
+        <v>78.65</v>
       </c>
       <c r="AU111" t="n" s="10">
-        <v>76.71</v>
+        <v>76.77</v>
       </c>
       <c r="AV111" t="n" s="10">
         <v>74.51</v>
@@ -38656,235 +38656,235 @@
         <v>74.58</v>
       </c>
       <c r="AX111" t="n" s="10">
-        <v>73.42</v>
+        <v>73.44</v>
       </c>
       <c r="AY111" t="n" s="10">
+        <v>73.46</v>
+      </c>
+      <c r="AZ111" t="n" s="10">
         <v>73.45</v>
-      </c>
-      <c r="AZ111" t="n" s="10">
-        <v>73.43</v>
       </c>
       <c r="BA111" t="n" s="10">
         <v>71.67</v>
       </c>
       <c r="BB111" t="n" s="10">
-        <v>73.17</v>
+        <v>73.19</v>
       </c>
       <c r="BC111" t="n" s="10">
-        <v>73.27</v>
+        <v>73.23</v>
       </c>
       <c r="BD111" t="n" s="10">
         <v>71.73</v>
       </c>
       <c r="BE111" t="n" s="10">
-        <v>73.89</v>
+        <v>73.87</v>
       </c>
       <c r="BF111" t="n" s="10">
-        <v>71.67</v>
+        <v>71.6</v>
       </c>
       <c r="BG111" t="n" s="10">
-        <v>73.46</v>
+        <v>73.5</v>
       </c>
       <c r="BH111" t="n" s="10">
-        <v>77.2</v>
+        <v>77.13</v>
       </c>
       <c r="BI111" t="n" s="10">
-        <v>80.1</v>
+        <v>80.07</v>
       </c>
       <c r="BJ111" t="n" s="10">
-        <v>82.03</v>
+        <v>82.01</v>
       </c>
       <c r="BK111" t="n" s="10">
-        <v>85.14</v>
+        <v>85.1</v>
       </c>
       <c r="BL111" t="n" s="10">
-        <v>87.11</v>
+        <v>87.14</v>
       </c>
       <c r="BM111" t="n" s="10">
-        <v>87.56</v>
+        <v>87.58</v>
       </c>
       <c r="BN111" t="n" s="10">
-        <v>92.12</v>
+        <v>92.14</v>
       </c>
       <c r="BO111" t="n" s="10">
-        <v>93.41</v>
+        <v>93.39</v>
       </c>
       <c r="BP111" t="n" s="10">
-        <v>95.96</v>
+        <v>95.99</v>
       </c>
       <c r="BQ111" t="n" s="10">
-        <v>99.46</v>
+        <v>99.48</v>
       </c>
       <c r="BR111" t="n" s="10">
-        <v>103.21</v>
+        <v>103.24</v>
       </c>
       <c r="BS111" t="n" s="10">
-        <v>102.12</v>
+        <v>102.14</v>
       </c>
       <c r="BT111" t="n" s="10">
-        <v>104.48</v>
+        <v>104.43</v>
       </c>
       <c r="BU111" t="n" s="10">
-        <v>102.04</v>
+        <v>102.03</v>
       </c>
       <c r="BV111" t="n" s="10">
-        <v>104.31</v>
+        <v>104.36</v>
       </c>
       <c r="BW111" t="n" s="10">
-        <v>88.96</v>
+        <v>88.92</v>
       </c>
       <c r="BX111" t="n" s="10">
-        <v>84.72</v>
+        <v>84.76</v>
       </c>
       <c r="BY111" t="n" s="10">
-        <v>80.13</v>
+        <v>80.12</v>
       </c>
       <c r="BZ111" t="n" s="10">
-        <v>79.37</v>
+        <v>79.35</v>
       </c>
       <c r="CA111" t="n" s="10">
-        <v>81.39</v>
+        <v>81.38</v>
       </c>
       <c r="CB111" t="n" s="10">
-        <v>85.82</v>
+        <v>85.81</v>
       </c>
       <c r="CC111" t="n" s="10">
-        <v>90.02</v>
+        <v>90.0</v>
       </c>
       <c r="CD111" t="n" s="10">
-        <v>91.26</v>
+        <v>91.21</v>
       </c>
       <c r="CE111" t="n" s="10">
-        <v>92.46</v>
+        <v>92.44</v>
       </c>
       <c r="CF111" t="n" s="10">
-        <v>94.82</v>
+        <v>94.79</v>
       </c>
       <c r="CG111" t="n" s="10">
-        <v>96.43</v>
+        <v>96.41</v>
       </c>
       <c r="CH111" t="n" s="10">
         <v>96.39</v>
       </c>
       <c r="CI111" t="n" s="10">
-        <v>97.51</v>
+        <v>97.45</v>
       </c>
       <c r="CJ111" t="n" s="10">
-        <v>94.48</v>
+        <v>94.5</v>
       </c>
       <c r="CK111" t="n" s="10">
-        <v>93.39</v>
+        <v>93.43</v>
       </c>
       <c r="CL111" t="n" s="10">
-        <v>93.54</v>
+        <v>93.56</v>
       </c>
       <c r="CM111" t="n" s="10">
-        <v>90.22</v>
+        <v>90.28</v>
       </c>
       <c r="CN111" t="n" s="10">
-        <v>92.61</v>
+        <v>92.6</v>
       </c>
       <c r="CO111" t="n" s="10">
         <v>91.41</v>
       </c>
       <c r="CP111" t="n" s="10">
-        <v>92.45</v>
+        <v>92.47</v>
       </c>
       <c r="CQ111" t="n" s="10">
         <v>95.19</v>
       </c>
       <c r="CR111" t="n" s="10">
-        <v>94.66</v>
+        <v>94.7</v>
       </c>
       <c r="CS111" t="n" s="10">
-        <v>97.7</v>
+        <v>97.72</v>
       </c>
       <c r="CT111" t="n" s="10">
-        <v>97.63</v>
+        <v>97.67</v>
       </c>
       <c r="CU111" t="n" s="10">
         <v>97.79</v>
       </c>
       <c r="CV111" t="n" s="10">
-        <v>99.95</v>
+        <v>99.98</v>
       </c>
       <c r="CW111" t="n" s="10">
         <v>99.79</v>
       </c>
       <c r="CX111" t="n" s="10">
-        <v>102.02</v>
+        <v>101.97</v>
       </c>
       <c r="CY111" t="n" s="10">
-        <v>102.89</v>
+        <v>102.93</v>
       </c>
       <c r="CZ111" t="n" s="10">
-        <v>102.35</v>
+        <v>102.28</v>
       </c>
       <c r="DA111" t="n" s="10">
-        <v>102.73</v>
+        <v>102.71</v>
       </c>
       <c r="DB111" t="n" s="10">
-        <v>101.77</v>
+        <v>101.75</v>
       </c>
       <c r="DC111" t="n" s="10">
-        <v>103.07</v>
+        <v>103.02</v>
       </c>
       <c r="DD111" t="n" s="10">
-        <v>105.15</v>
+        <v>105.19</v>
       </c>
       <c r="DE111" t="n" s="10">
-        <v>106.35</v>
+        <v>106.39</v>
       </c>
       <c r="DF111" t="n" s="10">
-        <v>108.12</v>
+        <v>108.2</v>
       </c>
       <c r="DG111" t="n" s="10">
-        <v>109.78</v>
+        <v>109.82</v>
       </c>
       <c r="DH111" t="n" s="10">
-        <v>108.85</v>
+        <v>108.78</v>
       </c>
       <c r="DI111" t="n" s="10">
-        <v>112.07</v>
+        <v>111.97</v>
       </c>
       <c r="DJ111" t="n" s="10">
-        <v>113.64</v>
+        <v>114.07</v>
       </c>
       <c r="DK111" t="n" s="10">
-        <v>109.87</v>
+        <v>109.76</v>
       </c>
       <c r="DL111" t="n" s="10">
-        <v>110.72</v>
+        <v>110.55</v>
       </c>
       <c r="DM111" t="n" s="10">
-        <v>107.0</v>
+        <v>106.7</v>
       </c>
       <c r="DN111" t="n" s="10">
-        <v>104.51</v>
+        <v>105.3</v>
       </c>
       <c r="DO111" t="n" s="10">
-        <v>103.93</v>
+        <v>103.68</v>
       </c>
       <c r="DP111" t="n" s="10">
-        <v>94.97</v>
+        <v>94.69</v>
       </c>
       <c r="DQ111" t="n" s="10">
-        <v>99.66</v>
+        <v>99.31</v>
       </c>
       <c r="DR111" t="n" s="10">
-        <v>99.19</v>
+        <v>100.06</v>
       </c>
       <c r="DS111" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT111" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU111" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV111" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112">
@@ -38895,271 +38895,271 @@
         <v>43</v>
       </c>
       <c r="C112" t="n" s="10">
-        <v>74.58</v>
+        <v>74.54</v>
       </c>
       <c r="D112" t="n" s="10">
         <v>83.05</v>
       </c>
       <c r="E112" t="n" s="10">
-        <v>80.56</v>
+        <v>80.55</v>
       </c>
       <c r="F112" t="n" s="10">
-        <v>77.14</v>
+        <v>77.11</v>
       </c>
       <c r="G112" t="n" s="10">
-        <v>79.06</v>
+        <v>79.07</v>
       </c>
       <c r="H112" t="n" s="10">
-        <v>73.95</v>
+        <v>73.93</v>
       </c>
       <c r="I112" t="n" s="10">
         <v>66.98</v>
       </c>
       <c r="J112" t="n" s="10">
-        <v>62.15</v>
+        <v>62.16</v>
       </c>
       <c r="K112" t="n" s="10">
-        <v>54.98</v>
+        <v>54.97</v>
       </c>
       <c r="L112" t="n" s="10">
-        <v>49.18</v>
+        <v>49.19</v>
       </c>
       <c r="M112" t="n" s="10">
-        <v>51.7</v>
+        <v>51.71</v>
       </c>
       <c r="N112" t="n" s="10">
-        <v>51.3</v>
+        <v>51.33</v>
       </c>
       <c r="O112" t="n" s="10">
-        <v>51.93</v>
+        <v>51.94</v>
       </c>
       <c r="P112" t="n" s="10">
-        <v>54.66</v>
+        <v>54.67</v>
       </c>
       <c r="Q112" t="n" s="10">
-        <v>55.55</v>
+        <v>55.57</v>
       </c>
       <c r="R112" t="n" s="10">
-        <v>56.96</v>
+        <v>56.95</v>
       </c>
       <c r="S112" t="n" s="10">
-        <v>56.96</v>
+        <v>56.98</v>
       </c>
       <c r="T112" t="n" s="10">
-        <v>58.29</v>
+        <v>58.28</v>
       </c>
       <c r="U112" t="n" s="10">
-        <v>58.23</v>
+        <v>58.21</v>
       </c>
       <c r="V112" t="n" s="10">
-        <v>58.8</v>
+        <v>58.79</v>
       </c>
       <c r="W112" t="n" s="10">
         <v>61.58</v>
       </c>
       <c r="X112" t="n" s="10">
-        <v>59.67</v>
+        <v>59.65</v>
       </c>
       <c r="Y112" t="n" s="10">
         <v>60.53</v>
       </c>
       <c r="Z112" t="n" s="10">
-        <v>60.92</v>
+        <v>60.91</v>
       </c>
       <c r="AA112" t="n" s="10">
-        <v>63.2</v>
+        <v>63.15</v>
       </c>
       <c r="AB112" t="n" s="10">
-        <v>69.08</v>
+        <v>69.1</v>
       </c>
       <c r="AC112" t="n" s="10">
         <v>68.68</v>
       </c>
       <c r="AD112" t="n" s="10">
-        <v>70.61</v>
+        <v>70.59</v>
       </c>
       <c r="AE112" t="n" s="10">
         <v>70.09</v>
       </c>
       <c r="AF112" t="n" s="10">
-        <v>70.41</v>
+        <v>70.39</v>
       </c>
       <c r="AG112" t="n" s="10">
-        <v>75.85</v>
+        <v>75.86</v>
       </c>
       <c r="AH112" t="n" s="10">
-        <v>80.56</v>
+        <v>80.58</v>
       </c>
       <c r="AI112" t="n" s="10">
         <v>79.46</v>
       </c>
       <c r="AJ112" t="n" s="10">
-        <v>78.54</v>
+        <v>78.56</v>
       </c>
       <c r="AK112" t="n" s="10">
-        <v>77.57</v>
+        <v>77.59</v>
       </c>
       <c r="AL112" t="n" s="10">
-        <v>76.35</v>
+        <v>76.39</v>
       </c>
       <c r="AM112" t="n" s="10">
-        <v>83.96</v>
+        <v>83.99</v>
       </c>
       <c r="AN112" t="n" s="10">
-        <v>89.84</v>
+        <v>89.83</v>
       </c>
       <c r="AO112" t="n" s="10">
-        <v>91.35</v>
+        <v>91.34</v>
       </c>
       <c r="AP112" t="n" s="10">
-        <v>90.86</v>
+        <v>90.84</v>
       </c>
       <c r="AQ112" t="n" s="10">
-        <v>87.84</v>
+        <v>87.85</v>
       </c>
       <c r="AR112" t="n" s="10">
-        <v>75.65</v>
+        <v>75.64</v>
       </c>
       <c r="AS112" t="n" s="10">
-        <v>73.63</v>
+        <v>73.61</v>
       </c>
       <c r="AT112" t="n" s="10">
-        <v>71.4</v>
+        <v>71.38</v>
       </c>
       <c r="AU112" t="n" s="10">
-        <v>66.17</v>
+        <v>66.13</v>
       </c>
       <c r="AV112" t="n" s="10">
-        <v>75.04</v>
+        <v>75.05</v>
       </c>
       <c r="AW112" t="n" s="10">
         <v>70.52</v>
       </c>
       <c r="AX112" t="n" s="10">
-        <v>72.11</v>
+        <v>72.1</v>
       </c>
       <c r="AY112" t="n" s="10">
         <v>78.66</v>
       </c>
       <c r="AZ112" t="n" s="10">
-        <v>70.66</v>
+        <v>70.64</v>
       </c>
       <c r="BA112" t="n" s="10">
         <v>77.23</v>
       </c>
       <c r="BB112" t="n" s="10">
-        <v>73.72</v>
+        <v>73.7</v>
       </c>
       <c r="BC112" t="n" s="10">
-        <v>72.03</v>
+        <v>72.06</v>
       </c>
       <c r="BD112" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="BE112" t="n" s="10">
-        <v>84.91</v>
+        <v>84.92</v>
       </c>
       <c r="BF112" t="n" s="10">
-        <v>87.53</v>
+        <v>87.58</v>
       </c>
       <c r="BG112" t="n" s="10">
-        <v>90.94</v>
+        <v>90.92</v>
       </c>
       <c r="BH112" t="n" s="10">
-        <v>81.73</v>
+        <v>81.78</v>
       </c>
       <c r="BI112" t="n" s="10">
-        <v>86.05</v>
+        <v>86.07</v>
       </c>
       <c r="BJ112" t="n" s="10">
-        <v>95.71</v>
+        <v>95.72</v>
       </c>
       <c r="BK112" t="n" s="10">
-        <v>92.71</v>
+        <v>92.74</v>
       </c>
       <c r="BL112" t="n" s="10">
-        <v>103.58</v>
+        <v>103.55</v>
       </c>
       <c r="BM112" t="n" s="10">
-        <v>104.02</v>
+        <v>104.01</v>
       </c>
       <c r="BN112" t="n" s="10">
-        <v>100.59</v>
+        <v>100.58</v>
       </c>
       <c r="BO112" t="n" s="10">
-        <v>106.68</v>
+        <v>106.69</v>
       </c>
       <c r="BP112" t="n" s="10">
-        <v>100.5</v>
+        <v>100.48</v>
       </c>
       <c r="BQ112" t="n" s="10">
-        <v>95.37</v>
+        <v>95.35</v>
       </c>
       <c r="BR112" t="n" s="10">
-        <v>97.48</v>
+        <v>97.47</v>
       </c>
       <c r="BS112" t="n" s="10">
-        <v>98.75</v>
+        <v>98.73</v>
       </c>
       <c r="BT112" t="n" s="10">
-        <v>97.48</v>
+        <v>97.52</v>
       </c>
       <c r="BU112" t="n" s="10">
-        <v>96.74</v>
+        <v>96.75</v>
       </c>
       <c r="BV112" t="n" s="10">
-        <v>87.38</v>
+        <v>87.37</v>
       </c>
       <c r="BW112" t="n" s="10">
         <v>69.8</v>
       </c>
       <c r="BX112" t="n" s="10">
-        <v>69.61</v>
+        <v>69.58</v>
       </c>
       <c r="BY112" t="n" s="10">
-        <v>74.95</v>
+        <v>74.96</v>
       </c>
       <c r="BZ112" t="n" s="10">
-        <v>74.19</v>
+        <v>74.21</v>
       </c>
       <c r="CA112" t="n" s="10">
         <v>89.04</v>
       </c>
       <c r="CB112" t="n" s="10">
-        <v>93.11</v>
+        <v>93.13</v>
       </c>
       <c r="CC112" t="n" s="10">
-        <v>89.34</v>
+        <v>89.35</v>
       </c>
       <c r="CD112" t="n" s="10">
-        <v>98.2</v>
+        <v>98.24</v>
       </c>
       <c r="CE112" t="n" s="10">
-        <v>96.35</v>
+        <v>96.37</v>
       </c>
       <c r="CF112" t="n" s="10">
-        <v>92.54</v>
+        <v>92.56</v>
       </c>
       <c r="CG112" t="n" s="10">
-        <v>97.91</v>
+        <v>97.92</v>
       </c>
       <c r="CH112" t="n" s="10">
         <v>95.18</v>
       </c>
       <c r="CI112" t="n" s="10">
-        <v>93.73</v>
+        <v>93.77</v>
       </c>
       <c r="CJ112" t="n" s="10">
-        <v>94.31</v>
+        <v>94.29</v>
       </c>
       <c r="CK112" t="n" s="10">
-        <v>90.98</v>
+        <v>90.96</v>
       </c>
       <c r="CL112" t="n" s="10">
-        <v>86.96</v>
+        <v>86.94</v>
       </c>
       <c r="CM112" t="n" s="10">
-        <v>87.98</v>
+        <v>87.94</v>
       </c>
       <c r="CN112" t="n" s="10">
         <v>88.85</v>
@@ -39168,103 +39168,103 @@
         <v>91.72</v>
       </c>
       <c r="CP112" t="n" s="10">
-        <v>98.79</v>
+        <v>98.77</v>
       </c>
       <c r="CQ112" t="n" s="10">
-        <v>97.53</v>
+        <v>97.52</v>
       </c>
       <c r="CR112" t="n" s="10">
-        <v>99.23</v>
+        <v>99.21</v>
       </c>
       <c r="CS112" t="n" s="10">
-        <v>94.22</v>
+        <v>94.21</v>
       </c>
       <c r="CT112" t="n" s="10">
-        <v>90.89</v>
+        <v>90.87</v>
       </c>
       <c r="CU112" t="n" s="10">
         <v>96.01</v>
       </c>
       <c r="CV112" t="n" s="10">
-        <v>94.88</v>
+        <v>94.86</v>
       </c>
       <c r="CW112" t="n" s="10">
-        <v>101.87</v>
+        <v>101.88</v>
       </c>
       <c r="CX112" t="n" s="10">
-        <v>106.49</v>
+        <v>106.52</v>
       </c>
       <c r="CY112" t="n" s="10">
-        <v>102.0</v>
+        <v>101.98</v>
       </c>
       <c r="CZ112" t="n" s="10">
-        <v>103.62</v>
+        <v>103.66</v>
       </c>
       <c r="DA112" t="n" s="10">
-        <v>104.26</v>
+        <v>104.27</v>
       </c>
       <c r="DB112" t="n" s="10">
-        <v>105.68</v>
+        <v>105.7</v>
       </c>
       <c r="DC112" t="n" s="10">
-        <v>109.83</v>
+        <v>109.87</v>
       </c>
       <c r="DD112" t="n" s="10">
-        <v>111.48</v>
+        <v>111.45</v>
       </c>
       <c r="DE112" t="n" s="10">
-        <v>114.28</v>
+        <v>114.27</v>
       </c>
       <c r="DF112" t="n" s="10">
-        <v>115.27</v>
+        <v>115.24</v>
       </c>
       <c r="DG112" t="n" s="10">
-        <v>114.83</v>
+        <v>114.81</v>
       </c>
       <c r="DH112" t="n" s="10">
-        <v>119.98</v>
+        <v>119.96</v>
       </c>
       <c r="DI112" t="n" s="10">
-        <v>112.33</v>
+        <v>112.31</v>
       </c>
       <c r="DJ112" t="n" s="10">
-        <v>112.81</v>
+        <v>112.84</v>
       </c>
       <c r="DK112" t="n" s="10">
-        <v>128.29</v>
+        <v>128.35</v>
       </c>
       <c r="DL112" t="n" s="10">
-        <v>124.56</v>
+        <v>124.33</v>
       </c>
       <c r="DM112" t="n" s="10">
-        <v>130.09</v>
+        <v>130.26</v>
       </c>
       <c r="DN112" t="n" s="10">
-        <v>123.02</v>
+        <v>123.11</v>
       </c>
       <c r="DO112" t="n" s="10">
-        <v>107.77</v>
+        <v>107.72</v>
       </c>
       <c r="DP112" t="n" s="10">
-        <v>70.53</v>
+        <v>70.25</v>
       </c>
       <c r="DQ112" t="n" s="10">
-        <v>113.38</v>
+        <v>114.12</v>
       </c>
       <c r="DR112" t="n" s="10">
-        <v>117.78</v>
+        <v>117.19</v>
       </c>
       <c r="DS112" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DT112" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DU112" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DV112" t="s" s="10">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113">
@@ -39275,139 +39275,139 @@
         <v>43</v>
       </c>
       <c r="C113" t="n" s="10">
-        <v>97.24</v>
+        <v>97.19</v>
       </c>
       <c r="D113" t="n" s="10">
-        <v>99.04</v>
+        <v>99.05</v>
       </c>
       <c r="E113" t="n" s="10">
         <v>101.95</v>
       </c>
       <c r="F113" t="n" s="10">
-        <v>104.21</v>
+        <v>104.18</v>
       </c>
       <c r="G113" t="n" s="10">
-        <v>108.67</v>
+        <v>108.68</v>
       </c>
       <c r="H113" t="n" s="10">
-        <v>109.69</v>
+        <v>109.67</v>
       </c>
       <c r="I113" t="n" s="10">
         <v>109.8</v>
       </c>
       <c r="J113" t="n" s="10">
-        <v>112.71</v>
+        <v>112.72</v>
       </c>
       <c r="K113" t="n" s="10">
-        <v>110.42</v>
+        <v>110.41</v>
       </c>
       <c r="L113" t="n" s="10">
-        <v>111.7</v>
+        <v>111.71</v>
       </c>
       <c r="M113" t="n" s="10">
-        <v>113.84</v>
+        <v>113.85</v>
       </c>
       <c r="N113" t="n" s="10">
-        <v>112.0</v>
+        <v>112.02</v>
       </c>
       <c r="O113" t="n" s="10">
-        <v>118.63</v>
+        <v>118.64</v>
       </c>
       <c r="P113" t="n" s="10">
-        <v>119.48</v>
+        <v>119.49</v>
       </c>
       <c r="Q113" t="n" s="10">
-        <v>119.57</v>
+        <v>119.58</v>
       </c>
       <c r="R113" t="n" s="10">
-        <v>121.9</v>
+        <v>121.89</v>
       </c>
       <c r="S113" t="n" s="10">
-        <v>121.77</v>
+        <v>121.8</v>
       </c>
       <c r="T113" t="n" s="10">
-        <v>118.53</v>
+        <v>118.51</v>
       </c>
       <c r="U113" t="n" s="10">
-        <v>117.05</v>
+        <v>117.02</v>
       </c>
       <c r="V113" t="n" s="10">
-        <v>114.97</v>
+        <v>114.96</v>
       </c>
       <c r="W113" t="n" s="10">
-        <v>112.12</v>
+        <v>112.14</v>
       </c>
       <c r="X113" t="n" s="10">
-        <v>116.28</v>
+        <v>116.26</v>
       </c>
       <c r="Y113" t="n" s="10">
         <v>116.69</v>
       </c>
       <c r="Z113" t="n" s="10">
-        <v>116.15</v>
+        <v>116.13</v>
       </c>
       <c r="AA113" t="n" s="10">
-        <v>114.4</v>
+        <v>114.36</v>
       </c>
       <c r="AB113" t="n" s="10">
-        <v>114.1</v>
+        <v>114.12</v>
       </c>
       <c r="AC113" t="n" s="10">
         <v>113.58</v>
       </c>
       <c r="AD113" t="n" s="10">
-        <v>114.62</v>
+        <v>114.6</v>
       </c>
       <c r="AE113" t="n" s="10">
-        <v>115.81</v>
+        <v>115.82</v>
       </c>
       <c r="AF113" t="n" s="10">
-        <v>111.71</v>
+        <v>111.69</v>
       </c>
       <c r="AG113" t="n" s="10">
-        <v>111.63</v>
+        <v>111.64</v>
       </c>
       <c r="AH113" t="n" s="10">
-        <v>110.58</v>
+        <v>110.59</v>
       </c>
       <c r="AI113" t="n" s="10">
-        <v>111.27</v>
+        <v>111.26</v>
       </c>
       <c r="AJ113" t="n" s="10">
-        <v>113.29</v>
+        <v>113.31</v>
       </c>
       <c r="AK113" t="n" s="10">
-        <v>114.19</v>
+        <v>114.21</v>
       </c>
       <c r="AL113" t="n" s="10">
-        <v>113.35</v>
+        <v>113.39</v>
       </c>
       <c r="AM113" t="n" s="10">
-        <v>112.66</v>
+        <v>112.69</v>
       </c>
       <c r="AN113" t="n" s="10">
-        <v>110.89</v>
+        <v>110.88</v>
       </c>
       <c r="AO113" t="n" s="10">
-        <v>109.13</v>
+        <v>109.12</v>
       </c>
       <c r="AP113" t="n" s="10">
-        <v>108.31</v>
+        <v>108.28</v>
       </c>
       <c r="AQ113" t="n" s="10">
         <v>107.01</v>
       </c>
       <c r="AR113" t="n" s="10">
-        <v>106.68</v>
+        <v>106.66</v>
       </c>
       <c r="AS113" t="n" s="10">
-        <v>105.36</v>
+        <v>105.34</v>
       </c>
       <c r="AT113" t="n" s="10">
-        <v>104.49</v>
+        <v>104.47</v>
       </c>
       <c r="AU113" t="n" s="10">
-        <v>102.69</v>
+        <v>102.66</v>
       </c>
       <c r="AV113" t="n" s="10">
         <v>99.77</v>
@@ -39416,235 +39416,235 @@
         <v>98.76</v>
       </c>
       <c r="AX113" t="n" s="10">
-        <v>96.97</v>
+        <v>96.96</v>
       </c>
       <c r="AY113" t="n" s="10">
         <v>96.62</v>
       </c>
       <c r="AZ113" t="n" s="10">
-        <v>97.59</v>
+        <v>97.57</v>
       </c>
       <c r="BA113" t="n" s="10">
         <v>97.23</v>
       </c>
       <c r="BB113" t="n" s="10">
-        <v>97.06</v>
+        <v>97.04</v>
       </c>
       <c r="BC113" t="n" s="10">
-        <v>95.48</v>
+        <v>95.51</v>
       </c>
       <c r="BD113" t="n" s="10">
         <v>92.77</v>
       </c>
       <c r="BE113" t="n" s="10">
-        <v>90.87</v>
+        <v>90.88</v>
       </c>
       <c r="BF113" t="n" s="10">
-        <v>89.14</v>
+        <v>89.19</v>
       </c>
       <c r="BG113" t="n" s="10">
-        <v>88.07</v>
+        <v>88.06</v>
       </c>
       <c r="BH113" t="n" s="10">
-        <v>88.96</v>
+        <v>89.0</v>
       </c>
       <c r="BI113" t="n" s="10">
-        <v>89.56</v>
+        <v>89.57</v>
       </c>
       <c r="BJ113" t="n" s="10">
-        <v>90.2</v>
+        <v>90.19</v>
       </c>
       <c r="BK113" t="n" s="10">
-        <v>86.86</v>
+        <v>86.93</v>
       </c>
       <c r="BL113" t="n" s="10">
-        <v>94.9</v>
+        <v>94.87</v>
       </c>
       <c r="BM113" t="n" s="10">
-        <v>96.73</v>
+        <v>96.71</v>
       </c>
       <c r="BN113" t="n" s="10">
-        <v>98.13</v>
+        <v>98.12</v>
       </c>
       <c r="BO113" t="n" s="10">
-        <v>96.01</v>
+        <v>96.03</v>
       </c>
       <c r="BP113" t="n" s="10">
-        <v>94.08</v>
+        <v>94.05</v>
       </c>
       <c r="BQ113" t="n" s="10">
-        <v>93.57</v>
+        <v>93.55</v>
       </c>
       <c r="BR113" t="n" s="10">
-        <v>93.25</v>
+        <v>93.24</v>
       </c>
       <c r="BS113" t="n" s="10">
-        <v>95.75</v>
+        <v>95.72</v>
       </c>
       <c r="BT113" t="n" s="10">
-        <v>93.17</v>
+        <v>93.21</v>
       </c>
       <c r="BU113" t="n" s="10">
         <v>91.73</v>
       </c>
       <c r="BV113" t="n" s="10">
-        <v>91.14</v>
+        <v>91.12</v>
       </c>
       <c r="BW113" t="n" s="10">
         <v>89.31</v>
       </c>
       <c r="BX113" t="n" s="10">
-        <v>89.07</v>
+        <v>89.04</v>
       </c>
       <c r="BY113" t="n" s="10">
-        <v>89.6</v>
+        <v>89.61</v>
       </c>
       <c r="BZ113" t="n" s="10">
-        <v>91.05</v>
+        <v>91.07</v>
       </c>
       <c r="CA113" t="n" s="10">
         <v>89.02</v>
       </c>
       <c r="CB113" t="n" s="10">
-        <v>93.2</v>
+        <v>93.21</v>
       </c>
       <c r="CC113" t="n" s="10">
-        <v>93.88</v>
+        <v>93.9</v>
       </c>
       <c r="CD113" t="n" s="10">
-        <v>92.5</v>
+        <v>92.54</v>
       </c>
       <c r="CE113" t="n" s="10">
-        <v>98.97</v>
+        <v>98.98</v>
       </c>
       <c r="CF113" t="n" s="10">
-        <v>98.56</v>
+        <v>98.58</v>
       </c>
       <c r="CG113" t="n" s="10">
-        <v>99.09</v>
+        <v>99.11</v>
       </c>
       <c r="CH113" t="n" s="10">
         <v>101.72</v>
       </c>
       <c r="CI113" t="n" s="10">
-        <v>100.77</v>
+        <v>100.8</v>
       </c>
       <c r="CJ113" t="n" s="10">
-        <v>100.55</v>
+        <v>100.54</v>
       </c>
       <c r="CK113" t="n" s="10">
-        <v>101.04</v>
+        <v>101.02</v>
       </c>
       <c r="CL113" t="n" s="10">
-        <v>100.32</v>
+        <v>100.31</v>
       </c>
       <c r="CM113" t="n" s="10">
-        <v>97.46</v>
+        <v>97.42</v>
       </c>
       <c r="CN113" t="n" s="10">
-        <v>100.25</v>
+        <v>100.26</v>
       </c>
       <c r="CO113" t="n" s="10">
         <v>101.2</v>
       </c>
       <c r="CP113" t="n" s="10">
-        <v>101.15</v>
+        <v>101.14</v>
       </c>
       <c r="CQ113" t="n" s="10">
         <v>104.03</v>
       </c>
       <c r="CR113" t="n" s="10">
-        <v>101.42</v>
+        <v>101.4</v>
       </c>
       <c r="CS113" t="n" s="10">
         <v>101.21</v>
       </c>
       <c r="CT113" t="n" s="10">
-        <v>101.45</v>
+        <v>101.43</v>
       </c>
       <c r="CU113" t="n" s="10">
         <v>99.08</v>
       </c>
       <c r="CV113" t="n" s="10">
-        <v>99.75</v>
+        <v>99.73</v>
       </c>
       <c r="CW113" t="n" s="10">
         <v>100.02</v>
       </c>
       <c r="CX113" t="n" s="10">
-        <v>101.05</v>
+        <v>101.07</v>
       </c>
       <c r="CY113" t="n" s="10">
-        <v>103.53</v>
+        <v>103.51</v>
       </c>
       <c r="CZ113" t="n" s="10">
-        <v>102.96</v>
+        <v>103.01</v>
       </c>
       <c r="DA113" t="n" s="10">
-        <v>103.53</v>
+        <v>103.54</v>
       </c>
       <c r="DB113" t="n" s="10">
-        <v>103.87</v>
+        <v>103.88</v>
       </c>
       <c r="DC113" t="n" s="10">
-        <v>103.77</v>
+        <v>103.81</v>
       </c>
       <c r="DD113" t="n" s="10">
-        <v>105.48</v>
+        <v>105.45</v>
       </c>
       <c r="DE113" t="n" s="10">
-        <v>105.69</v>
+        <v>105.68</v>
       </c>
       <c r="DF113" t="n" s="10">
-        <v>106.17</v>
+        <v>106.14</v>
       </c>
       <c r="DG113" t="n" s="10">
-        <v>106.49</v>
+        <v>106.47</v>
       </c>
       <c r="DH113" t="n" s="10">
         <v>107.7</v>
       </c>
       <c r="DI113" t="n" s="10">
-        <v>108.78</v>
+        <v>108.76</v>
       </c>
       <c r="DJ113" t="n" s="10">
-        <v>109.6</v>
+        <v>109.59</v>
       </c>
       <c r="DK113" t="n" s="10">
-        <v>108.84</v>
+        <v>108.81</v>
       </c>
       <c r="DL113" t="n" s="10">
-        <v>109.1</v>
+        <v>109.07</v>
       </c>
       <c r="DM113" t="n" s="10">
         <v>109.99</v>
       </c>
       <c r="DN113" t="n" s="10">
-        <v>109.29</v>
+        <v>109.34</v>
       </c>
       <c r="DO113" t="n" s="10">
-        <v>111.89</v>
+        <v>111.91</v>
       </c>
       <c r="DP113" t="n" s="10">
-        <v>109.96</v>
+        <v>109.73</v>
       </c>
       <c r="DQ113" t="n" s="10">
-        <v>110.2</v>
+        <v>110.25</v>
       </c>
       <c r="DR113" t="n" s="10">
-        <v>112.34</v>
+        <v>112.48</v>
       </c>
       <c r="DS113" t="n" s="10">
-        <v>110.99</v>
+        <v>111.16</v>
       </c>
       <c r="DT113" t="n" s="10">
-        <v>113.94</v>
+        <v>113.69</v>
       </c>
       <c r="DU113" t="n" s="10">
-        <v>113.04</v>
-      </c>
-      <c r="DV113" t="s" s="10">
-        <v>44</v>
+        <v>111.45</v>
+      </c>
+      <c r="DV113" t="n" s="10">
+        <v>109.66</v>
       </c>
     </row>
     <row r="114">
@@ -39655,7 +39655,7 @@
         <v>43</v>
       </c>
       <c r="C114" t="n" s="10">
-        <v>82.2</v>
+        <v>82.15</v>
       </c>
       <c r="D114" t="n" s="10">
         <v>82.78</v>
@@ -39664,130 +39664,130 @@
         <v>84.67</v>
       </c>
       <c r="F114" t="n" s="10">
-        <v>86.21</v>
+        <v>86.18</v>
       </c>
       <c r="G114" t="n" s="10">
-        <v>89.75</v>
+        <v>89.76</v>
       </c>
       <c r="H114" t="n" s="10">
-        <v>91.22</v>
+        <v>91.2</v>
       </c>
       <c r="I114" t="n" s="10">
         <v>91.29</v>
       </c>
       <c r="J114" t="n" s="10">
-        <v>94.31</v>
+        <v>94.33</v>
       </c>
       <c r="K114" t="n" s="10">
-        <v>93.23</v>
+        <v>93.22</v>
       </c>
       <c r="L114" t="n" s="10">
-        <v>94.15</v>
+        <v>94.16</v>
       </c>
       <c r="M114" t="n" s="10">
-        <v>97.51</v>
+        <v>97.52</v>
       </c>
       <c r="N114" t="n" s="10">
-        <v>97.46</v>
+        <v>97.5</v>
       </c>
       <c r="O114" t="n" s="10">
-        <v>103.74</v>
+        <v>103.75</v>
       </c>
       <c r="P114" t="n" s="10">
-        <v>106.3</v>
+        <v>106.32</v>
       </c>
       <c r="Q114" t="n" s="10">
-        <v>107.37</v>
+        <v>107.38</v>
       </c>
       <c r="R114" t="n" s="10">
-        <v>109.88</v>
+        <v>109.87</v>
       </c>
       <c r="S114" t="n" s="10">
-        <v>109.36</v>
+        <v>109.38</v>
       </c>
       <c r="T114" t="n" s="10">
-        <v>108.18</v>
+        <v>108.17</v>
       </c>
       <c r="U114" t="n" s="10">
-        <v>106.34</v>
+        <v>106.32</v>
       </c>
       <c r="V114" t="n" s="10">
-        <v>105.12</v>
+        <v>105.11</v>
       </c>
       <c r="W114" t="n" s="10">
         <v>103.66</v>
       </c>
       <c r="X114" t="n" s="10">
-        <v>107.88</v>
+        <v>107.86</v>
       </c>
       <c r="Y114" t="n" s="10">
         <v>109.19</v>
       </c>
       <c r="Z114" t="n" s="10">
-        <v>109.31</v>
+        <v>109.29</v>
       </c>
       <c r="AA114" t="n" s="10">
-        <v>108.09</v>
+        <v>108.04</v>
       </c>
       <c r="AB114" t="n" s="10">
-        <v>108.3</v>
+        <v>108.33</v>
       </c>
       <c r="AC114" t="n" s="10">
-        <v>108.03</v>
+        <v>108.02</v>
       </c>
       <c r="AD114" t="n" s="10">
-        <v>108.86</v>
+        <v>108.83</v>
       </c>
       <c r="AE114" t="n" s="10">
-        <v>110.54</v>
+        <v>110.55</v>
       </c>
       <c r="AF114" t="n" s="10">
-        <v>107.4</v>
+        <v>107.38</v>
       </c>
       <c r="AG114" t="n" s="10">
-        <v>107.55</v>
+        <v>107.56</v>
       </c>
       <c r="AH114" t="n" s="10">
-        <v>106.97</v>
+        <v>106.99</v>
       </c>
       <c r="AI114" t="n" s="10">
         <v>107.31</v>
       </c>
       <c r="AJ114" t="n" s="10">
-        <v>109.12</v>
+        <v>109.14</v>
       </c>
       <c r="AK114" t="n" s="10">
-        <v>110.06</v>
+        <v>110.08</v>
       </c>
       <c r="AL114" t="n" s="10">
-        <v>109.17</v>
+        <v>109.22</v>
       </c>
       <c r="AM114" t="n" s="10">
-        <v>108.62</v>
+        <v>108.66</v>
       </c>
       <c r="AN114" t="n" s="10">
         <v>107.13</v>
       </c>
       <c r="AO114" t="n" s="10">
-        <v>105.05</v>
+        <v>105.04</v>
       </c>
       <c r="AP114" t="n" s="10">
-        <v>103.43</v>
+        <v>103.4</v>
       </c>
       <c r="AQ114" t="n" s="10">
-        <v>101.42</v>
+        <v>101.43</v>
       </c>
       <c r="AR114" t="n" s="10">
-        <v>100.77</v>
+        <v>100.75</v>
       </c>
       <c r="AS114" t="n" s="10">
-        <v>99.55</v>
+        <v>99.53</v>
       </c>
       <c r="AT114" t="n" s="10">
-        <v>98.67</v>
+        <v>98.65</v>
       </c>
       <c r="AU114" t="n" s="10">
-        <v>97.15</v>
+        <v>97.11</v>
       </c>
       <c r="AV114" t="n" s="10">
         <v>94.27</v>
@@ -39796,235 +39796,235 @@
         <v>93.25</v>
       </c>
       <c r="AX114" t="n" s="10">
-        <v>92.13</v>
+        <v>92.12</v>
       </c>
       <c r="AY114" t="n" s="10">
-        <v>91.68</v>
+        <v>91.67</v>
       </c>
       <c r="AZ114" t="n" s="10">
-        <v>92.61</v>
+        <v>92.58</v>
       </c>
       <c r="BA114" t="n" s="10">
         <v>92.71</v>
       </c>
       <c r="BB114" t="n" s="10">
-        <v>92.59</v>
+        <v>92.57</v>
       </c>
       <c r="BC114" t="n" s="10">
-        <v>91.33</v>
+        <v>91.36</v>
       </c>
       <c r="BD114" t="n" s="10">
-        <v>89.05</v>
+        <v>89.06</v>
       </c>
       <c r="BE114" t="n" s="10">
-        <v>86.8</v>
+        <v>86.81</v>
       </c>
       <c r="BF114" t="n" s="10">
-        <v>84.97</v>
+        <v>85.02</v>
       </c>
       <c r="BG114" t="n" s="10">
         <v>84.0</v>
       </c>
       <c r="BH114" t="n" s="10">
-        <v>84.22</v>
+        <v>84.27</v>
       </c>
       <c r="BI114" t="n" s="10">
-        <v>85.08</v>
+        <v>85.09</v>
       </c>
       <c r="BJ114" t="n" s="10">
-        <v>85.5</v>
+        <v>85.49</v>
       </c>
       <c r="BK114" t="n" s="10">
-        <v>84.17</v>
+        <v>84.25</v>
       </c>
       <c r="BL114" t="n" s="10">
-        <v>91.09</v>
+        <v>91.05</v>
       </c>
       <c r="BM114" t="n" s="10">
-        <v>92.59</v>
+        <v>92.57</v>
       </c>
       <c r="BN114" t="n" s="10">
-        <v>94.23</v>
+        <v>94.21</v>
       </c>
       <c r="BO114" t="n" s="10">
-        <v>91.34</v>
+        <v>91.36</v>
       </c>
       <c r="BP114" t="n" s="10">
-        <v>89.42</v>
+        <v>89.38</v>
       </c>
       <c r="BQ114" t="n" s="10">
-        <v>88.87</v>
+        <v>88.84</v>
       </c>
       <c r="BR114" t="n" s="10">
-        <v>87.57</v>
+        <v>87.55</v>
       </c>
       <c r="BS114" t="n" s="10">
-        <v>88.95</v>
+        <v>88.92</v>
       </c>
       <c r="BT114" t="n" s="10">
-        <v>85.91</v>
+        <v>85.96</v>
       </c>
       <c r="BU114" t="n" s="10">
-        <v>84.46</v>
+        <v>84.47</v>
       </c>
       <c r="BV114" t="n" s="10">
-        <v>84.45</v>
+        <v>84.43</v>
       </c>
       <c r="BW114" t="n" s="10">
         <v>82.86</v>
       </c>
       <c r="BX114" t="n" s="10">
-        <v>82.62</v>
+        <v>82.59</v>
       </c>
       <c r="BY114" t="n" s="10">
-        <v>83.17</v>
+        <v>83.18</v>
       </c>
       <c r="BZ114" t="n" s="10">
-        <v>84.56</v>
+        <v>84.58</v>
       </c>
       <c r="CA114" t="n" s="10">
         <v>83.59</v>
       </c>
       <c r="CB114" t="n" s="10">
-        <v>87.08</v>
+        <v>87.09</v>
       </c>
       <c r="CC114" t="n" s="10">
-        <v>87.76</v>
+        <v>87.78</v>
       </c>
       <c r="CD114" t="n" s="10">
-        <v>87.12</v>
+        <v>87.16</v>
       </c>
       <c r="CE114" t="n" s="10">
-        <v>93.15</v>
+        <v>93.17</v>
       </c>
       <c r="CF114" t="n" s="10">
-        <v>93.8</v>
+        <v>93.82</v>
       </c>
       <c r="CG114" t="n" s="10">
-        <v>94.93</v>
+        <v>94.95</v>
       </c>
       <c r="CH114" t="n" s="10">
         <v>97.85</v>
       </c>
       <c r="CI114" t="n" s="10">
-        <v>98.08</v>
+        <v>98.12</v>
       </c>
       <c r="CJ114" t="n" s="10">
-        <v>98.51</v>
+        <v>98.5</v>
       </c>
       <c r="CK114" t="n" s="10">
-        <v>99.23</v>
+        <v>99.2</v>
       </c>
       <c r="CL114" t="n" s="10">
-        <v>98.75</v>
+        <v>98.73</v>
       </c>
       <c r="CM114" t="n" s="10">
-        <v>95.85</v>
+        <v>95.81</v>
       </c>
       <c r="CN114" t="n" s="10">
-        <v>98.26</v>
+        <v>98.27</v>
       </c>
       <c r="CO114" t="n" s="10">
         <v>99.61</v>
       </c>
       <c r="CP114" t="n" s="10">
-        <v>99.81</v>
+        <v>99.79</v>
       </c>
       <c r="CQ114" t="n" s="10">
-        <v>103.12</v>
+        <v>103.11</v>
       </c>
       <c r="CR114" t="n" s="10">
-        <v>100.63</v>
+        <v>100.61</v>
       </c>
       <c r="CS114" t="n" s="10">
-        <v>100.4</v>
+        <v>100.39</v>
       </c>
       <c r="CT114" t="n" s="10">
-        <v>100.75</v>
+        <v>100.72</v>
       </c>
       <c r="CU114" t="n" s="10">
         <v>98.72</v>
       </c>
       <c r="CV114" t="n" s="10">
-        <v>99.69</v>
+        <v>99.66</v>
       </c>
       <c r="CW114" t="n" s="10">
         <v>100.13</v>
       </c>
       <c r="CX114" t="n" s="10">
-        <v>101.04</v>
+        <v>101.07</v>
       </c>
       <c r="CY114" t="n" s="10">
-        <v>103.91</v>
+        <v>103.89</v>
       </c>
       <c r="CZ114" t="n" s="10">
-        <v>104.1</v>
+        <v>104.16</v>
       </c>
       <c r="DA114" t="n" s="10">
-        <v>104.76</v>
+        <v>104.77</v>
       </c>
       <c r="DB114" t="n" s="10">
-        <v>105.49</v>
+        <v>105.5</v>
       </c>
       <c r="DC114" t="n" s="10">
-        <v>104.72</v>
+        <v>104.77</v>
       </c>
       <c r="DD114" t="n" s="10">
-        <v>106.46</v>
+        <v>106.42</v>
       </c>
       <c r="DE114" t="n" s="10">
-        <v>106.83</v>
+        <v>106.81</v>
       </c>
       <c r="DF114" t="n" s="10">
-        <v>107.3</v>
+        <v>107.26</v>
       </c>
       <c r="DG114" t="n" s="10">
-        <v>108.03</v>
+        <v>108.0</v>
       </c>
       <c r="DH114" t="n" s="10">
         <v>109.21</v>
       </c>
       <c r="DI114" t="n" s="10">
-        <v>110.3</v>
+        <v>110.28</v>
       </c>
       <c r="DJ114" t="n" s="10">
-        <v>111.14</v>
+        <v>111.13</v>
       </c>
       <c r="DK114" t="n" s="10">
-        <v>110.58</v>
+        <v>110.55</v>
       </c>
       <c r="DL114" t="n" s="10">
-        <v>110.89</v>
+        <v>110.85</v>
       </c>
       <c r="DM114" t="n" s="10">
-        <v>112.09</v>
+        <v>112.1</v>
       </c>
       <c r="DN114" t="n" s="10">
-        <v>111.42</v>
+        <v>111.48</v>
       </c>
       <c r="DO114" t="n" s="10">
-        <v>114.55</v>
+        <v>114.56</v>
       </c>
       <c r="DP114" t="n" s="10">
-        <v>112.87</v>
+        <v>112.61</v>
       </c>
       <c r="DQ114" t="n" s="10">
-        <v>113.16</v>
+        <v>113.24</v>
       </c>
       <c r="DR114" t="n" s="10">
-        <v>115.97</v>
+        <v>116.12</v>
       </c>
       <c r="DS114" t="n" s="10">
-        <v>114.26</v>
+        <v>114.45</v>
       </c>
       <c r="DT114" t="n" s="10">
-        <v>117.87</v>
+        <v>117.5</v>
       </c>
       <c r="DU114" t="n" s="10">
-        <v>117.79</v>
-      </c>
-      <c r="DV114" t="s" s="10">
-        <v>44</v>
+        <v>115.53</v>
+      </c>
+      <c r="DV114" t="n" s="10">
+        <v>113.59</v>
       </c>
     </row>
     <row r="115">
@@ -40035,79 +40035,79 @@
         <v>43</v>
       </c>
       <c r="C115" t="n" s="10">
-        <v>120.11</v>
+        <v>120.05</v>
       </c>
       <c r="D115" t="n" s="10">
-        <v>123.74</v>
+        <v>123.75</v>
       </c>
       <c r="E115" t="n" s="10">
-        <v>128.19</v>
+        <v>128.18</v>
       </c>
       <c r="F115" t="n" s="10">
-        <v>131.53</v>
+        <v>131.49</v>
       </c>
       <c r="G115" t="n" s="10">
-        <v>137.39</v>
+        <v>137.38</v>
       </c>
       <c r="H115" t="n" s="10">
-        <v>137.74</v>
+        <v>137.7</v>
       </c>
       <c r="I115" t="n" s="10">
-        <v>137.91</v>
+        <v>137.89</v>
       </c>
       <c r="J115" t="n" s="10">
-        <v>140.67</v>
+        <v>140.65</v>
       </c>
       <c r="K115" t="n" s="10">
-        <v>136.55</v>
+        <v>136.53</v>
       </c>
       <c r="L115" t="n" s="10">
-        <v>138.38</v>
+        <v>138.37</v>
       </c>
       <c r="M115" t="n" s="10">
         <v>138.69</v>
       </c>
       <c r="N115" t="n" s="10">
-        <v>134.16</v>
+        <v>134.14</v>
       </c>
       <c r="O115" t="n" s="10">
         <v>141.29</v>
       </c>
       <c r="P115" t="n" s="10">
-        <v>139.54</v>
+        <v>139.53</v>
       </c>
       <c r="Q115" t="n" s="10">
-        <v>138.14</v>
+        <v>138.15</v>
       </c>
       <c r="R115" t="n" s="10">
-        <v>140.2</v>
+        <v>140.18</v>
       </c>
       <c r="S115" t="n" s="10">
-        <v>140.66</v>
+        <v>140.7</v>
       </c>
       <c r="T115" t="n" s="10">
-        <v>134.28</v>
+        <v>134.24</v>
       </c>
       <c r="U115" t="n" s="10">
-        <v>133.35</v>
+        <v>133.3</v>
       </c>
       <c r="V115" t="n" s="10">
-        <v>129.96</v>
+        <v>129.94</v>
       </c>
       <c r="W115" t="n" s="10">
-        <v>124.97</v>
+        <v>125.01</v>
       </c>
       <c r="X115" t="n" s="10">
-        <v>129.03</v>
+        <v>129.0</v>
       </c>
       <c r="Y115" t="n" s="10">
-        <v>128.06</v>
+        <v>128.05</v>
       </c>
       <c r="Z115" t="n" s="10">
-        <v>126.5</v>
+        <v>126.48</v>
       </c>
       <c r="AA115" t="n" s="10">
-        <v>123.92</v>
+        <v>123.89</v>
       </c>
       <c r="AB115" t="n" s="10">
         <v>122.83</v>
@@ -40116,178 +40116,178 @@
         <v>121.93</v>
       </c>
       <c r="AD115" t="n" s="10">
-        <v>123.29</v>
+        <v>123.28</v>
       </c>
       <c r="AE115" t="n" s="10">
         <v>123.72</v>
       </c>
       <c r="AF115" t="n" s="10">
-        <v>118.14</v>
+        <v>118.11</v>
       </c>
       <c r="AG115" t="n" s="10">
         <v>117.7</v>
       </c>
       <c r="AH115" t="n" s="10">
-        <v>115.93</v>
+        <v>115.91</v>
       </c>
       <c r="AI115" t="n" s="10">
-        <v>117.16</v>
+        <v>117.12</v>
       </c>
       <c r="AJ115" t="n" s="10">
-        <v>119.5</v>
+        <v>119.51</v>
       </c>
       <c r="AK115" t="n" s="10">
         <v>120.34</v>
       </c>
       <c r="AL115" t="n" s="10">
-        <v>119.57</v>
+        <v>119.59</v>
       </c>
       <c r="AM115" t="n" s="10">
         <v>118.67</v>
       </c>
       <c r="AN115" t="n" s="10">
-        <v>116.47</v>
+        <v>116.43</v>
       </c>
       <c r="AO115" t="n" s="10">
-        <v>115.21</v>
+        <v>115.19</v>
       </c>
       <c r="AP115" t="n" s="10">
-        <v>115.63</v>
+        <v>115.59</v>
       </c>
       <c r="AQ115" t="n" s="10">
-        <v>115.42</v>
+        <v>115.39</v>
       </c>
       <c r="AR115" t="n" s="10">
-        <v>115.58</v>
+        <v>115.55</v>
       </c>
       <c r="AS115" t="n" s="10">
-        <v>114.11</v>
+        <v>114.08</v>
       </c>
       <c r="AT115" t="n" s="10">
-        <v>113.25</v>
+        <v>113.22</v>
       </c>
       <c r="AU115" t="n" s="10">
-        <v>111.03</v>
+        <v>111.0</v>
       </c>
       <c r="AV115" t="n" s="10">
-        <v>108.05</v>
+        <v>108.04</v>
       </c>
       <c r="AW115" t="n" s="10">
-        <v>107.06</v>
+        <v>107.05</v>
       </c>
       <c r="AX115" t="n" s="10">
-        <v>104.24</v>
+        <v>104.22</v>
       </c>
       <c r="AY115" t="n" s="10">
         <v>104.05</v>
       </c>
       <c r="AZ115" t="n" s="10">
-        <v>105.08</v>
+        <v>105.06</v>
       </c>
       <c r="BA115" t="n" s="10">
-        <v>104.01</v>
+        <v>104.0</v>
       </c>
       <c r="BB115" t="n" s="10">
-        <v>103.76</v>
+        <v>103.73</v>
       </c>
       <c r="BC115" t="n" s="10">
-        <v>101.69</v>
+        <v>101.71</v>
       </c>
       <c r="BD115" t="n" s="10">
-        <v>98.33</v>
+        <v>98.3</v>
       </c>
       <c r="BE115" t="n" s="10">
         <v>96.97</v>
       </c>
       <c r="BF115" t="n" s="10">
-        <v>95.4</v>
+        <v>95.44</v>
       </c>
       <c r="BG115" t="n" s="10">
-        <v>94.17</v>
+        <v>94.14</v>
       </c>
       <c r="BH115" t="n" s="10">
-        <v>96.09</v>
+        <v>96.1</v>
       </c>
       <c r="BI115" t="n" s="10">
         <v>96.29</v>
       </c>
       <c r="BJ115" t="n" s="10">
-        <v>97.26</v>
+        <v>97.24</v>
       </c>
       <c r="BK115" t="n" s="10">
-        <v>90.85</v>
+        <v>90.9</v>
       </c>
       <c r="BL115" t="n" s="10">
-        <v>100.6</v>
+        <v>100.57</v>
       </c>
       <c r="BM115" t="n" s="10">
-        <v>102.93</v>
+        <v>102.9</v>
       </c>
       <c r="BN115" t="n" s="10">
-        <v>103.96</v>
+        <v>103.95</v>
       </c>
       <c r="BO115" t="n" s="10">
-        <v>103.02</v>
+        <v>103.03</v>
       </c>
       <c r="BP115" t="n" s="10">
-        <v>101.08</v>
+        <v>101.05</v>
       </c>
       <c r="BQ115" t="n" s="10">
-        <v>100.63</v>
+        <v>100.61</v>
       </c>
       <c r="BR115" t="n" s="10">
         <v>101.8</v>
       </c>
       <c r="BS115" t="n" s="10">
-        <v>106.01</v>
+        <v>105.97</v>
       </c>
       <c r="BT115" t="n" s="10">
-        <v>104.14</v>
+        <v>104.15</v>
       </c>
       <c r="BU115" t="n" s="10">
-        <v>102.71</v>
+        <v>102.69</v>
       </c>
       <c r="BV115" t="n" s="10">
-        <v>101.24</v>
+        <v>101.21</v>
       </c>
       <c r="BW115" t="n" s="10">
-        <v>99.05</v>
+        <v>99.04</v>
       </c>
       <c r="BX115" t="n" s="10">
-        <v>98.81</v>
+        <v>98.77</v>
       </c>
       <c r="BY115" t="n" s="10">
         <v>99.31</v>
       </c>
       <c r="BZ115" t="n" s="10">
-        <v>100.85</v>
+        <v>100.86</v>
       </c>
       <c r="CA115" t="n" s="10">
-        <v>97.22</v>
+        <v>97.21</v>
       </c>
       <c r="CB115" t="n" s="10">
         <v>102.44</v>
       </c>
       <c r="CC115" t="n" s="10">
-        <v>103.12</v>
+        <v>103.13</v>
       </c>
       <c r="CD115" t="n" s="10">
-        <v>100.62</v>
+        <v>100.66</v>
       </c>
       <c r="CE115" t="n" s="10">
-        <v>107.75</v>
+        <v>107.74</v>
       </c>
       <c r="CF115" t="n" s="10">
-        <v>105.74</v>
+        <v>105.76</v>
       </c>
       <c r="CG115" t="n" s="10">
-        <v>105.36</v>
+        <v>105.38</v>
       </c>
       <c r="CH115" t="n" s="10">
         <v>107.55</v>
       </c>
       <c r="CI115" t="n" s="10">
-        <v>104.83</v>
+        <v>104.85</v>
       </c>
       <c r="CJ115" t="n" s="10">
         <v>103.63</v>
@@ -40296,28 +40296,28 @@
         <v>103.78</v>
       </c>
       <c r="CL115" t="n" s="10">
-        <v>102.7</v>
+        <v>102.71</v>
       </c>
       <c r="CM115" t="n" s="10">
-        <v>99.9</v>
+        <v>99.86</v>
       </c>
       <c r="CN115" t="n" s="10">
-        <v>103.26</v>
+        <v>103.27</v>
       </c>
       <c r="CO115" t="n" s="10">
         <v>103.61</v>
       </c>
       <c r="CP115" t="n" s="10">
-        <v>103.18</v>
+        <v>103.19</v>
       </c>
       <c r="CQ115" t="n" s="10">
-        <v>105.41</v>
+        <v>105.43</v>
       </c>
       <c r="CR115" t="n" s="10">
-        <v>102.62</v>
+        <v>102.6</v>
       </c>
       <c r="CS115" t="n" s="10">
-        <v>102.44</v>
+        <v>102.45</v>
       </c>
       <c r="CT115" t="n" s="10">
         <v>102.51</v>
@@ -40332,79 +40332,79 @@
         <v>99.85</v>
       </c>
       <c r="CX115" t="n" s="10">
-        <v>101.06</v>
+        <v>101.07</v>
       </c>
       <c r="CY115" t="n" s="10">
-        <v>102.95</v>
+        <v>102.93</v>
       </c>
       <c r="CZ115" t="n" s="10">
-        <v>101.23</v>
+        <v>101.27</v>
       </c>
       <c r="DA115" t="n" s="10">
-        <v>101.66</v>
+        <v>101.67</v>
       </c>
       <c r="DB115" t="n" s="10">
-        <v>101.41</v>
+        <v>101.42</v>
       </c>
       <c r="DC115" t="n" s="10">
-        <v>102.33</v>
+        <v>102.36</v>
       </c>
       <c r="DD115" t="n" s="10">
-        <v>104.0</v>
+        <v>103.98</v>
       </c>
       <c r="DE115" t="n" s="10">
-        <v>103.96</v>
+        <v>103.97</v>
       </c>
       <c r="DF115" t="n" s="10">
-        <v>104.46</v>
+        <v>104.44</v>
       </c>
       <c r="DG115" t="n" s="10">
-        <v>104.16</v>
+        <v>104.15</v>
       </c>
       <c r="DH115" t="n" s="10">
         <v>105.41</v>
       </c>
       <c r="DI115" t="n" s="10">
-        <v>106.48</v>
+        <v>106.46</v>
       </c>
       <c r="DJ115" t="n" s="10">
-        <v>107.27</v>
+        <v>107.26</v>
       </c>
       <c r="DK115" t="n" s="10">
-        <v>106.21</v>
+        <v>106.18</v>
       </c>
       <c r="DL115" t="n" s="10">
-        <v>106.39</v>
+        <v>106.38</v>
       </c>
       <c r="DM115" t="n" s="10">
-        <v>106.82</v>
+        <v>106.8</v>
       </c>
       <c r="DN115" t="n" s="10">
-        <v>106.07</v>
+        <v>106.1</v>
       </c>
       <c r="DO115" t="n" s="10">
-        <v>107.87</v>
+        <v>107.91</v>
       </c>
       <c r="DP115" t="n" s="10">
-        <v>105.57</v>
+        <v>105.38</v>
       </c>
       <c r="DQ115" t="n" s="10">
         <v>105.73</v>
       </c>
       <c r="DR115" t="n" s="10">
-        <v>106.86</v>
+        <v>106.98</v>
       </c>
       <c r="DS115" t="n" s="10">
-        <v>106.05</v>
+        <v>106.19</v>
       </c>
       <c r="DT115" t="n" s="10">
-        <v>108.01</v>
+        <v>107.94</v>
       </c>
       <c r="DU115" t="n" s="10">
-        <v>105.88</v>
-      </c>
-      <c r="DV115" t="s" s="10">
-        <v>44</v>
+        <v>105.3</v>
+      </c>
+      <c r="DV115" t="n" s="10">
+        <v>103.73</v>
       </c>
     </row>
     <row r="116">
@@ -40784,7 +40784,7 @@
         <v>57</v>
       </c>
       <c r="DV116" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117">
@@ -41164,7 +41164,7 @@
         <v>57</v>
       </c>
       <c r="DV117" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="118">
@@ -41484,22 +41484,22 @@
         <v>105.78</v>
       </c>
       <c r="DB118" t="n" s="10">
-        <v>106.28</v>
+        <v>106.29</v>
       </c>
       <c r="DC118" t="n" s="10">
         <v>107.38</v>
       </c>
       <c r="DD118" t="n" s="10">
-        <v>108.3</v>
+        <v>108.29</v>
       </c>
       <c r="DE118" t="n" s="10">
-        <v>109.47</v>
+        <v>109.46</v>
       </c>
       <c r="DF118" t="n" s="10">
-        <v>112.35</v>
+        <v>112.37</v>
       </c>
       <c r="DG118" t="n" s="10">
-        <v>111.11</v>
+        <v>111.1</v>
       </c>
       <c r="DH118" t="n" s="10">
         <v>112.9</v>
@@ -41508,43 +41508,43 @@
         <v>114.19</v>
       </c>
       <c r="DJ118" t="n" s="10">
-        <v>115.83</v>
+        <v>115.79</v>
       </c>
       <c r="DK118" t="n" s="10">
-        <v>117.24</v>
+        <v>117.23</v>
       </c>
       <c r="DL118" t="n" s="10">
-        <v>119.73</v>
+        <v>119.82</v>
       </c>
       <c r="DM118" t="n" s="10">
-        <v>120.42</v>
+        <v>120.6</v>
       </c>
       <c r="DN118" t="n" s="10">
-        <v>121.56</v>
+        <v>120.99</v>
       </c>
       <c r="DO118" t="n" s="10">
-        <v>121.59</v>
+        <v>121.81</v>
       </c>
       <c r="DP118" t="n" s="10">
-        <v>119.08</v>
+        <v>119.38</v>
       </c>
       <c r="DQ118" t="n" s="10">
-        <v>120.5</v>
+        <v>120.88</v>
       </c>
       <c r="DR118" t="n" s="10">
-        <v>122.97</v>
+        <v>121.77</v>
       </c>
       <c r="DS118" t="n" s="10">
-        <v>119.32</v>
+        <v>119.96</v>
       </c>
       <c r="DT118" t="n" s="10">
-        <v>122.03</v>
+        <v>122.75</v>
       </c>
       <c r="DU118" t="n" s="10">
-        <v>121.46</v>
-      </c>
-      <c r="DV118" t="s" s="10">
-        <v>44</v>
+        <v>122.13</v>
+      </c>
+      <c r="DV118" t="n" s="10">
+        <v>122.55</v>
       </c>
     </row>
     <row r="119" ht="33.75" customHeight="true">
@@ -41929,12 +41929,12 @@
         <v>57</v>
       </c>
       <c r="DV120" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s" s="13">
         <v>43</v>
@@ -42309,12 +42309,12 @@
         <v>57</v>
       </c>
       <c r="DV121" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s" s="13">
         <v>43</v>
@@ -42689,7 +42689,7 @@
         <v>57</v>
       </c>
       <c r="DV122" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="123">
@@ -43069,7 +43069,7 @@
         <v>57</v>
       </c>
       <c r="DV123" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124">
@@ -43449,7 +43449,7 @@
         <v>57</v>
       </c>
       <c r="DV124" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="125">
@@ -43829,7 +43829,7 @@
         <v>57</v>
       </c>
       <c r="DV125" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126">
@@ -44209,7 +44209,7 @@
         <v>57</v>
       </c>
       <c r="DV126" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127">
@@ -44589,7 +44589,7 @@
         <v>57</v>
       </c>
       <c r="DV127" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128">
@@ -44969,7 +44969,7 @@
         <v>57</v>
       </c>
       <c r="DV128" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="129">
@@ -45349,7 +45349,7 @@
         <v>57</v>
       </c>
       <c r="DV129" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="130" ht="33.75" customHeight="true">
@@ -45734,12 +45734,12 @@
         <v>57</v>
       </c>
       <c r="DV131" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B132" t="s" s="13">
         <v>43</v>
@@ -46114,12 +46114,12 @@
         <v>57</v>
       </c>
       <c r="DV132" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B133" t="s" s="13">
         <v>43</v>
@@ -46494,7 +46494,7 @@
         <v>57</v>
       </c>
       <c r="DV133" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="134">
@@ -46874,7 +46874,7 @@
         <v>57</v>
       </c>
       <c r="DV134" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="135">
@@ -47254,7 +47254,7 @@
         <v>57</v>
       </c>
       <c r="DV135" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="136">
@@ -47634,7 +47634,7 @@
         <v>57</v>
       </c>
       <c r="DV136" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="137">
@@ -48014,7 +48014,7 @@
         <v>57</v>
       </c>
       <c r="DV137" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="138">
@@ -48394,7 +48394,7 @@
         <v>57</v>
       </c>
       <c r="DV138" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139">
@@ -48774,7 +48774,7 @@
         <v>57</v>
       </c>
       <c r="DV139" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="140">
@@ -49154,7 +49154,7 @@
         <v>57</v>
       </c>
       <c r="DV140" t="s" s="10">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="141">
@@ -49278,7 +49278,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:51:12&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:20:18&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>